--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -5,18 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hesaplama\src\main\resources\me\t3sl4\hesaplama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hesaplama\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5243FA-7EED-4C60-95E8-F0E1F27E595B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44945874-D774-4B0C-8CB0-99F1DE06AD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HidrolikData" sheetId="1" r:id="rId1"/>
-    <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId2"/>
-    <sheet name="Ünite Tipleri" sheetId="2" r:id="rId3"/>
+    <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
+    <sheet name="Ünite Tipi" sheetId="1" r:id="rId2"/>
+    <sheet name="Motor" sheetId="5" r:id="rId3"/>
     <sheet name="Kampana" sheetId="3" r:id="rId4"/>
+    <sheet name="Pompa-1" sheetId="6" r:id="rId5"/>
+    <sheet name="Pompa-2" sheetId="7" r:id="rId6"/>
+    <sheet name="Pompa-3" sheetId="8" r:id="rId7"/>
+    <sheet name="Kilit Motor" sheetId="10" r:id="rId8"/>
+    <sheet name="Kilit Pompa" sheetId="11" r:id="rId9"/>
+    <sheet name="Valf Tipi-1" sheetId="12" r:id="rId10"/>
+    <sheet name="Valf Tipi-2" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -220,6 +227,36 @@
   </si>
   <si>
     <t>kayipLitre</t>
+  </si>
+  <si>
+    <t>Kilit Motor Türleri</t>
+  </si>
+  <si>
+    <t>1.5 kW</t>
+  </si>
+  <si>
+    <t>2.2 kW</t>
+  </si>
+  <si>
+    <t>Kilit Pompa Türleri</t>
+  </si>
+  <si>
+    <t>Durum 1 (Hidrolik Kilit Yok)</t>
+  </si>
+  <si>
+    <t>Kilitli Blok || Çift Hız</t>
+  </si>
+  <si>
+    <t>Durum 2 (Hidrolik Kilit Var)</t>
+  </si>
+  <si>
+    <t>İnişte Tek Hız</t>
+  </si>
+  <si>
+    <t>İnişte Çift Hız</t>
+  </si>
+  <si>
+    <t>Kompanzasyon + İnişte Tek Hız</t>
   </si>
 </sst>
 </file>
@@ -536,89 +573,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A15982F-02B5-49BC-8D93-F591DF1E8850}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -758,246 +712,177 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D613C324-5BB6-4372-BB22-0D36D229F005}">
-  <dimension ref="A1:C28"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507DCE80-069D-4A32-A891-8891F2CCF23E}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EFFD40-E5CA-4A62-AF20-60A90341C84F}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD968D1-26A6-48D1-BE20-308EA7344C25}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1072,4 +957,405 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF7470E-BAEA-4496-9045-E8419B27B717}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496FB156-BD6A-4D61-B1A4-F51F1A219D68}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB414B8-733C-45D7-A777-F3FC83DC8A7A}">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A108FB51-51BF-4E5A-8B65-C0320BAFD163}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD94EA12-B65B-44C5-92FB-C1758EAF50A3}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hesaplama\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44945874-D774-4B0C-8CB0-99F1DE06AD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C0D005-DABB-4167-9092-844CC0A707C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,13 @@
     <sheet name="Kilit Pompa" sheetId="11" r:id="rId9"/>
     <sheet name="Valf Tipi-1" sheetId="12" r:id="rId10"/>
     <sheet name="Valf Tipi-2" sheetId="14" r:id="rId11"/>
+    <sheet name="Parça-Kampana" sheetId="15" r:id="rId12"/>
+    <sheet name="Parça-Pompa" sheetId="16" r:id="rId13"/>
+    <sheet name="Parça-Motor" sheetId="17" r:id="rId14"/>
+    <sheet name="Parça-Kaplin" sheetId="18" r:id="rId15"/>
+    <sheet name="Parça-Valf Blokları" sheetId="19" r:id="rId16"/>
+    <sheet name="Parça-Basınç Şalteri" sheetId="21" r:id="rId17"/>
+    <sheet name="Parça-Standart" sheetId="22" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="194">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -257,6 +264,366 @@
   </si>
   <si>
     <t>Kompanzasyon + İnişte Tek Hız</t>
+  </si>
+  <si>
+    <t>250 lik Kampana</t>
+  </si>
+  <si>
+    <t>350 lik Kampana</t>
+  </si>
+  <si>
+    <t>Malzeme Kodu</t>
+  </si>
+  <si>
+    <t>Açıklama</t>
+  </si>
+  <si>
+    <t>250'lik Kampana</t>
+  </si>
+  <si>
+    <t>300 lük Kampana</t>
+  </si>
+  <si>
+    <t>400 lük Kampana</t>
+  </si>
+  <si>
+    <t>M12 x 60 - AKB Civata</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>M12 Somun</t>
+  </si>
+  <si>
+    <t>M12 Pul</t>
+  </si>
+  <si>
+    <t>M16 x 60 - AKB Civata</t>
+  </si>
+  <si>
+    <t>M16 Somun</t>
+  </si>
+  <si>
+    <t>M16 Pul</t>
+  </si>
+  <si>
+    <t>M6 Pul</t>
+  </si>
+  <si>
+    <t>40 x 1/2 Düz Adaptör Emiş</t>
+  </si>
+  <si>
+    <t>1/2 Galvanizli Kuyruklu Dirsek</t>
+  </si>
+  <si>
+    <t>1/2 x M24 Nipel</t>
+  </si>
+  <si>
+    <t>30 x 1/2 Dirsek Adaptör Pompa</t>
+  </si>
+  <si>
+    <t>9.5 cc Pompa</t>
+  </si>
+  <si>
+    <t>16.8 cc Pompa</t>
+  </si>
+  <si>
+    <t>14.6 cc Pompa</t>
+  </si>
+  <si>
+    <t>14 cc Pompa</t>
+  </si>
+  <si>
+    <t>11.9 cc Pompa</t>
+  </si>
+  <si>
+    <t>M8 Pul</t>
+  </si>
+  <si>
+    <t>56.1 cc Pompa</t>
+  </si>
+  <si>
+    <t>49.4 cc Pompa</t>
+  </si>
+  <si>
+    <t>45.5 cc Pompa</t>
+  </si>
+  <si>
+    <t>42.6 cc Pompa</t>
+  </si>
+  <si>
+    <t>37.9 cc Pompa</t>
+  </si>
+  <si>
+    <t>33.3 cc Pompa</t>
+  </si>
+  <si>
+    <t>28.1 cc Pompa</t>
+  </si>
+  <si>
+    <t>22.9 cc Pompa</t>
+  </si>
+  <si>
+    <t>19.2 cc Pompa</t>
+  </si>
+  <si>
+    <t>40 x 3/4 Dirsek Adaptör Emiş</t>
+  </si>
+  <si>
+    <t>M6 x 30 İmbus Civata</t>
+  </si>
+  <si>
+    <t>M8 x 40 İmbus Civata</t>
+  </si>
+  <si>
+    <t>M6 x 20 İmbus Civata</t>
+  </si>
+  <si>
+    <t>1/2 - M24 Nipel</t>
+  </si>
+  <si>
+    <t>51 x 3/4 Düz Adaptör Emiş</t>
+  </si>
+  <si>
+    <t>3/4 Galvanizli Kuyruklu Dirsek</t>
+  </si>
+  <si>
+    <t>40 x 1/2 Düz Adaptör Pompa</t>
+  </si>
+  <si>
+    <t>1/2 - M30 Nipel</t>
+  </si>
+  <si>
+    <t>1/2 x 10 cm Boru</t>
+  </si>
+  <si>
+    <t>45 Lt Emiş Filtresi</t>
+  </si>
+  <si>
+    <t>1 - 1/2 Galvanizli Redüksiyon</t>
+  </si>
+  <si>
+    <t>3/4 x 10 cm Boru</t>
+  </si>
+  <si>
+    <t>65 Lt Emiş Filtresi</t>
+  </si>
+  <si>
+    <t>1 - 1/2 - 3/4 Galvanizli Redüksiyon</t>
+  </si>
+  <si>
+    <t>90 Lt Emiş Filtresi</t>
+  </si>
+  <si>
+    <t>4 kW B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>5.5 kW  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>5.5 kW (Kompakt)  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>7.5 kW (Kompakt)  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>11 kW  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>11 kW (Kompakt)  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>15 kW  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>18.5 kW  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>22 kW  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>37 kW  B5 Flanşlı Motor</t>
+  </si>
+  <si>
+    <t>1PN28 İşlenmiş Kaplin Takımı</t>
+  </si>
+  <si>
+    <t>1PN38 İşlenmiş Kaplin Takımı</t>
+  </si>
+  <si>
+    <t>4 - 5.5 kW (Kompakt) Motor 1 Grubu Pompa</t>
+  </si>
+  <si>
+    <t>5.5 - 7.5 - 11 kW Motor 1 Grubu Pompa</t>
+  </si>
+  <si>
+    <t>15 - 18.5 - 22 - 37 kW Motor 1 Grubu Pompa</t>
+  </si>
+  <si>
+    <t>1PN42 İşlenmiş Kaplin Takımı</t>
+  </si>
+  <si>
+    <t>2PN28 İşlenmiş Kaplin Takımı</t>
+  </si>
+  <si>
+    <t>2PN38 İşlenmiş Kaplin Takımı</t>
+  </si>
+  <si>
+    <t>2PN42 İşlenmiş Kaplin Takımı</t>
+  </si>
+  <si>
+    <t>4 - 5.5 kW (Kompakt) Motor 2 Grubu Pompa</t>
+  </si>
+  <si>
+    <t>5.5 - 7.5 - 11 kW Motor 2 Grubu Pompa</t>
+  </si>
+  <si>
+    <t>15 - 18.5 - 22 - 37 kW Motor 2 Grubu Pompa</t>
+  </si>
+  <si>
+    <t>Tek Hız Blok</t>
+  </si>
+  <si>
+    <t>1 Grubu Pompa Nipel</t>
+  </si>
+  <si>
+    <t>2 Grubu Pompa Nipel</t>
+  </si>
+  <si>
+    <t>3/4 x 20 Cm Boru</t>
+  </si>
+  <si>
+    <t>M6 x 100 İmbus Civata</t>
+  </si>
+  <si>
+    <t>315 Bar Manometre</t>
+  </si>
+  <si>
+    <t>1/4 Ø10 Manometre Nipeli</t>
+  </si>
+  <si>
+    <t>1/4 Ø10 Pimli Ters Dirsek</t>
+  </si>
+  <si>
+    <t>1/4 Alyan Başlı Kör Tapa</t>
+  </si>
+  <si>
+    <t>Basınç Şalteri</t>
+  </si>
+  <si>
+    <t>1/4 - Ø10 Nipel</t>
+  </si>
+  <si>
+    <t>1/4 - Ø10 Pimli Ters Nipel</t>
+  </si>
+  <si>
+    <t>1/4 - Ø10 Pimli Ters Dirsek</t>
+  </si>
+  <si>
+    <t>Çift Hız Blok</t>
+  </si>
+  <si>
+    <t>Kilitli Blok || Çift Hız Blok</t>
+  </si>
+  <si>
+    <t>Kilitli Blok Çift Hız</t>
+  </si>
+  <si>
+    <t>3/4 - M24 Nipel</t>
+  </si>
+  <si>
+    <t>3/4 - M30 Nipel</t>
+  </si>
+  <si>
+    <t>1/2 Ø10 Nipel</t>
+  </si>
+  <si>
+    <t>M6 x 120 İmbus Civata</t>
+  </si>
+  <si>
+    <t>1/4 Ø10 Nipel</t>
+  </si>
+  <si>
+    <t>Banjiyosuz Popet Blok</t>
+  </si>
+  <si>
+    <t>3/8 Çekli Hız Ayar Valfi</t>
+  </si>
+  <si>
+    <t>Normalde Kapalı 8/2 Popet Valf</t>
+  </si>
+  <si>
+    <t>24V DC Bobin</t>
+  </si>
+  <si>
+    <t>3/8 Ø12 Nipel</t>
+  </si>
+  <si>
+    <t>3/8 Ø12 Pimli Ters Nipel</t>
+  </si>
+  <si>
+    <t>Ø12 Pimli Ters Dirsek</t>
+  </si>
+  <si>
+    <t>1/2 Kompanzasyonlu Hız Ayar Valfi</t>
+  </si>
+  <si>
+    <t>1/2 Ø16 Pimli Ters Nipel</t>
+  </si>
+  <si>
+    <t>1/2 Ø12 Nipel</t>
+  </si>
+  <si>
+    <t>1/2 Erkek T</t>
+  </si>
+  <si>
+    <t>Standart Depo Kapağı</t>
+  </si>
+  <si>
+    <t>Ø127 Yağ Göstergesi</t>
+  </si>
+  <si>
+    <t>1/2 Kör Tapa Alyan Başlı</t>
+  </si>
+  <si>
+    <t>Tank Kapak Sabitleme Civatası</t>
+  </si>
+  <si>
+    <t>M6 x 15 İmbus Civata</t>
+  </si>
+  <si>
+    <t>HT 40</t>
+  </si>
+  <si>
+    <t>HT 70</t>
+  </si>
+  <si>
+    <t>HT 100</t>
+  </si>
+  <si>
+    <t>HT 125</t>
+  </si>
+  <si>
+    <t>HT 160</t>
+  </si>
+  <si>
+    <t>HT 200</t>
+  </si>
+  <si>
+    <t>HT 250</t>
+  </si>
+  <si>
+    <t>HT 300</t>
+  </si>
+  <si>
+    <t>HT 350</t>
+  </si>
+  <si>
+    <t>HT 400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehmet Abiden Gelecek </t>
   </si>
 </sst>
 </file>
@@ -292,8 +659,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EFFD40-E5CA-4A62-AF20-60A90341C84F}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,6 +1143,2892 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847819AE-C813-43E4-98A4-1D52A7A34E9C}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC879A82-6813-4ADF-98CC-3637E66FECA0}">
+  <dimension ref="A1:D152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>123</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>123</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>123</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>123</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>123</v>
+      </c>
+      <c r="C67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>123</v>
+      </c>
+      <c r="C68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>123</v>
+      </c>
+      <c r="C69" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>123</v>
+      </c>
+      <c r="C70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>123</v>
+      </c>
+      <c r="C73" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>123</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>123</v>
+      </c>
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>123</v>
+      </c>
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>123</v>
+      </c>
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>123</v>
+      </c>
+      <c r="C78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>123</v>
+      </c>
+      <c r="C79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>123</v>
+      </c>
+      <c r="C80" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>123</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>123</v>
+      </c>
+      <c r="C82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93">
+        <v>123</v>
+      </c>
+      <c r="C93" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>123</v>
+      </c>
+      <c r="C94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>123</v>
+      </c>
+      <c r="C95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>123</v>
+      </c>
+      <c r="C96" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>123</v>
+      </c>
+      <c r="C97" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>123</v>
+      </c>
+      <c r="C98" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>123</v>
+      </c>
+      <c r="C99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>123</v>
+      </c>
+      <c r="C100" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>123</v>
+      </c>
+      <c r="C101" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>123</v>
+      </c>
+      <c r="C102" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103">
+        <v>123</v>
+      </c>
+      <c r="C103" t="s">
+        <v>103</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>123</v>
+      </c>
+      <c r="C104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>123</v>
+      </c>
+      <c r="C105" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>123</v>
+      </c>
+      <c r="C106" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>123</v>
+      </c>
+      <c r="C107" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>123</v>
+      </c>
+      <c r="C108" t="s">
+        <v>115</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>123</v>
+      </c>
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>123</v>
+      </c>
+      <c r="C110" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>123</v>
+      </c>
+      <c r="C111" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>123</v>
+      </c>
+      <c r="C112" t="s">
+        <v>122</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113">
+        <v>123</v>
+      </c>
+      <c r="C113" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>123</v>
+      </c>
+      <c r="C114" t="s">
+        <v>110</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>123</v>
+      </c>
+      <c r="C115" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>123</v>
+      </c>
+      <c r="C116" t="s">
+        <v>113</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>123</v>
+      </c>
+      <c r="C117" t="s">
+        <v>114</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>123</v>
+      </c>
+      <c r="C118" t="s">
+        <v>115</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>116</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>123</v>
+      </c>
+      <c r="C120" t="s">
+        <v>120</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
+        <v>122</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>101</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>110</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>98</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>123</v>
+      </c>
+      <c r="C126" t="s">
+        <v>113</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>123</v>
+      </c>
+      <c r="C127" t="s">
+        <v>114</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>123</v>
+      </c>
+      <c r="C128" t="s">
+        <v>115</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>123</v>
+      </c>
+      <c r="C129" t="s">
+        <v>116</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>123</v>
+      </c>
+      <c r="C130" t="s">
+        <v>120</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>123</v>
+      </c>
+      <c r="C131" t="s">
+        <v>123</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>123</v>
+      </c>
+      <c r="C132" t="s">
+        <v>122</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133">
+        <v>123</v>
+      </c>
+      <c r="C133" t="s">
+        <v>100</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>123</v>
+      </c>
+      <c r="C134" t="s">
+        <v>110</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>123</v>
+      </c>
+      <c r="C135" t="s">
+        <v>98</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>123</v>
+      </c>
+      <c r="C136" t="s">
+        <v>113</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>123</v>
+      </c>
+      <c r="C137" t="s">
+        <v>114</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>123</v>
+      </c>
+      <c r="C138" t="s">
+        <v>115</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>123</v>
+      </c>
+      <c r="C139" t="s">
+        <v>116</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>123</v>
+      </c>
+      <c r="C140" t="s">
+        <v>120</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>123</v>
+      </c>
+      <c r="C141" t="s">
+        <v>123</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>123</v>
+      </c>
+      <c r="C142" t="s">
+        <v>122</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143">
+        <v>123</v>
+      </c>
+      <c r="C143" t="s">
+        <v>99</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>123</v>
+      </c>
+      <c r="C144" t="s">
+        <v>110</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>123</v>
+      </c>
+      <c r="C145" t="s">
+        <v>98</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>123</v>
+      </c>
+      <c r="C150" t="s">
+        <v>120</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>123</v>
+      </c>
+      <c r="C151" t="s">
+        <v>123</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>123</v>
+      </c>
+      <c r="C152" t="s">
+        <v>122</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8731AC-5597-4644-8EC2-5A2791480653}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C006279-3821-4C5E-B57F-684B5CF92C24}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C05B842-73A0-463E-BDA8-7CEBC6604B97}">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>123</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>123</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>123</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>123</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39">
+        <v>123</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>123</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>123</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>123</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>123</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>123</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>123</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>123</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>123</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DE2505-8503-4B06-AE34-4D48BEF23A39}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64CA26E-6542-4824-95A3-1B4FE1B2D1BB}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +4075,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1044,7 +4301,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hesaplama\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C0D005-DABB-4167-9092-844CC0A707C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7187A0DD-1D83-4587-AC8F-D50AE5864056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Parça-Valf Blokları" sheetId="19" r:id="rId16"/>
     <sheet name="Parça-Basınç Şalteri" sheetId="21" r:id="rId17"/>
     <sheet name="Parça-Standart" sheetId="22" r:id="rId18"/>
+    <sheet name="Parça-Standart Civata" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="192">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -587,9 +588,6 @@
     <t>1/2 Kör Tapa Alyan Başlı</t>
   </si>
   <si>
-    <t>Tank Kapak Sabitleme Civatası</t>
-  </si>
-  <si>
     <t>M6 x 15 İmbus Civata</t>
   </si>
   <si>
@@ -621,9 +619,6 @@
   </si>
   <si>
     <t>HT 400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mehmet Abiden Gelecek </t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1083,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1147,6 +1142,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1154,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847819AE-C813-43E4-98A4-1D52A7A34E9C}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1375,7 +1371,7 @@
   <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2939,7 +2935,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3103,6 +3099,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3111,7 +3108,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3225,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C05B842-73A0-463E-BDA8-7CEBC6604B97}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3806,7 +3803,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3882,10 +3879,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64CA26E-6542-4824-95A3-1B4FE1B2D1BB}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3942,96 +3939,157 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
         <v>181</v>
       </c>
-      <c r="C5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" t="s">
-        <v>193</v>
+      <c r="D5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>183</v>
       </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>184</v>
       </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>185</v>
       </c>
+      <c r="B8">
+        <v>123</v>
+      </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>186</v>
       </c>
+      <c r="B9">
+        <v>123</v>
+      </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>187</v>
       </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>188</v>
       </c>
+      <c r="B11">
+        <v>123</v>
+      </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>189</v>
       </c>
+      <c r="B12">
+        <v>123</v>
+      </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>190</v>
       </c>
+      <c r="B13">
+        <v>123</v>
+      </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D13">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>191</v>
       </c>
+      <c r="B14">
+        <v>123</v>
+      </c>
       <c r="C14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFEE922-4DFC-416B-ADD7-A86575364EE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hesaplama\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7187A0DD-1D83-4587-AC8F-D50AE5864056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26130D45-E75C-4020-8A7F-9ABE8857BF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -31,9 +31,8 @@
     <sheet name="Parça-Valf Blokları" sheetId="19" r:id="rId16"/>
     <sheet name="Parça-Basınç Şalteri" sheetId="21" r:id="rId17"/>
     <sheet name="Parça-Standart" sheetId="22" r:id="rId18"/>
-    <sheet name="Parça-Standart Civata" sheetId="23" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="291">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -588,6 +587,9 @@
     <t>1/2 Kör Tapa Alyan Başlı</t>
   </si>
   <si>
+    <t>Tank Kapak Sabitleme Civatası</t>
+  </si>
+  <si>
     <t>M6 x 15 İmbus Civata</t>
   </si>
   <si>
@@ -619,6 +621,300 @@
   </si>
   <si>
     <t>HT 400</t>
+  </si>
+  <si>
+    <t>150-51-06-510</t>
+  </si>
+  <si>
+    <t>KAMPANA (SERİ) 2K-250 GR30 SERİSİ</t>
+  </si>
+  <si>
+    <t>150-51-06-511</t>
+  </si>
+  <si>
+    <t>KAMPANA (SERİ) 2K-300 GR30 SERİSİ</t>
+  </si>
+  <si>
+    <t>150-51-06-512</t>
+  </si>
+  <si>
+    <t>KAMPANA (SERİ) 2K-350 GR30 SERİSİ</t>
+  </si>
+  <si>
+    <t>150-51-06-518</t>
+  </si>
+  <si>
+    <t>KAMPANA (SERİ) 2K-400 GR30 SERİSİ</t>
+  </si>
+  <si>
+    <t>150-50-21-590</t>
+  </si>
+  <si>
+    <t>150-50-21-639</t>
+  </si>
+  <si>
+    <t>150-50-23-007</t>
+  </si>
+  <si>
+    <t>150-50-23-009</t>
+  </si>
+  <si>
+    <t>150-50-24-026</t>
+  </si>
+  <si>
+    <t>150-50-24-008</t>
+  </si>
+  <si>
+    <t>150-51-01-305</t>
+  </si>
+  <si>
+    <t>150-51-01-306</t>
+  </si>
+  <si>
+    <t>150-51-01-308</t>
+  </si>
+  <si>
+    <t>150-51-01-309</t>
+  </si>
+  <si>
+    <t>150-51-01-310</t>
+  </si>
+  <si>
+    <t>150-51-01-311</t>
+  </si>
+  <si>
+    <t>150-51-01-312</t>
+  </si>
+  <si>
+    <t>150-51-01-313</t>
+  </si>
+  <si>
+    <t>150-51-01-354</t>
+  </si>
+  <si>
+    <t>150-51-01-355</t>
+  </si>
+  <si>
+    <t>150-51-01-356</t>
+  </si>
+  <si>
+    <t>150-51-01-357</t>
+  </si>
+  <si>
+    <t>150-51-01-358</t>
+  </si>
+  <si>
+    <t>150-51-01-359</t>
+  </si>
+  <si>
+    <t>150-50-21-065</t>
+  </si>
+  <si>
+    <t>150-50-24-003</t>
+  </si>
+  <si>
+    <t>150-51-06-396</t>
+  </si>
+  <si>
+    <t>POMPA ADAPTÖRÜ 1/2 Ø40</t>
+  </si>
+  <si>
+    <t>150-51-06-399</t>
+  </si>
+  <si>
+    <t>150-53-08-651</t>
+  </si>
+  <si>
+    <t>150-51-06-413</t>
+  </si>
+  <si>
+    <t>POMPA ADAPTÖRLERİ DPA-30 90 ° DİRSEK 1/2"</t>
+  </si>
+  <si>
+    <t>150-51-09-080</t>
+  </si>
+  <si>
+    <t>REKOR M24 1/2"</t>
+  </si>
+  <si>
+    <t>150-51-07-004</t>
+  </si>
+  <si>
+    <t>150-53-08-011</t>
+  </si>
+  <si>
+    <t>150-51-06-433</t>
+  </si>
+  <si>
+    <t>POMPA ADAPTÖRLERİ DPA-30 1/2 90 ° DİRSEK</t>
+  </si>
+  <si>
+    <t>POMPA ADAPTÖRÜ 3/4 Ø40</t>
+  </si>
+  <si>
+    <t>150-51-07-005</t>
+  </si>
+  <si>
+    <t>150-53-08-014</t>
+  </si>
+  <si>
+    <t>150-50-21-063</t>
+  </si>
+  <si>
+    <t>150-50-21-097</t>
+  </si>
+  <si>
+    <t>150-50-24-004</t>
+  </si>
+  <si>
+    <t>150-51-06-443</t>
+  </si>
+  <si>
+    <t>150-53-08-652</t>
+  </si>
+  <si>
+    <t>150-51-07-006</t>
+  </si>
+  <si>
+    <t>150-52-13-014</t>
+  </si>
+  <si>
+    <t>150-52-13-016</t>
+  </si>
+  <si>
+    <t>150-52-13-017</t>
+  </si>
+  <si>
+    <t>150-52-13-018</t>
+  </si>
+  <si>
+    <t>150-52-13-019</t>
+  </si>
+  <si>
+    <t>150-52-13-196</t>
+  </si>
+  <si>
+    <t>150-52-13-020</t>
+  </si>
+  <si>
+    <t>150-52-13-199</t>
+  </si>
+  <si>
+    <t>150-52-13-206</t>
+  </si>
+  <si>
+    <t>ELEKTRİK MOTORU 37 KW 1500 d/dk 380V B5 FLANŞLI VOLT</t>
+  </si>
+  <si>
+    <t>İKİ TANE AYNI MOTOR VAR</t>
+  </si>
+  <si>
+    <t>150-51-06-579</t>
+  </si>
+  <si>
+    <t>150-51-06-576</t>
+  </si>
+  <si>
+    <t>150-51-06-560</t>
+  </si>
+  <si>
+    <t>150-51-06-580</t>
+  </si>
+  <si>
+    <t>150-51-06-575</t>
+  </si>
+  <si>
+    <t>150-51-06-561</t>
+  </si>
+  <si>
+    <t>150-50-21-078</t>
+  </si>
+  <si>
+    <t>150-51-10-803</t>
+  </si>
+  <si>
+    <t>150-51-10-797</t>
+  </si>
+  <si>
+    <t>150-51-10-798</t>
+  </si>
+  <si>
+    <t>MANOMETRE REKORU 1/4-Ø10 PİMLİ</t>
+  </si>
+  <si>
+    <t>150-53-08-503</t>
+  </si>
+  <si>
+    <t>150-51-05-069</t>
+  </si>
+  <si>
+    <t>150-51-09-087</t>
+  </si>
+  <si>
+    <t>150-51-09-093</t>
+  </si>
+  <si>
+    <t>150-51-09-019</t>
+  </si>
+  <si>
+    <t>150-51-09-016</t>
+  </si>
+  <si>
+    <t>150-51-05-100</t>
+  </si>
+  <si>
+    <t>150-50-21-082</t>
+  </si>
+  <si>
+    <t>150-51-05-054</t>
+  </si>
+  <si>
+    <t>POPET BLOĞU 3/8" BANGİOSUZ</t>
+  </si>
+  <si>
+    <t>150-51-04-051</t>
+  </si>
+  <si>
+    <t>150-51-04-042</t>
+  </si>
+  <si>
+    <t>VALF 8/2-24 NORMALDE KAPALI POPET VALF</t>
+  </si>
+  <si>
+    <t>150-51-09-022</t>
+  </si>
+  <si>
+    <t>150-51-20-601</t>
+  </si>
+  <si>
+    <t>REKOR PİMLİ Ø12 3/8</t>
+  </si>
+  <si>
+    <t>150-51-09-812</t>
+  </si>
+  <si>
+    <t>150-51-04-068</t>
+  </si>
+  <si>
+    <t>150-51-09-940</t>
+  </si>
+  <si>
+    <t>150-51-10-457</t>
+  </si>
+  <si>
+    <t>150-51-09-931</t>
+  </si>
+  <si>
+    <t>150-51-07-201</t>
+  </si>
+  <si>
+    <t>150-51-08-001</t>
+  </si>
+  <si>
+    <t>150-53-08-502</t>
+  </si>
+  <si>
+    <t>150-50-21-062</t>
   </si>
 </sst>
 </file>
@@ -634,12 +930,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -654,12 +956,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,6 +981,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601981</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213361</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Resim 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6339841" y="15240"/>
+          <a:ext cx="5707380" cy="849751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Resim 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="2247900"/>
+          <a:ext cx="5600700" cy="1125169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A15982F-02B5-49BC-8D93-F591DF1E8850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -951,19 +1350,19 @@
     <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
     <col min="5" max="5" width="15.54296875" customWidth="1"/>
     <col min="6" max="6" width="21.54296875" customWidth="1"/>
     <col min="7" max="7" width="18.54296875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="32.1796875" customWidth="1"/>
     <col min="10" max="10" width="20.81640625" customWidth="1"/>
-    <col min="11" max="11" width="25.26953125" customWidth="1"/>
+    <col min="11" max="11" width="25.1796875" customWidth="1"/>
     <col min="12" max="12" width="26.36328125" customWidth="1"/>
     <col min="13" max="13" width="26.1796875" customWidth="1"/>
     <col min="14" max="14" width="24.08984375" customWidth="1"/>
-    <col min="15" max="15" width="20.7265625" customWidth="1"/>
-    <col min="16" max="16" width="22.26953125" customWidth="1"/>
+    <col min="15" max="15" width="20.81640625" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" customWidth="1"/>
     <col min="17" max="17" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1079,16 +1478,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507DCE80-069D-4A32-A891-8891F2CCF23E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -1108,7 +1507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EFFD40-E5CA-4A62-AF20-60A90341C84F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1142,16 +1541,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847819AE-C813-43E4-98A4-1D52A7A34E9C}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,10 +1557,11 @@
     <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="15.36328125" customWidth="1"/>
     <col min="3" max="3" width="31.36328125" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -1173,12 +1572,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>74</v>
       </c>
-      <c r="B2">
-        <v>123</v>
+      <c r="B2" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="C2" t="s">
         <v>78</v>
@@ -1186,10 +1585,13 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>123</v>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
@@ -1198,9 +1600,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>123</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="C4" t="s">
         <v>83</v>
@@ -1209,9 +1611,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>123</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C5" t="s">
         <v>84</v>
@@ -1220,12 +1622,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
-      <c r="B7">
-        <v>123</v>
+      <c r="B7" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -1233,10 +1635,13 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>123</v>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -1245,9 +1650,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>123</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="C9" t="s">
         <v>83</v>
@@ -1256,9 +1661,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>123</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C10" t="s">
         <v>84</v>
@@ -1267,12 +1672,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>75</v>
       </c>
-      <c r="B12">
-        <v>123</v>
+      <c r="B12" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
@@ -1280,10 +1685,13 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>123</v>
+      <c r="E12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
@@ -1292,9 +1700,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <v>123</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -1303,9 +1711,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <v>123</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -1314,12 +1722,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>80</v>
       </c>
-      <c r="B17">
-        <v>123</v>
+      <c r="B17" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>80</v>
@@ -1327,10 +1735,13 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <v>123</v>
+      <c r="E17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C18" t="s">
         <v>85</v>
@@ -1339,9 +1750,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>123</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="C19" t="s">
         <v>86</v>
@@ -1350,9 +1761,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>123</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
@@ -1367,11 +1778,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC879A82-6813-4ADF-98CC-3637E66FECA0}">
-  <dimension ref="A1:D152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+      <selection activeCell="E17" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1380,9 +1791,10 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="31.08984375" customWidth="1"/>
     <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -1393,12 +1805,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>123</v>
+      <c r="B2" t="s">
+        <v>207</v>
       </c>
       <c r="C2" t="s">
         <v>93</v>
@@ -1407,9 +1819,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>123</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>221</v>
       </c>
       <c r="C3" t="s">
         <v>109</v>
@@ -1418,9 +1830,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>123</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>222</v>
       </c>
       <c r="C4" t="s">
         <v>88</v>
@@ -1429,9 +1841,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>123</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>223</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
@@ -1439,10 +1851,13 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>123</v>
+      <c r="E5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>226</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -1451,9 +1866,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>123</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>227</v>
       </c>
       <c r="C7" t="s">
         <v>92</v>
@@ -1461,10 +1876,13 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>123</v>
+      <c r="E7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>229</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -1472,8 +1890,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>123</v>
       </c>
@@ -1484,9 +1905,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>123</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>231</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -1495,9 +1916,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <v>123</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>232</v>
       </c>
       <c r="C11" t="s">
         <v>119</v>
@@ -1506,12 +1927,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>123</v>
+      <c r="B12" t="s">
+        <v>208</v>
       </c>
       <c r="C12" t="s">
         <v>97</v>
@@ -1520,9 +1941,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>123</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>221</v>
       </c>
       <c r="C13" t="s">
         <v>109</v>
@@ -1531,9 +1952,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <v>123</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>222</v>
       </c>
       <c r="C14" t="s">
         <v>88</v>
@@ -1542,9 +1963,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <v>123</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>223</v>
       </c>
       <c r="C15" t="s">
         <v>89</v>
@@ -1553,9 +1974,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>123</v>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>226</v>
       </c>
       <c r="C16" t="s">
         <v>90</v>
@@ -1565,8 +1986,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>123</v>
+      <c r="B17" t="s">
+        <v>227</v>
       </c>
       <c r="C17" t="s">
         <v>92</v>
@@ -1576,8 +1997,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <v>123</v>
+      <c r="B18" t="s">
+        <v>229</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
@@ -1598,8 +2019,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>123</v>
+      <c r="B20" t="s">
+        <v>231</v>
       </c>
       <c r="C20" t="s">
         <v>118</v>
@@ -1609,8 +2030,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <v>123</v>
+      <c r="B21" t="s">
+        <v>232</v>
       </c>
       <c r="C21" t="s">
         <v>119</v>
@@ -1623,8 +2044,8 @@
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
-        <v>123</v>
+      <c r="B22" t="s">
+        <v>209</v>
       </c>
       <c r="C22" t="s">
         <v>96</v>
@@ -1634,8 +2055,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <v>123</v>
+      <c r="B23" t="s">
+        <v>221</v>
       </c>
       <c r="C23" t="s">
         <v>109</v>
@@ -1645,8 +2066,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B24">
-        <v>123</v>
+      <c r="B24" t="s">
+        <v>222</v>
       </c>
       <c r="C24" t="s">
         <v>88</v>
@@ -1656,8 +2077,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <v>123</v>
+      <c r="B25" t="s">
+        <v>223</v>
       </c>
       <c r="C25" t="s">
         <v>89</v>
@@ -1667,8 +2088,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>123</v>
+      <c r="B26" t="s">
+        <v>226</v>
       </c>
       <c r="C26" t="s">
         <v>90</v>
@@ -1678,8 +2099,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B27">
-        <v>123</v>
+      <c r="B27" t="s">
+        <v>227</v>
       </c>
       <c r="C27" t="s">
         <v>92</v>
@@ -1689,8 +2110,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B28">
-        <v>123</v>
+      <c r="B28" t="s">
+        <v>229</v>
       </c>
       <c r="C28" t="s">
         <v>91</v>
@@ -1711,8 +2132,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B30">
-        <v>123</v>
+      <c r="B30" t="s">
+        <v>231</v>
       </c>
       <c r="C30" t="s">
         <v>118</v>
@@ -1722,8 +2143,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31">
-        <v>123</v>
+      <c r="B31" t="s">
+        <v>232</v>
       </c>
       <c r="C31" t="s">
         <v>119</v>
@@ -1736,8 +2157,8 @@
       <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="B32">
-        <v>123</v>
+      <c r="B32" t="s">
+        <v>210</v>
       </c>
       <c r="C32" t="s">
         <v>95</v>
@@ -1746,9 +2167,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B33">
-        <v>123</v>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>221</v>
       </c>
       <c r="C33" t="s">
         <v>109</v>
@@ -1757,9 +2178,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B34">
-        <v>123</v>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>222</v>
       </c>
       <c r="C34" t="s">
         <v>88</v>
@@ -1768,9 +2189,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B35">
-        <v>123</v>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>223</v>
       </c>
       <c r="C35" t="s">
         <v>89</v>
@@ -1779,9 +2200,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B36">
-        <v>123</v>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>226</v>
       </c>
       <c r="C36" t="s">
         <v>90</v>
@@ -1790,9 +2211,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B37">
-        <v>123</v>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>227</v>
       </c>
       <c r="C37" t="s">
         <v>92</v>
@@ -1801,9 +2222,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B38">
-        <v>123</v>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>229</v>
       </c>
       <c r="C38" t="s">
         <v>91</v>
@@ -1812,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>123</v>
       </c>
@@ -1823,9 +2244,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B40">
-        <v>123</v>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>231</v>
       </c>
       <c r="C40" t="s">
         <v>118</v>
@@ -1834,9 +2255,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B41">
-        <v>123</v>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>232</v>
       </c>
       <c r="C41" t="s">
         <v>119</v>
@@ -1845,12 +2266,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>20</v>
       </c>
-      <c r="B42">
-        <v>123</v>
+      <c r="B42" t="s">
+        <v>211</v>
       </c>
       <c r="C42" t="s">
         <v>94</v>
@@ -1859,9 +2280,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B43">
-        <v>123</v>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>221</v>
       </c>
       <c r="C43" t="s">
         <v>109</v>
@@ -1870,9 +2291,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B44">
-        <v>123</v>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>222</v>
       </c>
       <c r="C44" t="s">
         <v>88</v>
@@ -1881,9 +2302,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B45">
-        <v>123</v>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>223</v>
       </c>
       <c r="C45" t="s">
         <v>89</v>
@@ -1892,9 +2313,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B46">
-        <v>123</v>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>226</v>
       </c>
       <c r="C46" t="s">
         <v>90</v>
@@ -1903,9 +2324,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B47">
-        <v>123</v>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>233</v>
       </c>
       <c r="C47" t="s">
         <v>92</v>
@@ -1913,10 +2334,13 @@
       <c r="D47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48">
-        <v>123</v>
+      <c r="E47" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>229</v>
       </c>
       <c r="C48" t="s">
         <v>91</v>
@@ -1925,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>123</v>
       </c>
@@ -1936,9 +2360,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B50">
-        <v>123</v>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>231</v>
       </c>
       <c r="C50" t="s">
         <v>118</v>
@@ -1947,9 +2371,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B51">
-        <v>123</v>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>232</v>
       </c>
       <c r="C51" t="s">
         <v>119</v>
@@ -1958,12 +2382,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>21</v>
       </c>
-      <c r="B52">
-        <v>123</v>
+      <c r="B52" t="s">
+        <v>212</v>
       </c>
       <c r="C52" t="s">
         <v>107</v>
@@ -1972,9 +2396,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B53">
-        <v>123</v>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>221</v>
       </c>
       <c r="C53" t="s">
         <v>109</v>
@@ -1983,9 +2407,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B54">
-        <v>123</v>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>222</v>
       </c>
       <c r="C54" t="s">
         <v>88</v>
@@ -1994,9 +2418,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B55">
-        <v>123</v>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>225</v>
       </c>
       <c r="C55" t="s">
         <v>108</v>
@@ -2004,10 +2428,13 @@
       <c r="D55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B56">
-        <v>123</v>
+      <c r="E55" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>227</v>
       </c>
       <c r="C56" t="s">
         <v>92</v>
@@ -2016,9 +2443,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B57">
-        <v>123</v>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>229</v>
       </c>
       <c r="C57" t="s">
         <v>112</v>
@@ -2027,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>123</v>
       </c>
@@ -2038,9 +2465,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B59">
-        <v>123</v>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>236</v>
       </c>
       <c r="C59" t="s">
         <v>121</v>
@@ -2049,9 +2476,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B60">
-        <v>123</v>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>237</v>
       </c>
       <c r="C60" t="s">
         <v>122</v>
@@ -2060,12 +2487,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>22</v>
       </c>
-      <c r="B62">
-        <v>123</v>
+      <c r="B62" t="s">
+        <v>213</v>
       </c>
       <c r="C62" t="s">
         <v>106</v>
@@ -2074,9 +2501,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B63">
-        <v>123</v>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>221</v>
       </c>
       <c r="C63" t="s">
         <v>109</v>
@@ -2085,9 +2512,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B64">
-        <v>123</v>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>222</v>
       </c>
       <c r="C64" t="s">
         <v>88</v>
@@ -2097,8 +2524,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B65">
-        <v>123</v>
+      <c r="B65" t="s">
+        <v>225</v>
       </c>
       <c r="C65" t="s">
         <v>108</v>
@@ -2108,8 +2535,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B66">
-        <v>123</v>
+      <c r="B66" t="s">
+        <v>227</v>
       </c>
       <c r="C66" t="s">
         <v>92</v>
@@ -2119,8 +2546,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B67">
-        <v>123</v>
+      <c r="B67" t="s">
+        <v>229</v>
       </c>
       <c r="C67" t="s">
         <v>112</v>
@@ -2141,8 +2568,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B69">
-        <v>123</v>
+      <c r="B69" t="s">
+        <v>236</v>
       </c>
       <c r="C69" t="s">
         <v>121</v>
@@ -2152,8 +2579,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B70">
-        <v>123</v>
+      <c r="B70" t="s">
+        <v>237</v>
       </c>
       <c r="C70" t="s">
         <v>122</v>
@@ -2166,8 +2593,8 @@
       <c r="A72" t="s">
         <v>23</v>
       </c>
-      <c r="B72">
-        <v>123</v>
+      <c r="B72" t="s">
+        <v>214</v>
       </c>
       <c r="C72" t="s">
         <v>105</v>
@@ -2177,8 +2604,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B73">
-        <v>123</v>
+      <c r="B73" t="s">
+        <v>221</v>
       </c>
       <c r="C73" t="s">
         <v>109</v>
@@ -2188,8 +2615,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B74">
-        <v>123</v>
+      <c r="B74" t="s">
+        <v>222</v>
       </c>
       <c r="C74" t="s">
         <v>88</v>
@@ -2199,8 +2626,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B75">
-        <v>123</v>
+      <c r="B75" t="s">
+        <v>225</v>
       </c>
       <c r="C75" t="s">
         <v>108</v>
@@ -2210,8 +2637,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B76">
-        <v>123</v>
+      <c r="B76" t="s">
+        <v>238</v>
       </c>
       <c r="C76" t="s">
         <v>111</v>
@@ -2221,8 +2648,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B77">
-        <v>123</v>
+      <c r="B77" t="s">
+        <v>222</v>
       </c>
       <c r="C77" t="s">
         <v>88</v>
@@ -2232,8 +2659,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B78">
-        <v>123</v>
+      <c r="B78" t="s">
+        <v>227</v>
       </c>
       <c r="C78" t="s">
         <v>92</v>
@@ -2243,8 +2670,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B79">
-        <v>123</v>
+      <c r="B79" t="s">
+        <v>229</v>
       </c>
       <c r="C79" t="s">
         <v>112</v>
@@ -2265,8 +2692,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B81">
-        <v>123</v>
+      <c r="B81" t="s">
+        <v>236</v>
       </c>
       <c r="C81" t="s">
         <v>121</v>
@@ -2276,8 +2703,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B82">
-        <v>123</v>
+      <c r="B82" t="s">
+        <v>237</v>
       </c>
       <c r="C82" t="s">
         <v>122</v>
@@ -2295,8 +2722,8 @@
       <c r="A93" t="s">
         <v>25</v>
       </c>
-      <c r="B93">
-        <v>123</v>
+      <c r="B93" t="s">
+        <v>215</v>
       </c>
       <c r="C93" t="s">
         <v>104</v>
@@ -2306,8 +2733,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B94">
-        <v>123</v>
+      <c r="B94" t="s">
+        <v>239</v>
       </c>
       <c r="C94" t="s">
         <v>110</v>
@@ -2317,8 +2744,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B95">
-        <v>123</v>
+      <c r="B95" t="s">
+        <v>240</v>
       </c>
       <c r="C95" t="s">
         <v>98</v>
@@ -2328,8 +2755,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B96">
-        <v>123</v>
+      <c r="B96" t="s">
+        <v>241</v>
       </c>
       <c r="C96" t="s">
         <v>113</v>
@@ -2339,8 +2766,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B97">
-        <v>123</v>
+      <c r="B97" t="s">
+        <v>242</v>
       </c>
       <c r="C97" t="s">
         <v>114</v>
@@ -2350,8 +2777,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B98">
-        <v>123</v>
+      <c r="B98" t="s">
+        <v>223</v>
       </c>
       <c r="C98" t="s">
         <v>115</v>
@@ -2383,8 +2810,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B101">
-        <v>123</v>
+      <c r="B101" t="s">
+        <v>243</v>
       </c>
       <c r="C101" t="s">
         <v>123</v>
@@ -2394,8 +2821,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B102">
-        <v>123</v>
+      <c r="B102" t="s">
+        <v>237</v>
       </c>
       <c r="C102" t="s">
         <v>122</v>
@@ -2408,8 +2835,8 @@
       <c r="A103" t="s">
         <v>26</v>
       </c>
-      <c r="B103">
-        <v>123</v>
+      <c r="B103" t="s">
+        <v>216</v>
       </c>
       <c r="C103" t="s">
         <v>103</v>
@@ -2419,8 +2846,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B104">
-        <v>123</v>
+      <c r="B104" t="s">
+        <v>239</v>
       </c>
       <c r="C104" t="s">
         <v>110</v>
@@ -2430,8 +2857,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B105">
-        <v>123</v>
+      <c r="B105" t="s">
+        <v>240</v>
       </c>
       <c r="C105" t="s">
         <v>98</v>
@@ -2441,8 +2868,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B106">
-        <v>123</v>
+      <c r="B106" t="s">
+        <v>241</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -2452,8 +2879,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B107">
-        <v>123</v>
+      <c r="B107" t="s">
+        <v>242</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -2463,8 +2890,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B108">
-        <v>123</v>
+      <c r="B108" t="s">
+        <v>223</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -2496,8 +2923,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B111">
-        <v>123</v>
+      <c r="B111" t="s">
+        <v>243</v>
       </c>
       <c r="C111" t="s">
         <v>123</v>
@@ -2507,8 +2934,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B112">
-        <v>123</v>
+      <c r="B112" t="s">
+        <v>237</v>
       </c>
       <c r="C112" t="s">
         <v>122</v>
@@ -2521,8 +2948,8 @@
       <c r="A113" t="s">
         <v>27</v>
       </c>
-      <c r="B113">
-        <v>123</v>
+      <c r="B113" t="s">
+        <v>217</v>
       </c>
       <c r="C113" t="s">
         <v>102</v>
@@ -2532,8 +2959,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B114">
-        <v>123</v>
+      <c r="B114" t="s">
+        <v>239</v>
       </c>
       <c r="C114" t="s">
         <v>110</v>
@@ -2543,8 +2970,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B115">
-        <v>123</v>
+      <c r="B115" t="s">
+        <v>240</v>
       </c>
       <c r="C115" t="s">
         <v>98</v>
@@ -2554,8 +2981,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B116">
-        <v>123</v>
+      <c r="B116" t="s">
+        <v>241</v>
       </c>
       <c r="C116" t="s">
         <v>113</v>
@@ -2565,8 +2992,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B117">
-        <v>123</v>
+      <c r="B117" t="s">
+        <v>242</v>
       </c>
       <c r="C117" t="s">
         <v>114</v>
@@ -2576,8 +3003,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B118">
-        <v>123</v>
+      <c r="B118" t="s">
+        <v>223</v>
       </c>
       <c r="C118" t="s">
         <v>115</v>
@@ -2609,8 +3036,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B121">
-        <v>123</v>
+      <c r="B121" t="s">
+        <v>243</v>
       </c>
       <c r="C121" t="s">
         <v>123</v>
@@ -2620,8 +3047,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B122">
-        <v>123</v>
+      <c r="B122" t="s">
+        <v>237</v>
       </c>
       <c r="C122" t="s">
         <v>122</v>
@@ -2634,8 +3061,8 @@
       <c r="A123" t="s">
         <v>28</v>
       </c>
-      <c r="B123">
-        <v>123</v>
+      <c r="B123" t="s">
+        <v>218</v>
       </c>
       <c r="C123" t="s">
         <v>101</v>
@@ -2645,8 +3072,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B124">
-        <v>123</v>
+      <c r="B124" t="s">
+        <v>239</v>
       </c>
       <c r="C124" t="s">
         <v>110</v>
@@ -2656,8 +3083,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B125">
-        <v>123</v>
+      <c r="B125" t="s">
+        <v>240</v>
       </c>
       <c r="C125" t="s">
         <v>98</v>
@@ -2667,8 +3094,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B126">
-        <v>123</v>
+      <c r="B126" t="s">
+        <v>241</v>
       </c>
       <c r="C126" t="s">
         <v>113</v>
@@ -2678,8 +3105,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B127">
-        <v>123</v>
+      <c r="B127" t="s">
+        <v>242</v>
       </c>
       <c r="C127" t="s">
         <v>114</v>
@@ -2689,8 +3116,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B128">
-        <v>123</v>
+      <c r="B128" t="s">
+        <v>223</v>
       </c>
       <c r="C128" t="s">
         <v>115</v>
@@ -2722,8 +3149,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B131">
-        <v>123</v>
+      <c r="B131" t="s">
+        <v>243</v>
       </c>
       <c r="C131" t="s">
         <v>123</v>
@@ -2733,8 +3160,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B132">
-        <v>123</v>
+      <c r="B132" t="s">
+        <v>237</v>
       </c>
       <c r="C132" t="s">
         <v>122</v>
@@ -2747,8 +3174,8 @@
       <c r="A133" t="s">
         <v>29</v>
       </c>
-      <c r="B133">
-        <v>123</v>
+      <c r="B133" t="s">
+        <v>219</v>
       </c>
       <c r="C133" t="s">
         <v>100</v>
@@ -2758,8 +3185,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B134">
-        <v>123</v>
+      <c r="B134" t="s">
+        <v>239</v>
       </c>
       <c r="C134" t="s">
         <v>110</v>
@@ -2769,8 +3196,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B135">
-        <v>123</v>
+      <c r="B135" t="s">
+        <v>240</v>
       </c>
       <c r="C135" t="s">
         <v>98</v>
@@ -2780,8 +3207,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B136">
-        <v>123</v>
+      <c r="B136" t="s">
+        <v>241</v>
       </c>
       <c r="C136" t="s">
         <v>113</v>
@@ -2791,8 +3218,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B137">
-        <v>123</v>
+      <c r="B137" t="s">
+        <v>242</v>
       </c>
       <c r="C137" t="s">
         <v>114</v>
@@ -2802,8 +3229,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B138">
-        <v>123</v>
+      <c r="B138" t="s">
+        <v>223</v>
       </c>
       <c r="C138" t="s">
         <v>115</v>
@@ -2835,8 +3262,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B141">
-        <v>123</v>
+      <c r="B141" t="s">
+        <v>243</v>
       </c>
       <c r="C141" t="s">
         <v>123</v>
@@ -2846,8 +3273,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B142">
-        <v>123</v>
+      <c r="B142" t="s">
+        <v>237</v>
       </c>
       <c r="C142" t="s">
         <v>122</v>
@@ -2860,8 +3287,8 @@
       <c r="A143" t="s">
         <v>30</v>
       </c>
-      <c r="B143">
-        <v>123</v>
+      <c r="B143" t="s">
+        <v>220</v>
       </c>
       <c r="C143" t="s">
         <v>99</v>
@@ -2871,8 +3298,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B144">
-        <v>123</v>
+      <c r="B144" t="s">
+        <v>239</v>
       </c>
       <c r="C144" t="s">
         <v>110</v>
@@ -2882,8 +3309,8 @@
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B145">
-        <v>123</v>
+      <c r="B145" t="s">
+        <v>240</v>
       </c>
       <c r="C145" t="s">
         <v>98</v>
@@ -2904,8 +3331,8 @@
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B151">
-        <v>123</v>
+      <c r="B151" t="s">
+        <v>243</v>
       </c>
       <c r="C151" t="s">
         <v>123</v>
@@ -2915,8 +3342,8 @@
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B152">
-        <v>123</v>
+      <c r="B152" t="s">
+        <v>237</v>
       </c>
       <c r="C152" t="s">
         <v>122</v>
@@ -2931,22 +3358,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8731AC-5597-4644-8EC2-5A2791480653}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="31.36328125" customWidth="1"/>
     <col min="4" max="4" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -2957,12 +3384,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2">
-        <v>123</v>
+      <c r="B2" t="s">
+        <v>244</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -2971,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2985,12 +3412,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4">
-        <v>123</v>
+      <c r="B4" t="s">
+        <v>245</v>
       </c>
       <c r="C4" t="s">
         <v>126</v>
@@ -2999,12 +3426,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5">
-        <v>123</v>
+      <c r="B5" t="s">
+        <v>246</v>
       </c>
       <c r="C5" t="s">
         <v>127</v>
@@ -3013,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3027,12 +3454,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B7">
-        <v>123</v>
+      <c r="B7" t="s">
+        <v>247</v>
       </c>
       <c r="C7" t="s">
         <v>129</v>
@@ -3041,12 +3468,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8">
-        <v>123</v>
+      <c r="B8" t="s">
+        <v>248</v>
       </c>
       <c r="C8" t="s">
         <v>130</v>
@@ -3055,12 +3482,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9">
-        <v>123</v>
+      <c r="B9" t="s">
+        <v>249</v>
       </c>
       <c r="C9" t="s">
         <v>131</v>
@@ -3069,12 +3496,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="B10">
-        <v>123</v>
+      <c r="B10" t="s">
+        <v>250</v>
       </c>
       <c r="C10" t="s">
         <v>132</v>
@@ -3083,32 +3510,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B11">
-        <v>123</v>
+      <c r="B11" t="s">
+        <v>252</v>
       </c>
       <c r="C11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" t="s">
         <v>133</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E11:G12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C006279-3821-4C5E-B57F-684B5CF92C24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3133,8 +3578,8 @@
       <c r="A2" t="s">
         <v>136</v>
       </c>
-      <c r="B2">
-        <v>123</v>
+      <c r="B2" t="s">
+        <v>255</v>
       </c>
       <c r="C2" t="s">
         <v>134</v>
@@ -3147,8 +3592,8 @@
       <c r="A3" t="s">
         <v>137</v>
       </c>
-      <c r="B3">
-        <v>123</v>
+      <c r="B3" t="s">
+        <v>256</v>
       </c>
       <c r="C3" t="s">
         <v>135</v>
@@ -3161,8 +3606,8 @@
       <c r="A4" t="s">
         <v>138</v>
       </c>
-      <c r="B4">
-        <v>123</v>
+      <c r="B4" t="s">
+        <v>257</v>
       </c>
       <c r="C4" t="s">
         <v>139</v>
@@ -3175,8 +3620,8 @@
       <c r="A5" t="s">
         <v>143</v>
       </c>
-      <c r="B5">
-        <v>123</v>
+      <c r="B5" t="s">
+        <v>258</v>
       </c>
       <c r="C5" t="s">
         <v>140</v>
@@ -3189,8 +3634,8 @@
       <c r="A6" t="s">
         <v>144</v>
       </c>
-      <c r="B6">
-        <v>123</v>
+      <c r="B6" t="s">
+        <v>259</v>
       </c>
       <c r="C6" t="s">
         <v>141</v>
@@ -3203,8 +3648,8 @@
       <c r="A7" t="s">
         <v>145</v>
       </c>
-      <c r="B7">
-        <v>123</v>
+      <c r="B7" t="s">
+        <v>260</v>
       </c>
       <c r="C7" t="s">
         <v>142</v>
@@ -3219,11 +3664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C05B842-73A0-463E-BDA8-7CEBC6604B97}">
-  <dimension ref="A1:D56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3234,7 +3679,7 @@
     <col min="4" max="4" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -3245,7 +3690,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3259,12 +3704,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>147</v>
       </c>
-      <c r="B3">
-        <v>123</v>
+      <c r="B3" t="s">
+        <v>229</v>
       </c>
       <c r="C3" t="s">
         <v>112</v>
@@ -3273,7 +3718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -3287,7 +3732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>123</v>
       </c>
@@ -3298,9 +3743,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>123</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>261</v>
       </c>
       <c r="C6" t="s">
         <v>150</v>
@@ -3309,9 +3754,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>123</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>262</v>
       </c>
       <c r="C7" t="s">
         <v>151</v>
@@ -3320,9 +3765,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>123</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>263</v>
       </c>
       <c r="C8" t="s">
         <v>152</v>
@@ -3331,9 +3776,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>123</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>264</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>153</v>
@@ -3341,10 +3786,13 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>123</v>
+      <c r="E9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>266</v>
       </c>
       <c r="C10" t="s">
         <v>154</v>
@@ -3353,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -3367,12 +3815,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>147</v>
       </c>
-      <c r="B15">
-        <v>123</v>
+      <c r="B15" t="s">
+        <v>229</v>
       </c>
       <c r="C15" t="s">
         <v>112</v>
@@ -3381,7 +3829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -3395,7 +3843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>123</v>
       </c>
@@ -3406,9 +3854,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <v>123</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>261</v>
       </c>
       <c r="C18" t="s">
         <v>150</v>
@@ -3417,9 +3865,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>123</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>262</v>
       </c>
       <c r="C19" t="s">
         <v>151</v>
@@ -3428,9 +3876,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <v>123</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>263</v>
       </c>
       <c r="C20" t="s">
         <v>152</v>
@@ -3439,9 +3887,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <v>123</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>264</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>153</v>
@@ -3449,13 +3897,16 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>160</v>
       </c>
-      <c r="B25">
-        <v>123</v>
+      <c r="B25" t="s">
+        <v>267</v>
       </c>
       <c r="C25" t="s">
         <v>161</v>
@@ -3464,12 +3915,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>147</v>
       </c>
-      <c r="B26">
-        <v>123</v>
+      <c r="B26" t="s">
+        <v>269</v>
       </c>
       <c r="C26" t="s">
         <v>162</v>
@@ -3478,12 +3929,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>148</v>
       </c>
-      <c r="B27">
-        <v>123</v>
+      <c r="B27" t="s">
+        <v>268</v>
       </c>
       <c r="C27" t="s">
         <v>163</v>
@@ -3492,12 +3943,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>147</v>
       </c>
-      <c r="B28">
-        <v>123</v>
+      <c r="B28" t="s">
+        <v>229</v>
       </c>
       <c r="C28" t="s">
         <v>112</v>
@@ -3506,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -3520,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>123</v>
       </c>
@@ -3531,9 +3982,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31">
-        <v>123</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>273</v>
       </c>
       <c r="C31" t="s">
         <v>165</v>
@@ -3542,9 +3993,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B32">
-        <v>123</v>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>270</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>164</v>
@@ -3553,9 +4004,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B33">
-        <v>123</v>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>271</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>166</v>
@@ -3564,12 +4015,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>73</v>
       </c>
-      <c r="B37">
-        <v>123</v>
+      <c r="B37" t="s">
+        <v>272</v>
       </c>
       <c r="C37" t="s">
         <v>73</v>
@@ -3578,12 +4029,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>147</v>
       </c>
-      <c r="B38">
-        <v>123</v>
+      <c r="B38" t="s">
+        <v>229</v>
       </c>
       <c r="C38" t="s">
         <v>112</v>
@@ -3592,7 +4043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -3606,7 +4057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>123</v>
       </c>
@@ -3617,9 +4068,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B41">
-        <v>123</v>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>261</v>
       </c>
       <c r="C41" t="s">
         <v>150</v>
@@ -3628,9 +4079,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B42">
-        <v>123</v>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>262</v>
       </c>
       <c r="C42" t="s">
         <v>151</v>
@@ -3639,9 +4090,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B43">
-        <v>123</v>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>263</v>
       </c>
       <c r="C43" t="s">
         <v>152</v>
@@ -3650,9 +4101,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B44">
-        <v>123</v>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>264</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>153</v>
@@ -3661,9 +4112,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B45">
-        <v>123</v>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>266</v>
       </c>
       <c r="C45" t="s">
         <v>154</v>
@@ -3672,9 +4123,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B46">
-        <v>123</v>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>274</v>
       </c>
       <c r="C46" t="s">
         <v>167</v>
@@ -3682,10 +4133,13 @@
       <c r="D46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B47">
-        <v>123</v>
+      <c r="E46" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>276</v>
       </c>
       <c r="C47" t="s">
         <v>168</v>
@@ -3694,9 +4148,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48">
-        <v>123</v>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>277</v>
       </c>
       <c r="C48" t="s">
         <v>169</v>
@@ -3704,8 +4158,11 @@
       <c r="D48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E48" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>123</v>
       </c>
@@ -3716,9 +4173,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50">
-        <v>123</v>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>279</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>171</v>
@@ -3727,9 +4184,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51">
-        <v>123</v>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>280</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>172</v>
@@ -3737,10 +4194,13 @@
       <c r="D51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52">
-        <v>123</v>
+      <c r="E51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>282</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>173</v>
@@ -3749,9 +4209,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53">
-        <v>123</v>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>283</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>174</v>
@@ -3760,9 +4220,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B54">
-        <v>123</v>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>284</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>175</v>
@@ -3771,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>123</v>
       </c>
@@ -3782,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>123</v>
       </c>
@@ -3795,21 +4255,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DE2505-8503-4B06-AE34-4D48BEF23A39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.90625" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
     <col min="3" max="3" width="23.54296875" customWidth="1"/>
     <col min="4" max="4" width="8.90625" customWidth="1"/>
   </cols>
@@ -3829,8 +4290,8 @@
       <c r="A2" t="s">
         <v>155</v>
       </c>
-      <c r="B2">
-        <v>123</v>
+      <c r="B2" t="s">
+        <v>285</v>
       </c>
       <c r="C2" t="s">
         <v>155</v>
@@ -3840,8 +4301,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>123</v>
+      <c r="B3" t="s">
+        <v>271</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>156</v>
@@ -3851,8 +4312,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>123</v>
+      <c r="B4" t="s">
+        <v>286</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>157</v>
@@ -3878,17 +4339,17 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64CA26E-6542-4824-95A3-1B4FE1B2D1BB}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
     <col min="3" max="3" width="21.6328125" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
@@ -3905,8 +4366,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>123</v>
+      <c r="B2" t="s">
+        <v>287</v>
       </c>
       <c r="C2" t="s">
         <v>178</v>
@@ -3916,8 +4377,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>123</v>
+      <c r="B3" t="s">
+        <v>288</v>
       </c>
       <c r="C3" t="s">
         <v>179</v>
@@ -3927,8 +4388,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>123</v>
+      <c r="B4" t="s">
+        <v>289</v>
       </c>
       <c r="C4" t="s">
         <v>180</v>
@@ -3939,142 +4400,126 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" t="s">
         <v>182</v>
       </c>
-      <c r="B5">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
-      </c>
       <c r="D5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>183</v>
       </c>
-      <c r="B6">
-        <v>123</v>
+      <c r="B6" t="s">
+        <v>290</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>184</v>
       </c>
-      <c r="B7">
-        <v>123</v>
+      <c r="B7" t="s">
+        <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>185</v>
       </c>
-      <c r="B8">
-        <v>123</v>
+      <c r="B8" t="s">
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>186</v>
       </c>
-      <c r="B9">
-        <v>123</v>
+      <c r="B9" t="s">
+        <v>290</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>187</v>
       </c>
-      <c r="B10">
-        <v>123</v>
+      <c r="B10" t="s">
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>188</v>
       </c>
-      <c r="B11">
-        <v>123</v>
+      <c r="B11" t="s">
+        <v>290</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>189</v>
       </c>
-      <c r="B12">
-        <v>123</v>
+      <c r="B12" t="s">
+        <v>290</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12">
-        <v>22</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>190</v>
       </c>
-      <c r="B13">
-        <v>123</v>
+      <c r="B13" t="s">
+        <v>290</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13">
-        <v>22</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>191</v>
       </c>
-      <c r="B14">
-        <v>123</v>
+      <c r="B14" t="s">
+        <v>290</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14">
-        <v>22</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4082,24 +4527,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFEE922-4DFC-416B-ADD7-A86575364EE3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4129,16 +4562,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD968D1-26A6-48D1-BE20-308EA7344C25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -4202,7 +4635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76044273-A400-4462-B309-7C2D1EF96639}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4275,7 +4708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF7470E-BAEA-4496-9045-E8419B27B717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4355,7 +4788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496FB156-BD6A-4D61-B1A4-F51F1A219D68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4450,7 +4883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB414B8-733C-45D7-A777-F3FC83DC8A7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4605,7 +5038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A108FB51-51BF-4E5A-8B65-C0320BAFD163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4614,7 +5047,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -4638,7 +5071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD94EA12-B65B-44C5-92FB-C1758EAF50A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4647,7 +5080,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hesaplama\src\main\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\OnderGrup-Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26130D45-E75C-4020-8A7F-9ABE8857BF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B24C441-4A20-46DC-9457-6F589F025F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="292">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>150-50-21-062</t>
+  </si>
+  <si>
+    <t>150-51-05-053</t>
   </si>
 </sst>
 </file>
@@ -3667,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3694,8 +3697,8 @@
       <c r="A2" t="s">
         <v>146</v>
       </c>
-      <c r="B2">
-        <v>123</v>
+      <c r="B2" t="s">
+        <v>291</v>
       </c>
       <c r="C2" t="s">
         <v>146</v>
@@ -4342,7 +4345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\OnderGrup-Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B24C441-4A20-46DC-9457-6F589F025F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9138FE91-A6F6-4D2E-8BC4-6DF9476F9864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="295">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -918,6 +918,15 @@
   </si>
   <si>
     <t>150-51-05-053</t>
+  </si>
+  <si>
+    <t>150-52-13-213</t>
+  </si>
+  <si>
+    <t>150-51-05-051</t>
+  </si>
+  <si>
+    <t>150-51-05-048 (EN)</t>
   </si>
 </sst>
 </file>
@@ -984,99 +993,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>601981</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>213361</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Resim 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6339841" y="15240"/>
-          <a:ext cx="5707380" cy="849751"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>81229</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Resim 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6400800" y="2247900"/>
-          <a:ext cx="5600700" cy="1125169"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3365,7 +3281,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:G12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3447,8 +3363,8 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
-        <v>123</v>
+      <c r="B6" t="s">
+        <v>292</v>
       </c>
       <c r="C6" t="s">
         <v>128</v>
@@ -3548,6 +3464,7 @@
     <mergeCell ref="E11:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3671,7 +3588,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3680,6 +3597,7 @@
     <col min="2" max="2" width="14.36328125" customWidth="1"/>
     <col min="3" max="3" width="30.6328125" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3706,6 +3624,9 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -3808,8 +3729,8 @@
       <c r="A14" t="s">
         <v>159</v>
       </c>
-      <c r="B14">
-        <v>123</v>
+      <c r="B14" t="s">
+        <v>293</v>
       </c>
       <c r="C14" t="s">
         <v>159</v>
@@ -4258,7 +4179,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\OnderGrup-Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9138FE91-A6F6-4D2E-8BC4-6DF9476F9864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816B2D9D-17C1-46D9-855E-3FBF8572E890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -32,17 +32,28 @@
     <sheet name="Parça-Basınç Şalteri" sheetId="21" r:id="rId17"/>
     <sheet name="Parça-Standart" sheetId="22" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="298">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -927,6 +938,15 @@
   </si>
   <si>
     <t>150-51-05-048 (EN)</t>
+  </si>
+  <si>
+    <t>kilitPlatformMotorBosluk</t>
+  </si>
+  <si>
+    <t>valfXBoslukSogutma</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1285,7 +1305,7 @@
     <col min="17" max="17" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1337,8 +1357,14 @@
       <c r="Q1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" t="s">
+        <v>295</v>
+      </c>
+      <c r="S1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>30</v>
       </c>
@@ -1389,6 +1415,12 @@
       </c>
       <c r="Q2">
         <v>7</v>
+      </c>
+      <c r="R2">
+        <v>130</v>
+      </c>
+      <c r="S2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1467,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1700,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E16:E17"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1814,8 +1846,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>123</v>
+      <c r="B9" t="s">
+        <v>297</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
@@ -1927,8 +1959,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <v>123</v>
+      <c r="B19" t="s">
+        <v>297</v>
       </c>
       <c r="C19" t="s">
         <v>117</v>
@@ -2040,8 +2072,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B29">
-        <v>123</v>
+      <c r="B29" t="s">
+        <v>297</v>
       </c>
       <c r="C29" t="s">
         <v>117</v>
@@ -2153,8 +2185,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B39">
-        <v>123</v>
+      <c r="B39" t="s">
+        <v>297</v>
       </c>
       <c r="C39" t="s">
         <v>117</v>
@@ -2269,8 +2301,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B49">
-        <v>123</v>
+      <c r="B49" t="s">
+        <v>297</v>
       </c>
       <c r="C49" t="s">
         <v>117</v>
@@ -2374,8 +2406,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B58">
-        <v>123</v>
+      <c r="B58" t="s">
+        <v>297</v>
       </c>
       <c r="C58" t="s">
         <v>120</v>
@@ -2476,8 +2508,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B68">
-        <v>123</v>
+      <c r="B68" t="s">
+        <v>297</v>
       </c>
       <c r="C68" t="s">
         <v>120</v>
@@ -2600,8 +2632,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B80">
-        <v>123</v>
+      <c r="B80" t="s">
+        <v>297</v>
       </c>
       <c r="C80" t="s">
         <v>120</v>
@@ -2718,8 +2750,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B100">
-        <v>123</v>
+      <c r="B100" t="s">
+        <v>297</v>
       </c>
       <c r="C100" t="s">
         <v>120</v>
@@ -2831,8 +2863,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B110">
-        <v>123</v>
+      <c r="B110" t="s">
+        <v>297</v>
       </c>
       <c r="C110" t="s">
         <v>120</v>
@@ -2944,8 +2976,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B120">
-        <v>123</v>
+      <c r="B120" t="s">
+        <v>297</v>
       </c>
       <c r="C120" t="s">
         <v>120</v>
@@ -3057,8 +3089,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B130">
-        <v>123</v>
+      <c r="B130" t="s">
+        <v>297</v>
       </c>
       <c r="C130" t="s">
         <v>120</v>
@@ -3170,8 +3202,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B140">
-        <v>123</v>
+      <c r="B140" t="s">
+        <v>297</v>
       </c>
       <c r="C140" t="s">
         <v>120</v>
@@ -3239,8 +3271,8 @@
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B150">
-        <v>123</v>
+      <c r="B150" t="s">
+        <v>297</v>
       </c>
       <c r="C150" t="s">
         <v>120</v>
@@ -3281,7 +3313,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3587,8 +3619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3657,8 +3689,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>123</v>
+      <c r="B5" t="s">
+        <v>297</v>
       </c>
       <c r="C5" t="s">
         <v>149</v>
@@ -3768,8 +3800,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <v>123</v>
+      <c r="B17" t="s">
+        <v>297</v>
       </c>
       <c r="C17" t="s">
         <v>149</v>
@@ -3896,8 +3928,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B30">
-        <v>123</v>
+      <c r="B30" t="s">
+        <v>297</v>
       </c>
       <c r="C30" t="s">
         <v>149</v>
@@ -3982,8 +4014,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B40">
-        <v>123</v>
+      <c r="B40" t="s">
+        <v>297</v>
       </c>
       <c r="C40" t="s">
         <v>149</v>
@@ -4266,7 +4298,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\OnderGrup-Hydraulic-Tool\src\main\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816B2D9D-17C1-46D9-855E-3FBF8572E890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1788542-7D4D-4029-8778-7797B47FB5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="17" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,12 @@
     <sheet name="Parça-Valf Blokları" sheetId="19" r:id="rId16"/>
     <sheet name="Parça-Basınç Şalteri" sheetId="21" r:id="rId17"/>
     <sheet name="Parça-Standart" sheetId="22" r:id="rId18"/>
+    <sheet name="Hidros-380" sheetId="25" r:id="rId19"/>
+    <sheet name="Hidros-220" sheetId="26" r:id="rId20"/>
+    <sheet name="Hidros-Pompa" sheetId="27" r:id="rId21"/>
+    <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId22"/>
+    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId23"/>
+    <sheet name="Hidros-Platform" sheetId="30" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -53,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="326">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -947,13 +953,97 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>380V Motor Güçleri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37 kW </t>
+  </si>
+  <si>
+    <t>0.55 kW</t>
+  </si>
+  <si>
+    <t>0.75 kW</t>
+  </si>
+  <si>
+    <t>1.1 kW</t>
+  </si>
+  <si>
+    <t>2.2 kwW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 kW </t>
+  </si>
+  <si>
+    <t>220V Motor Güçleri</t>
+  </si>
+  <si>
+    <t>0.37 kW</t>
+  </si>
+  <si>
+    <t>Pompa Kapasite Değerleri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 c </t>
+  </si>
+  <si>
+    <t>0.8 cc</t>
+  </si>
+  <si>
+    <t>1.3 cc</t>
+  </si>
+  <si>
+    <t>1.8 cc</t>
+  </si>
+  <si>
+    <t>Dikey Tank Kapasiteleri</t>
+  </si>
+  <si>
+    <t>4 Lt</t>
+  </si>
+  <si>
+    <t>6 Lt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Lt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Lt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Lt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Lt </t>
+  </si>
+  <si>
+    <t>Yatay Tank Kapasiteleri</t>
+  </si>
+  <si>
+    <t>2 Lt</t>
+  </si>
+  <si>
+    <t>8 Lt</t>
+  </si>
+  <si>
+    <t>20 Lt</t>
+  </si>
+  <si>
+    <t>Platform Çalışma Şekilleri</t>
+  </si>
+  <si>
+    <t>Devirmeli</t>
+  </si>
+  <si>
+    <t>Pilot Kumandalı</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -961,8 +1051,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -975,8 +1091,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -984,11 +1111,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -998,9 +1142,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AF60915D-4779-4F0B-BD43-737D0CC35075}"/>
+    <cellStyle name="Output 2" xfId="2" xr:uid="{ECD7398B-5360-48E7-986F-47C20E0B111D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1461,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4482,6 +4643,67 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8480700-D23F-4CBA-8378-3368AA4183B3}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
@@ -4509,6 +4731,301 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9541355-E856-4355-88CD-486F283E4EC4}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBC042E-80A8-42C4-A9B3-38966278D59B}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874B9D3B-369D-4F5E-B7FD-04D497CAC63E}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706AF6ED-9DEC-4392-90CA-8C4931691C80}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B1B4E9-9B6F-49C9-8B35-ADABBA4AAA7F}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1788542-7D4D-4029-8778-7797B47FB5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ADCECC-CEBE-4B47-86F5-658EDC7D7C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="17" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="18" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId22"/>
     <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId23"/>
     <sheet name="Hidros-Platform" sheetId="30" r:id="rId24"/>
+    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="333">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -1036,7 +1037,28 @@
     <t>Devirmeli</t>
   </si>
   <si>
-    <t>Pilot Kumandalı</t>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Yürüyüş</t>
+  </si>
+  <si>
+    <t>Özel</t>
+  </si>
+  <si>
+    <t>Valf Tipleri</t>
+  </si>
+  <si>
+    <t>Açık Merkez</t>
+  </si>
+  <si>
+    <t>Kapalı Merkez</t>
+  </si>
+  <si>
+    <t>H Merkez</t>
+  </si>
+  <si>
+    <t>J Merkez</t>
   </si>
 </sst>
 </file>
@@ -1132,30 +1154,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3635,11 +3648,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
@@ -3648,9 +3661,9 @@
       <c r="C12" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4660,42 +4673,42 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4757,37 +4770,37 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4815,72 +4828,72 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4908,32 +4921,32 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4961,37 +4974,37 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5002,10 +5015,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B1B4E9-9B6F-49C9-8B35-ADABBA4AAA7F}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5020,12 +5033,65 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732F01E-369F-4D10-8666-C6A853A4E836}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ADCECC-CEBE-4B47-86F5-658EDC7D7C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0917EA-1E59-40E6-832E-D6FBA77F15FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="18" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="24" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -38,6 +38,10 @@
     <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId23"/>
     <sheet name="Hidros-Platform" sheetId="30" r:id="rId24"/>
     <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId25"/>
+    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId26"/>
+    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId27"/>
+    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId28"/>
+    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -60,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="389">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -1059,13 +1063,181 @@
   </si>
   <si>
     <t>J Merkez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37 kw </t>
+  </si>
+  <si>
+    <t>150-52-13-061</t>
+  </si>
+  <si>
+    <t>0.55 kw</t>
+  </si>
+  <si>
+    <t>150-52-13-062</t>
+  </si>
+  <si>
+    <t>0.75 kw</t>
+  </si>
+  <si>
+    <t>150-52-13-063</t>
+  </si>
+  <si>
+    <t>1.1 kw</t>
+  </si>
+  <si>
+    <t>150-52-13-064</t>
+  </si>
+  <si>
+    <t>1.5 kw</t>
+  </si>
+  <si>
+    <t>150-52-13-065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 kw </t>
+  </si>
+  <si>
+    <t>150-52-13-066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 kw </t>
+  </si>
+  <si>
+    <t>150-52-13-067</t>
+  </si>
+  <si>
+    <t>4 kw</t>
+  </si>
+  <si>
+    <t>150-52-13-068</t>
+  </si>
+  <si>
+    <t>Stok Kod</t>
+  </si>
+  <si>
+    <t>150-52-13-024</t>
+  </si>
+  <si>
+    <t>150-52-13-025</t>
+  </si>
+  <si>
+    <t>150-52-13-026</t>
+  </si>
+  <si>
+    <t>150-52-13-027</t>
+  </si>
+  <si>
+    <t>150-52-13-028</t>
+  </si>
+  <si>
+    <t>150-52-13-029</t>
+  </si>
+  <si>
+    <t>150-52-13-030</t>
+  </si>
+  <si>
+    <t>Stok Kodu</t>
+  </si>
+  <si>
+    <t>150-51-01-051</t>
+  </si>
+  <si>
+    <t>150-51-01-052</t>
+  </si>
+  <si>
+    <t>150-51-01-053</t>
+  </si>
+  <si>
+    <t>150-51-01-054</t>
+  </si>
+  <si>
+    <t>150-51-01-055</t>
+  </si>
+  <si>
+    <t>150-51-01-056</t>
+  </si>
+  <si>
+    <t>150-51-01-057</t>
+  </si>
+  <si>
+    <t>150-51-01-058</t>
+  </si>
+  <si>
+    <t>150-51-01-059</t>
+  </si>
+  <si>
+    <t>150-51-01-060</t>
+  </si>
+  <si>
+    <t>150-51-01-061</t>
+  </si>
+  <si>
+    <t>150-51-01-062</t>
+  </si>
+  <si>
+    <t>150-51-01-063</t>
+  </si>
+  <si>
+    <t>150-51-01-529</t>
+  </si>
+  <si>
+    <t>0,8 cc</t>
+  </si>
+  <si>
+    <t>1,1 cc</t>
+  </si>
+  <si>
+    <t>1,3 cc</t>
+  </si>
+  <si>
+    <t>1,8 cc</t>
+  </si>
+  <si>
+    <t>2,1 cc</t>
+  </si>
+  <si>
+    <t>2,7 cc</t>
+  </si>
+  <si>
+    <t>3,2 cc</t>
+  </si>
+  <si>
+    <t>3,7 cc</t>
+  </si>
+  <si>
+    <t>4,2 cc</t>
+  </si>
+  <si>
+    <t>4,8 cc</t>
+  </si>
+  <si>
+    <t>5,8 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 cc </t>
+  </si>
+  <si>
+    <t>Pompa</t>
+  </si>
+  <si>
+    <t>CİVATA M8X80 MM</t>
+  </si>
+  <si>
+    <t>CİVATA M8X90 MM</t>
+  </si>
+  <si>
+    <t>CİVATA M8X100 MM</t>
+  </si>
+  <si>
+    <t>CİVATA M8X110 MM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,6 +1264,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -1154,7 +1334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1169,6 +1349,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1907,7 +2114,7 @@
   <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3365,8 +3572,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B139">
-        <v>123</v>
+      <c r="B139" t="s">
+        <v>297</v>
       </c>
       <c r="C139" t="s">
         <v>116</v>
@@ -5060,7 +5267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732F01E-369F-4D10-8666-C6A853A4E836}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -5092,6 +5299,599 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4155170F-5ABC-4303-A3BC-E111E651C038}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA31902F-0832-4108-8634-040D685C8A2A}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE64E720-6E7A-4880-B24D-4A53B6B63C56}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB23081-6940-409B-B521-D25ED59C31AB}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0917EA-1E59-40E6-832E-D6FBA77F15FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029E011A-FD38-4C11-AFAB-12B50AFC25EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="24" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1334,7 +1334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1347,35 +1347,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3855,11 +3834,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
@@ -3868,9 +3847,9 @@
       <c r="C12" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5332,90 +5311,90 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5450,79 +5429,79 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5557,156 +5536,156 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5741,156 +5720,156 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="6">
         <v>2</v>
       </c>
     </row>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029E011A-FD38-4C11-AFAB-12B50AFC25EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF06935-19B6-44E2-8B4A-01447DB38BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="24" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="27" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -42,6 +42,14 @@
     <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId27"/>
     <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId28"/>
     <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId29"/>
+    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId30"/>
+    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId31"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId32"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId33"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId34"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId35"/>
+    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId36"/>
+    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId37"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -64,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="473">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -1065,51 +1073,27 @@
     <t>J Merkez</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37 kw </t>
-  </si>
-  <si>
     <t>150-52-13-061</t>
   </si>
   <si>
-    <t>0.55 kw</t>
-  </si>
-  <si>
     <t>150-52-13-062</t>
   </si>
   <si>
-    <t>0.75 kw</t>
-  </si>
-  <si>
     <t>150-52-13-063</t>
   </si>
   <si>
-    <t>1.1 kw</t>
-  </si>
-  <si>
     <t>150-52-13-064</t>
   </si>
   <si>
-    <t>1.5 kw</t>
-  </si>
-  <si>
     <t>150-52-13-065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2 kw </t>
-  </si>
-  <si>
     <t>150-52-13-066</t>
   </si>
   <si>
-    <t xml:space="preserve">3 kw </t>
-  </si>
-  <si>
     <t>150-52-13-067</t>
   </si>
   <si>
-    <t>4 kw</t>
-  </si>
-  <si>
     <t>150-52-13-068</t>
   </si>
   <si>
@@ -1231,13 +1215,289 @@
   </si>
   <si>
     <t>CİVATA M8X110 MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 LT </t>
+  </si>
+  <si>
+    <t>150-51-06-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 LT </t>
+  </si>
+  <si>
+    <t>150-51-06-012</t>
+  </si>
+  <si>
+    <t>150-51-06-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 LT </t>
+  </si>
+  <si>
+    <t>150-51-06-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 LT </t>
+  </si>
+  <si>
+    <t>150-51-06-015</t>
+  </si>
+  <si>
+    <t>150-51-06-009</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>2 LT</t>
+  </si>
+  <si>
+    <t>150-51-06-002</t>
+  </si>
+  <si>
+    <t>150-51-06-003</t>
+  </si>
+  <si>
+    <t>150-51-06-004</t>
+  </si>
+  <si>
+    <t>8 LT</t>
+  </si>
+  <si>
+    <t>150-51-06-005</t>
+  </si>
+  <si>
+    <t>150-51-06-006</t>
+  </si>
+  <si>
+    <t>150-51-06-007</t>
+  </si>
+  <si>
+    <t>20 LT</t>
+  </si>
+  <si>
+    <t>CIVATA  M6X30 MM İMBUS</t>
+  </si>
+  <si>
+    <t>CIVATA  M6X16 MM AKB</t>
+  </si>
+  <si>
+    <t>150-50-21-502</t>
+  </si>
+  <si>
+    <t>M6 PUL</t>
+  </si>
+  <si>
+    <t>150-50-24-023</t>
+  </si>
+  <si>
+    <t>POPETLİ BLOK</t>
+  </si>
+  <si>
+    <t>150-51-05-057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC KAPLİN KISA </t>
+  </si>
+  <si>
+    <t>150-51-06-699</t>
+  </si>
+  <si>
+    <t>3/8 EMİŞ FİLTRE</t>
+  </si>
+  <si>
+    <t>150-51-07-050</t>
+  </si>
+  <si>
+    <t>REKOR Ø10 3/8"</t>
+  </si>
+  <si>
+    <t>150-51-09-017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/8 KÖR TAPA ALLEN </t>
+  </si>
+  <si>
+    <t>150-53-08-501</t>
+  </si>
+  <si>
+    <t>ORİNG 105X3</t>
+  </si>
+  <si>
+    <t>150-51-13-035</t>
+  </si>
+  <si>
+    <t>3/8" EMİŞ BORUSU 90 LIK KISA PLASTİK BİR TARAFI UZUN BİR TARAFI KISA</t>
+  </si>
+  <si>
+    <t>150-51-09-902</t>
+  </si>
+  <si>
+    <t>ORİNG 105X3.5</t>
+  </si>
+  <si>
+    <t>150-51-13-036</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POPET VALF KAPALI MERKEZ</t>
+  </si>
+  <si>
+    <t>150-51-04-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/8 ÇEKLİ HIZ AYAR VALFİ </t>
+  </si>
+  <si>
+    <t>POPETSİZ BLOK</t>
+  </si>
+  <si>
+    <t>150-51-05-058</t>
+  </si>
+  <si>
+    <t>AC KAPLİN KISA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3/8 EMİŞ FİLTRE</t>
+  </si>
+  <si>
+    <t>YAN BACAK Ø10</t>
+  </si>
+  <si>
+    <t>150-51-09-710</t>
+  </si>
+  <si>
+    <t>TERS REKOR PİMLİ Ø10 3/8</t>
+  </si>
+  <si>
+    <t>150-51-09-932</t>
+  </si>
+  <si>
+    <t>HİDROLİK HORTUM 5/16" R2 M16 30CM DÜZ-90</t>
+  </si>
+  <si>
+    <t>150-51-15-007</t>
+  </si>
+  <si>
+    <t>3/8 EMİŞ BORUSU PLASTİK UZUN KISA</t>
+  </si>
+  <si>
+    <t>A01 BLOK</t>
+  </si>
+  <si>
+    <t>150-51-05-059</t>
+  </si>
+  <si>
+    <t>A03 BLOK  2</t>
+  </si>
+  <si>
+    <t>150-51-05-060</t>
+  </si>
+  <si>
+    <t>VALF A.B.T MERKEZ NG6 24V</t>
+  </si>
+  <si>
+    <t>150-51-04-026</t>
+  </si>
+  <si>
+    <t>VALF KAPALI MERKEZ NG6 24V</t>
+  </si>
+  <si>
+    <t>150-51-04-024</t>
+  </si>
+  <si>
+    <t>3/8 ÇEKLİ HIZ AYAR VALFİ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POPETSİZ BLOK </t>
+  </si>
+  <si>
+    <t>İKİZ YÜK TUTMA VALFİ 3/8" VBCD DE-A</t>
+  </si>
+  <si>
+    <t>150-51-10-360</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>HB 127 GÖSTERGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HB 76 GÖSTERGE </t>
+  </si>
+  <si>
+    <t>150-51-08-002</t>
+  </si>
+  <si>
+    <t>1/2 DEPO KAPAĞI</t>
+  </si>
+  <si>
+    <t>150-51-07-208</t>
+  </si>
+  <si>
+    <t>3/8 DEPO KAPAĞI</t>
+  </si>
+  <si>
+    <t>150-51-07-210</t>
+  </si>
+  <si>
+    <t>BASINÇ ŞALTERİ</t>
+  </si>
+  <si>
+    <t>MANOMETRE</t>
+  </si>
+  <si>
+    <t>150-51-10-802</t>
+  </si>
+  <si>
+    <t>HİDROLİK YAĞ S2 M32</t>
+  </si>
+  <si>
+    <t>150-53-04-001</t>
+  </si>
+  <si>
+    <t>HİDROLİK YAĞ S2 M46</t>
+  </si>
+  <si>
+    <t>150-53-04-002</t>
+  </si>
+  <si>
+    <t>GÜÇ ÜNİTESİ TANK BOĞAZI KP</t>
+  </si>
+  <si>
+    <t>150-51-06-390</t>
+  </si>
+  <si>
+    <t>Parçalar</t>
+  </si>
+  <si>
+    <t>0.75 Kw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 kW </t>
+  </si>
+  <si>
+    <t>1.1 Kw</t>
+  </si>
+  <si>
+    <t>3 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Lt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Lt </t>
+  </si>
+  <si>
+    <t>10 Lt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,6 +1539,28 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1305,7 +1587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1328,13 +1610,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1351,6 +1690,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3834,11 +4206,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
@@ -3847,9 +4219,9 @@
       <c r="C12" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5290,7 +5662,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5304,7 +5676,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -5312,10 +5684,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>334</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -5323,10 +5695,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -5334,10 +5706,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>337</v>
+        <v>466</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -5345,10 +5717,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -5356,10 +5728,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>341</v>
+        <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -5367,10 +5739,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>343</v>
+        <v>467</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -5378,10 +5750,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -5389,10 +5761,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>347</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -5408,7 +5780,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5422,7 +5794,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -5430,10 +5802,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -5441,10 +5813,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -5452,10 +5824,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -5463,10 +5835,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>339</v>
+        <v>468</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -5474,10 +5846,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>341</v>
+        <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -5485,10 +5857,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>343</v>
+        <v>467</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -5496,10 +5868,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>345</v>
+        <v>469</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -5526,10 +5898,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -5537,10 +5909,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -5548,10 +5920,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -5559,10 +5931,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -5570,10 +5942,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -5581,10 +5953,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -5592,10 +5964,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -5603,10 +5975,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -5614,10 +5986,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -5625,10 +5997,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -5636,10 +6008,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -5647,10 +6019,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -5661,7 +6033,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -5672,7 +6044,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -5680,10 +6052,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -5710,10 +6082,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -5721,10 +6093,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
@@ -5732,10 +6104,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -5743,10 +6115,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -5754,10 +6126,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -5765,10 +6137,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -5776,10 +6148,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -5787,10 +6159,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -5798,10 +6170,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -5809,10 +6181,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -5820,10 +6192,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -5831,10 +6203,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -5845,7 +6217,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
@@ -5856,7 +6228,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -5864,10 +6236,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -5951,6 +6323,999 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657B9AA-C0EA-4266-8F38-BDA0BEAE883F}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CAAB65-5513-42C9-935D-0E8576F3E914}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DD818-438A-4831-92D3-0F7395A18832}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0619099-9FB9-4D8B-98C7-A6A2795A9397}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96BF48A-4315-4E94-BCC2-561CDC3EFCA7}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="72.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6552E6E-9DF3-44DF-85A1-A0D822031935}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.90625" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB9543A-4A04-47DB-8957-17D1E7D8E982}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A11"/>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF06935-19B6-44E2-8B4A-01447DB38BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC25B3C5-69F6-4F8B-A84F-9FFBB3AF871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="27" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="455">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -1166,39 +1166,6 @@
     <t>150-51-01-529</t>
   </si>
   <si>
-    <t>0,8 cc</t>
-  </si>
-  <si>
-    <t>1,1 cc</t>
-  </si>
-  <si>
-    <t>1,3 cc</t>
-  </si>
-  <si>
-    <t>1,8 cc</t>
-  </si>
-  <si>
-    <t>2,1 cc</t>
-  </si>
-  <si>
-    <t>2,7 cc</t>
-  </si>
-  <si>
-    <t>3,2 cc</t>
-  </si>
-  <si>
-    <t>3,7 cc</t>
-  </si>
-  <si>
-    <t>4,2 cc</t>
-  </si>
-  <si>
-    <t>4,8 cc</t>
-  </si>
-  <si>
-    <t>5,8 cc</t>
-  </si>
-  <si>
     <t xml:space="preserve">9 cc </t>
   </si>
   <si>
@@ -1217,30 +1184,18 @@
     <t>CİVATA M8X110 MM</t>
   </si>
   <si>
-    <t xml:space="preserve">4 LT </t>
-  </si>
-  <si>
     <t>150-51-06-011</t>
   </si>
   <si>
-    <t xml:space="preserve">6 LT </t>
-  </si>
-  <si>
     <t>150-51-06-012</t>
   </si>
   <si>
     <t>150-51-06-013</t>
   </si>
   <si>
-    <t xml:space="preserve">10 LT </t>
-  </si>
-  <si>
     <t>150-51-06-014</t>
   </si>
   <si>
-    <t xml:space="preserve">12 LT </t>
-  </si>
-  <si>
     <t>150-51-06-015</t>
   </si>
   <si>
@@ -1250,9 +1205,6 @@
     <t>Tank</t>
   </si>
   <si>
-    <t>2 LT</t>
-  </si>
-  <si>
     <t>150-51-06-002</t>
   </si>
   <si>
@@ -1262,9 +1214,6 @@
     <t>150-51-06-004</t>
   </si>
   <si>
-    <t>8 LT</t>
-  </si>
-  <si>
     <t>150-51-06-005</t>
   </si>
   <si>
@@ -1272,9 +1221,6 @@
   </si>
   <si>
     <t>150-51-06-007</t>
-  </si>
-  <si>
-    <t>20 LT</t>
   </si>
   <si>
     <t>CIVATA  M6X30 MM İMBUS</t>
@@ -5706,7 +5652,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>335</v>
@@ -5739,7 +5685,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>338</v>
@@ -5835,7 +5781,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>345</v>
@@ -5857,7 +5803,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>347</v>
@@ -5868,7 +5814,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>348</v>
@@ -5887,7 +5833,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5898,7 +5844,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -5909,7 +5855,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>350</v>
@@ -5920,7 +5866,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>365</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>351</v>
@@ -5931,7 +5877,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>352</v>
@@ -5942,7 +5888,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>353</v>
@@ -5953,7 +5899,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>354</v>
@@ -5964,7 +5910,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>369</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>355</v>
@@ -5975,7 +5921,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>370</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>356</v>
@@ -5986,7 +5932,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>371</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>357</v>
@@ -5997,7 +5943,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>372</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>358</v>
@@ -6008,7 +5954,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>373</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>359</v>
@@ -6019,7 +5965,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>374</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>360</v>
@@ -6052,7 +5998,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>363</v>
@@ -6070,8 +6016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB23081-6940-409B-B521-D25ED59C31AB}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6082,7 +6028,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -6093,10 +6039,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
@@ -6104,10 +6050,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>365</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -6115,10 +6061,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -6126,10 +6072,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -6137,10 +6083,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -6148,10 +6094,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>369</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -6159,10 +6105,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>370</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -6170,10 +6116,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>371</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -6181,10 +6127,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>372</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -6192,10 +6138,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>373</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -6203,10 +6149,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>374</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -6217,7 +6163,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
@@ -6228,7 +6174,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -6236,10 +6182,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -6328,7 +6274,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6339,7 +6285,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -6350,10 +6296,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -6361,10 +6307,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6375,7 +6321,7 @@
         <v>321</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6383,10 +6329,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6397,7 +6343,7 @@
         <v>317</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6408,7 +6354,7 @@
         <v>318</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6423,8 +6369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CAAB65-5513-42C9-935D-0E8576F3E914}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6434,7 +6380,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -6445,10 +6391,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -6456,10 +6402,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>381</v>
+        <v>452</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6467,10 +6413,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>383</v>
+        <v>453</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6478,10 +6424,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>396</v>
+        <v>321</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6489,10 +6435,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>386</v>
+        <v>316</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6500,10 +6446,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>388</v>
+        <v>317</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6511,10 +6457,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>400</v>
+        <v>322</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -6529,18 +6475,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="34.26953125" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -6551,7 +6498,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>221</v>
@@ -6562,10 +6509,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C3" s="6">
         <v>4</v>
@@ -6573,10 +6520,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C4" s="6">
         <v>4</v>
@@ -6584,10 +6531,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6595,10 +6542,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6606,10 +6553,10 @@
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6617,10 +6564,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -6628,10 +6575,10 @@
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -6639,10 +6586,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -6669,7 +6616,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -6749,7 +6696,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -6760,7 +6707,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>221</v>
@@ -6771,10 +6718,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C3" s="12">
         <v>4</v>
@@ -6782,10 +6729,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C4" s="12">
         <v>4</v>
@@ -6793,10 +6740,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -6804,10 +6751,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -6815,10 +6762,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -6826,10 +6773,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -6837,10 +6784,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
@@ -6848,10 +6795,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -6859,10 +6806,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
@@ -6889,7 +6836,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -6900,7 +6847,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>221</v>
@@ -6911,10 +6858,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C3" s="13">
         <v>4</v>
@@ -6922,10 +6869,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C4" s="13">
         <v>4</v>
@@ -6933,10 +6880,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -6944,7 +6891,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>276</v>
@@ -6966,10 +6913,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
@@ -6977,10 +6924,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -6988,10 +6935,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -6999,10 +6946,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C11" s="14">
         <v>1</v>
@@ -7010,10 +6957,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C12" s="14">
         <v>1</v>
@@ -7021,10 +6968,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C13" s="14">
         <v>1</v>
@@ -7032,10 +6979,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C14" s="14">
         <v>2</v>
@@ -7043,10 +6990,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -7054,10 +7001,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -7065,10 +7012,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -7095,7 +7042,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -7106,10 +7053,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -7117,10 +7064,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
@@ -7128,10 +7075,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -7139,10 +7086,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -7150,7 +7097,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>276</v>
@@ -7161,10 +7108,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -7172,10 +7119,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -7183,10 +7130,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
@@ -7194,10 +7141,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -7224,7 +7171,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -7235,7 +7182,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>288</v>
@@ -7243,31 +7190,31 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>285</v>
@@ -7278,10 +7225,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7289,26 +7236,26 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC25B3C5-69F6-4F8B-A84F-9FFBB3AF871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841450F2-D09E-4D34-A015-F4F046F37307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -28,28 +28,29 @@
     <sheet name="Parça-Pompa" sheetId="16" r:id="rId13"/>
     <sheet name="Parça-Motor" sheetId="17" r:id="rId14"/>
     <sheet name="Parça-Kaplin" sheetId="18" r:id="rId15"/>
-    <sheet name="Parça-Valf Blokları" sheetId="19" r:id="rId16"/>
-    <sheet name="Parça-Basınç Şalteri" sheetId="21" r:id="rId17"/>
-    <sheet name="Parça-Standart" sheetId="22" r:id="rId18"/>
-    <sheet name="Hidros-380" sheetId="25" r:id="rId19"/>
-    <sheet name="Hidros-220" sheetId="26" r:id="rId20"/>
-    <sheet name="Hidros-Pompa" sheetId="27" r:id="rId21"/>
-    <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId22"/>
-    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId23"/>
-    <sheet name="Hidros-Platform" sheetId="30" r:id="rId24"/>
-    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId25"/>
-    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId26"/>
-    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId27"/>
-    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId28"/>
-    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId29"/>
-    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId30"/>
-    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId31"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId32"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId33"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId34"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId35"/>
-    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId36"/>
-    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId37"/>
+    <sheet name="Parça-Soğutucu" sheetId="45" r:id="rId16"/>
+    <sheet name="Parça-Valf Blokları" sheetId="19" r:id="rId17"/>
+    <sheet name="Parça-Basınç Şalteri" sheetId="21" r:id="rId18"/>
+    <sheet name="Parça-Standart" sheetId="22" r:id="rId19"/>
+    <sheet name="Hidros-380" sheetId="25" r:id="rId20"/>
+    <sheet name="Hidros-220" sheetId="26" r:id="rId21"/>
+    <sheet name="Hidros-Pompa" sheetId="27" r:id="rId22"/>
+    <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId23"/>
+    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId24"/>
+    <sheet name="Hidros-Platform" sheetId="30" r:id="rId25"/>
+    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId26"/>
+    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId27"/>
+    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId28"/>
+    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId29"/>
+    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId30"/>
+    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId31"/>
+    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId32"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId33"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId34"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId35"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId36"/>
+    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId37"/>
+    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="493">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -1437,6 +1438,120 @@
   </si>
   <si>
     <t>10 Lt</t>
+  </si>
+  <si>
+    <t>CIVATA IMBUS M6 100 MM BEYAZ (DIN 912)</t>
+  </si>
+  <si>
+    <t>150-50-21-588</t>
+  </si>
+  <si>
+    <t>CIVATA ANAHTAR BASLI M12 50 MM BEYAZ (DIN 933 )</t>
+  </si>
+  <si>
+    <t>150-51-06-506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-K 250 KAMPANA </t>
+  </si>
+  <si>
+    <t>1PN28 KAPLİN TAKIMI</t>
+  </si>
+  <si>
+    <t>EMİŞ FİLTRE HPF-45 45 LT/DK</t>
+  </si>
+  <si>
+    <t>150-51-09-099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/8 KAYNAKLI MANŞON </t>
+  </si>
+  <si>
+    <t>150-51-09-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 KAYNAKLI MANŞON </t>
+  </si>
+  <si>
+    <t>150-53-08-005</t>
+  </si>
+  <si>
+    <t>1/2 REDÜKSİYON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 KÖR TAPA </t>
+  </si>
+  <si>
+    <t>KUYRUKLU DİRSEK</t>
+  </si>
+  <si>
+    <t>CIVATA IMBUS M6 30 MM BEYAZ (DIN 912)</t>
+  </si>
+  <si>
+    <t>HIZ AYAR VALFİ 1/2" KOMPANZASYONLU VRFU 90° 1/2"  MM2000 128 (BASINÇ DUYARLI)</t>
+  </si>
+  <si>
+    <t>HIZ AYAR VALFİ 3/8" ÇEKLİ</t>
+  </si>
+  <si>
+    <t>İNİŞTE TEK HIZ BLOK ALTTAN BAĞLANTILI 24V POPETLİ 8/2</t>
+  </si>
+  <si>
+    <t>MANOMETRE ALT.GİR. 1/4"GİLİSERİNLİ Q63MM 315BAR</t>
+  </si>
+  <si>
+    <t>150-51-06-904</t>
+  </si>
+  <si>
+    <t>BOLC-2024 SOĞUTMA RADYATÖRÜ FANLI 220VAC 50/60 Hz</t>
+  </si>
+  <si>
+    <t>150-51-01-708</t>
+  </si>
+  <si>
+    <t>POMPA TANDEM 28.1+4.5 CC (SAĞ DÖNÜŞLÜ)</t>
+  </si>
+  <si>
+    <t>150-51-10-124</t>
+  </si>
+  <si>
+    <t>ÇEK VALF 3/4" V0620</t>
+  </si>
+  <si>
+    <t>150-51-04-025</t>
+  </si>
+  <si>
+    <t>VALF AÇIK MERKEZ NG6 24V RH06021-24V</t>
+  </si>
+  <si>
+    <t>150-51-05-036</t>
+  </si>
+  <si>
+    <t>NG6 TEKLİ EMNİYETLİ VALF BLOĞU (HİDROS)</t>
+  </si>
+  <si>
+    <t>150-51-07-209</t>
+  </si>
+  <si>
+    <t>DEPO KAPAK SVDK STANDART VİDALI DEPO KAPAK</t>
+  </si>
+  <si>
+    <t>YAĞ SEVİYE GÖSTERGESİ HB-127</t>
+  </si>
+  <si>
+    <t>150-51-06-907</t>
+  </si>
+  <si>
+    <t>0-90 DERECE AYARLI, ½ PASOLU, DALMA BOYU 25CM  ALP MARKA TERMOSTAT</t>
+  </si>
+  <si>
+    <t>VALF KAPALI MERKEZ POPET VALF BOBİNLİ V1 POPET</t>
+  </si>
+  <si>
+    <t>150-52-13-012</t>
+  </si>
+  <si>
+    <t>MOTOR  2.2 kw 380v  B5</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1734,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1670,6 +1785,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4152,11 +4278,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
@@ -4165,9 +4291,9 @@
       <c r="C12" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4183,7 +4309,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4294,6 +4420,334 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB920FC-CA3E-4670-8245-01BE36815DAA}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="90.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C12" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
@@ -4892,7 +5346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4971,7 +5425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -5153,67 +5607,6 @@
       </c>
       <c r="C15" t="s">
         <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8480700-D23F-4CBA-8378-3368AA4183B3}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -5256,6 +5649,67 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8480700-D23F-4CBA-8378-3368AA4183B3}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9541355-E856-4355-88CD-486F283E4EC4}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -5313,7 +5767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBC042E-80A8-42C4-A9B3-38966278D59B}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -5406,7 +5860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874B9D3B-369D-4F5E-B7FD-04D497CAC63E}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -5459,7 +5913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706AF6ED-9DEC-4392-90CA-8C4931691C80}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -5517,7 +5971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B1B4E9-9B6F-49C9-8B35-ADABBA4AAA7F}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -5560,7 +6014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732F01E-369F-4D10-8666-C6A853A4E836}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -5603,7 +6057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4155170F-5ABC-4303-A3BC-E111E651C038}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -5721,7 +6175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA31902F-0832-4108-8634-040D685C8A2A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -5828,7 +6282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE64E720-6E7A-4880-B24D-4A53B6B63C56}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -6005,190 +6459,6 @@
       </c>
       <c r="C15" s="6">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB23081-6940-409B-B521-D25ED59C31AB}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6270,6 +6540,190 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB23081-6940-409B-B521-D25ED59C31AB}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657B9AA-C0EA-4266-8F38-BDA0BEAE883F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -6365,7 +6819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CAAB65-5513-42C9-935D-0E8576F3E914}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -6471,11 +6925,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -6600,7 +7054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DD818-438A-4831-92D3-0F7395A18832}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -6680,7 +7134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0619099-9FB9-4D8B-98C7-A6A2795A9397}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -6820,7 +7274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96BF48A-4315-4E94-BCC2-561CDC3EFCA7}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -7026,7 +7480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6552E6E-9DF3-44DF-85A1-A0D822031935}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -7155,7 +7609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB9543A-4A04-47DB-8957-17D1E7D8E982}">
   <dimension ref="A1:C10"/>
   <sheetViews>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841450F2-D09E-4D34-A015-F4F046F37307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45878F2-F827-43DA-AF71-B037F1BCED2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="38" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -51,6 +51,10 @@
     <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId36"/>
     <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId37"/>
     <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId38"/>
+    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId39"/>
+    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId40"/>
+    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId41"/>
+    <sheet name="Parça-Hidros-Tam-ESP-Hariç" sheetId="49" r:id="rId42"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -73,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="513">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -1236,9 +1240,6 @@
     <t>M6 PUL</t>
   </si>
   <si>
-    <t>150-50-24-023</t>
-  </si>
-  <si>
     <t>POPETLİ BLOK</t>
   </si>
   <si>
@@ -1335,9 +1336,6 @@
     <t>150-51-05-059</t>
   </si>
   <si>
-    <t>A03 BLOK  2</t>
-  </si>
-  <si>
     <t>150-51-05-060</t>
   </si>
   <si>
@@ -1552,6 +1550,72 @@
   </si>
   <si>
     <t>MOTOR  2.2 kw 380v  B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A03 BLOK </t>
+  </si>
+  <si>
+    <t>Parça İsmi</t>
+  </si>
+  <si>
+    <t>TERS DİRSEK PİMLİ Ø10</t>
+  </si>
+  <si>
+    <t>150-51-09-817</t>
+  </si>
+  <si>
+    <t>150-51-10-579</t>
+  </si>
+  <si>
+    <t>HORTUM PATLAMA VALFİ 3/8"-Ø10</t>
+  </si>
+  <si>
+    <t>CIVATA IMBUS M10 16 MM BEYAZ (DIN 912)</t>
+  </si>
+  <si>
+    <t>150-50-21-121</t>
+  </si>
+  <si>
+    <t>PUL M10 BEYAZ</t>
+  </si>
+  <si>
+    <t>150-50-24-005</t>
+  </si>
+  <si>
+    <t>3/8 KÖR TAPA ALLEN BAŞLI</t>
+  </si>
+  <si>
+    <t>Malzeme İsmi</t>
+  </si>
+  <si>
+    <t>HAVALANDIRMA KAPAĞI 1/2</t>
+  </si>
+  <si>
+    <t>HAVALANDIRMA KAPAĞI 3/8</t>
+  </si>
+  <si>
+    <t>ORİNG KASTAŞ KO-1050035 105x3,5 NBR 70</t>
+  </si>
+  <si>
+    <t>ORİNG KASTAŞ KO-1050030 105x3 NBR 70</t>
+  </si>
+  <si>
+    <t>CIVATA IMBUS M6 110 MM BEYAZ (DIN 912)</t>
+  </si>
+  <si>
+    <t>150-50-21-080</t>
+  </si>
+  <si>
+    <t>PUL M5 BEYAZ</t>
+  </si>
+  <si>
+    <t>150-50-24-002</t>
+  </si>
+  <si>
+    <t>TE Ø10</t>
+  </si>
+  <si>
+    <t>150-51-09-615</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1798,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1799,6 +1863,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4450,7 +4529,7 @@
         <v>261</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C2" s="12">
         <v>8</v>
@@ -4458,10 +4537,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C3" s="12">
         <v>8</v>
@@ -4469,10 +4548,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -4483,7 +4562,7 @@
         <v>255</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -4494,7 +4573,7 @@
         <v>231</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -4502,10 +4581,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -4513,10 +4592,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -4524,10 +4603,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -4535,10 +4614,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -4549,7 +4628,7 @@
         <v>289</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
@@ -4560,7 +4639,7 @@
         <v>226</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C12" s="12">
         <v>4</v>
@@ -4571,7 +4650,7 @@
         <v>221</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C13" s="12">
         <v>4</v>
@@ -4582,7 +4661,7 @@
         <v>283</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
@@ -4593,7 +4672,7 @@
         <v>276</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
@@ -4615,7 +4694,7 @@
         <v>291</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
@@ -4626,7 +4705,7 @@
         <v>262</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
@@ -4634,10 +4713,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
@@ -4645,10 +4724,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
@@ -4656,10 +4735,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
@@ -4667,10 +4746,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
@@ -4678,10 +4757,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
@@ -4689,10 +4768,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
@@ -4703,7 +4782,7 @@
         <v>288</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
@@ -4711,10 +4790,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
@@ -4722,10 +4801,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -4733,10 +4812,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -5652,7 +5731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8480700-D23F-4CBA-8378-3368AA4183B3}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6106,7 +6185,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>335</v>
@@ -6139,7 +6218,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>338</v>
@@ -6235,7 +6314,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>345</v>
@@ -6257,7 +6336,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>347</v>
@@ -6268,7 +6347,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>348</v>
@@ -6750,7 +6829,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>370</v>
@@ -6761,7 +6840,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>371</v>
@@ -6783,7 +6862,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>373</v>
@@ -6823,7 +6902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CAAB65-5513-42C9-935D-0E8576F3E914}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -6856,7 +6935,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>378</v>
@@ -6867,7 +6946,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>379</v>
@@ -6927,10 +7006,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6950,102 +7029,69 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>383</v>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>221</v>
+        <v>388</v>
       </c>
       <c r="C2" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>384</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C3" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>386</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C4" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>392</v>
+      <c r="A6" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C10" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7056,10 +7102,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DD818-438A-4831-92D3-0F7395A18832}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7080,54 +7126,125 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="C10" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="C11" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7136,10 +7253,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0619099-9FB9-4D8B-98C7-A6A2795A9397}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7161,43 +7278,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>221</v>
+        <v>388</v>
       </c>
       <c r="C2" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C3" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C4" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -7205,10 +7322,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>396</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -7216,10 +7333,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>393</v>
+        <v>399</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>400</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -7227,45 +7344,12 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" s="12">
         <v>1</v>
       </c>
     </row>
@@ -7276,10 +7360,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96BF48A-4315-4E94-BCC2-561CDC3EFCA7}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7301,43 +7385,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>221</v>
+        <v>404</v>
       </c>
       <c r="C2" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>385</v>
+        <v>276</v>
       </c>
       <c r="C3" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>386</v>
+        <v>275</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>387</v>
+        <v>274</v>
       </c>
       <c r="C4" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -7345,10 +7429,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>276</v>
+        <v>390</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -7356,43 +7440,43 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>275</v>
+        <v>409</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" s="13">
+        <v>392</v>
+      </c>
+      <c r="C7" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C8" s="13">
+        <v>394</v>
+      </c>
+      <c r="C8" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="C9" s="13">
+        <v>411</v>
+      </c>
+      <c r="C9" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -7400,78 +7484,45 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>395</v>
+        <v>412</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>413</v>
       </c>
       <c r="C11" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="A12" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C13" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="C14" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="C14" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7485,7 +7536,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7496,7 +7547,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -7507,10 +7558,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>418</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>419</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -7518,10 +7569,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>420</v>
+        <v>491</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
@@ -7529,10 +7580,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -7540,10 +7591,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -7551,7 +7602,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>276</v>
@@ -7562,10 +7613,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -7573,10 +7624,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -7584,10 +7635,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
@@ -7595,10 +7646,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -7625,7 +7676,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -7636,7 +7687,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>288</v>
@@ -7644,31 +7695,31 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>285</v>
@@ -7679,10 +7730,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7690,26 +7741,155 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4DA7D-4F40-4C35-8616-1675859170C6}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="C8" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7790,6 +7970,162 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6F623-52B2-4FE3-9404-E23DF1E7A3BC}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="41.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8A419-356C-49B5-8422-F842A6138710}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482C9237-93B8-4EAF-9528-C3153C2F5F33}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="41.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" s="28">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A13"/>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45878F2-F827-43DA-AF71-B037F1BCED2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB29E0F-42CB-494C-AEF9-43ED44196B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="38" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="32" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,8 @@
     <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId39"/>
     <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId40"/>
     <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId41"/>
-    <sheet name="Parça-Hidros-Tam-ESP-Hariç" sheetId="49" r:id="rId42"/>
+    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId42"/>
+    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId43"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="514">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -1270,9 +1271,6 @@
     <t>150-53-08-501</t>
   </si>
   <si>
-    <t>ORİNG 105X3</t>
-  </si>
-  <si>
     <t>150-51-13-035</t>
   </si>
   <si>
@@ -1282,9 +1280,6 @@
     <t>150-51-09-902</t>
   </si>
   <si>
-    <t>ORİNG 105X3.5</t>
-  </si>
-  <si>
     <t>150-51-13-036</t>
   </si>
   <si>
@@ -1609,13 +1604,22 @@
     <t>PUL M5 BEYAZ</t>
   </si>
   <si>
-    <t>150-50-24-002</t>
-  </si>
-  <si>
     <t>TE Ø10</t>
   </si>
   <si>
     <t>150-51-09-615</t>
+  </si>
+  <si>
+    <t>CIVATA IMBUS M6 70 MM BEYAZ (DIN 912)</t>
+  </si>
+  <si>
+    <t>150-50-21-072</t>
+  </si>
+  <si>
+    <t>PUL M6 BEYAZ</t>
+  </si>
+  <si>
+    <t>150-50-24-00</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1802,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1863,21 +1867,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4529,7 +4518,7 @@
         <v>261</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C2" s="12">
         <v>8</v>
@@ -4537,10 +4526,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C3" s="12">
         <v>8</v>
@@ -4548,10 +4537,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -4562,7 +4551,7 @@
         <v>255</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -4573,7 +4562,7 @@
         <v>231</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -4581,10 +4570,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -4592,10 +4581,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -4603,10 +4592,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -4628,7 +4617,7 @@
         <v>289</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
@@ -4639,7 +4628,7 @@
         <v>226</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C12" s="12">
         <v>4</v>
@@ -4650,7 +4639,7 @@
         <v>221</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C13" s="12">
         <v>4</v>
@@ -4661,7 +4650,7 @@
         <v>283</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
@@ -4672,7 +4661,7 @@
         <v>276</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
@@ -4694,7 +4683,7 @@
         <v>291</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
@@ -4705,7 +4694,7 @@
         <v>262</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
@@ -4713,10 +4702,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
@@ -4724,10 +4713,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
@@ -4735,10 +4724,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
@@ -4746,10 +4735,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
@@ -4757,10 +4746,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
@@ -4768,10 +4757,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
@@ -4782,7 +4771,7 @@
         <v>288</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
@@ -4790,10 +4779,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
@@ -4801,10 +4790,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -4812,10 +4801,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -6185,7 +6174,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>335</v>
@@ -6218,7 +6207,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>338</v>
@@ -6314,7 +6303,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>345</v>
@@ -6336,7 +6325,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>347</v>
@@ -6347,7 +6336,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>348</v>
@@ -6829,7 +6818,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>370</v>
@@ -6840,7 +6829,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>371</v>
@@ -6862,7 +6851,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>373</v>
@@ -6935,7 +6924,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>378</v>
@@ -6946,7 +6935,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>379</v>
@@ -7008,8 +6997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7085,15 +7074,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7105,7 +7088,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C12"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7126,125 +7109,119 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B3" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="B5" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B6" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C5" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+      <c r="B7" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="C6" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+      <c r="B9" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="C7" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B10" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="C9" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B11" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C10" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="C11" s="26">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="C12" s="26">
-        <v>1</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7256,7 +7233,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7333,25 +7310,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="C7" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7363,7 +7334,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7385,10 +7356,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -7396,7 +7367,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>276</v>
@@ -7418,10 +7389,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -7429,7 +7400,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>390</v>
@@ -7440,7 +7411,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>392</v>
@@ -7462,10 +7433,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -7473,10 +7444,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -7484,10 +7455,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
@@ -7495,10 +7466,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -7506,25 +7477,19 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7547,7 +7512,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -7558,10 +7523,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -7569,10 +7534,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
@@ -7580,10 +7545,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -7591,10 +7556,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -7602,7 +7567,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>276</v>
@@ -7613,10 +7578,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -7624,7 +7589,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>390</v>
@@ -7635,7 +7600,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>392</v>
@@ -7646,10 +7611,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -7676,7 +7641,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -7687,7 +7652,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>288</v>
@@ -7695,31 +7660,31 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>285</v>
@@ -7730,10 +7695,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7741,26 +7706,26 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -7772,7 +7737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4DA7D-4F40-4C35-8616-1675859170C6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -7784,7 +7749,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>76</v>
@@ -7794,101 +7759,101 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="C5" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>495</v>
-      </c>
-      <c r="C6" s="28">
+      <c r="C7" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B8" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C8" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="C8" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
-        <v>501</v>
-      </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="A10" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="C10" s="13">
         <v>1</v>
       </c>
     </row>
@@ -7986,7 +7951,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -7996,24 +7961,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="13">
         <v>1</v>
       </c>
     </row>
@@ -8038,7 +8003,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -8048,24 +8013,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="13">
         <v>1</v>
       </c>
     </row>
@@ -8075,22 +8040,22 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482C9237-93B8-4EAF-9528-C3153C2F5F33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2940612-38AA-473D-9E29-6948C9894827}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -8100,24 +8065,76 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="B3" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="1">
         <v>3</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8FDC1F-0928-4EAD-8229-D1C823D828C7}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="41.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" s="13">
+        <v>3</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>509</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="A3" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="13">
         <v>3</v>
       </c>
     </row>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB29E0F-42CB-494C-AEF9-43ED44196B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D7A82D-154C-4425-9203-20F2C46D7A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="32" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -6539,7 +6539,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6997,7 +6997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -7866,8 +7866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D7A82D-154C-4425-9203-20F2C46D7A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC498CFB-3545-4259-831E-101820E3739D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="517">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -1620,6 +1620,15 @@
   </si>
   <si>
     <t>150-50-24-00</t>
+  </si>
+  <si>
+    <t>2.2 KW 1500d/dk 380V B5 FLANŞLI VOLT</t>
+  </si>
+  <si>
+    <t>3 KW 1500d/dk 380V B5 FLANŞLI VOLT</t>
+  </si>
+  <si>
+    <t>150-52-13-013</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1811,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1863,9 +1872,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2156,28 +2162,28 @@
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="32.1796875" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" customWidth="1"/>
-    <col min="11" max="11" width="25.1796875" customWidth="1"/>
-    <col min="12" max="12" width="26.36328125" customWidth="1"/>
-    <col min="13" max="13" width="26.1796875" customWidth="1"/>
-    <col min="14" max="14" width="24.08984375" customWidth="1"/>
-    <col min="15" max="15" width="20.81640625" customWidth="1"/>
-    <col min="16" max="16" width="22.1796875" customWidth="1"/>
-    <col min="17" max="17" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -2308,17 +2314,17 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2337,27 +2343,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.90625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -2375,16 +2381,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="31.36328125" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>201</v>
       </c>
@@ -2423,7 +2429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>203</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>205</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>201</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>203</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>205</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>202</v>
       </c>
@@ -2523,7 +2529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>204</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>206</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>202</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>204</v>
       </c>
@@ -2584,7 +2590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>206</v>
       </c>
@@ -2608,16 +2614,16 @@
       <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="31.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -2628,7 +2634,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2642,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>221</v>
       </c>
@@ -2653,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>222</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>223</v>
       </c>
@@ -2678,7 +2684,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>226</v>
       </c>
@@ -2689,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>227</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>229</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>297</v>
       </c>
@@ -2728,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>231</v>
       </c>
@@ -2739,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>232</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>221</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>222</v>
       </c>
@@ -2786,7 +2792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>223</v>
       </c>
@@ -2797,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>226</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>227</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>229</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>297</v>
       </c>
@@ -2841,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>231</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>232</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2877,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>221</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>222</v>
       </c>
@@ -2899,7 +2905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>223</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>226</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>227</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>229</v>
       </c>
@@ -2943,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>297</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>231</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>232</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>221</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>222</v>
       </c>
@@ -3012,7 +3018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>223</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>226</v>
       </c>
@@ -3034,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>227</v>
       </c>
@@ -3045,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>229</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>297</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>231</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>232</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -3103,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>221</v>
       </c>
@@ -3114,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>222</v>
       </c>
@@ -3125,7 +3131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>223</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>226</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>233</v>
       </c>
@@ -3161,7 +3167,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>229</v>
       </c>
@@ -3172,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>297</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>231</v>
       </c>
@@ -3194,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>232</v>
       </c>
@@ -3205,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -3219,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>221</v>
       </c>
@@ -3230,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>222</v>
       </c>
@@ -3241,7 +3247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>225</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>227</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>229</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>297</v>
       </c>
@@ -3288,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>236</v>
       </c>
@@ -3299,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>237</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>221</v>
       </c>
@@ -3335,7 +3341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>222</v>
       </c>
@@ -3346,7 +3352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>225</v>
       </c>
@@ -3357,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>227</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>229</v>
       </c>
@@ -3379,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>297</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>236</v>
       </c>
@@ -3401,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>237</v>
       </c>
@@ -3412,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -3426,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>221</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>222</v>
       </c>
@@ -3448,7 +3454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>225</v>
       </c>
@@ -3459,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>238</v>
       </c>
@@ -3470,7 +3476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>222</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>227</v>
       </c>
@@ -3492,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>229</v>
       </c>
@@ -3503,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>297</v>
       </c>
@@ -3514,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>236</v>
       </c>
@@ -3525,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>237</v>
       </c>
@@ -3536,12 +3542,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -3555,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>239</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>240</v>
       </c>
@@ -3577,7 +3583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>241</v>
       </c>
@@ -3588,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>242</v>
       </c>
@@ -3599,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>223</v>
       </c>
@@ -3610,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>123</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>297</v>
       </c>
@@ -3632,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>243</v>
       </c>
@@ -3643,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>237</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>239</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>240</v>
       </c>
@@ -3690,7 +3696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>241</v>
       </c>
@@ -3701,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>242</v>
       </c>
@@ -3712,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>223</v>
       </c>
@@ -3723,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>123</v>
       </c>
@@ -3734,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>297</v>
       </c>
@@ -3745,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>243</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>237</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>239</v>
       </c>
@@ -3792,7 +3798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>240</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>241</v>
       </c>
@@ -3814,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>242</v>
       </c>
@@ -3825,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>223</v>
       </c>
@@ -3836,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>123</v>
       </c>
@@ -3847,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>297</v>
       </c>
@@ -3858,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>243</v>
       </c>
@@ -3869,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>237</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -3894,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>239</v>
       </c>
@@ -3905,7 +3911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>240</v>
       </c>
@@ -3916,7 +3922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>241</v>
       </c>
@@ -3927,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>242</v>
       </c>
@@ -3938,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>223</v>
       </c>
@@ -3949,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>123</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>297</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>243</v>
       </c>
@@ -3982,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>237</v>
       </c>
@@ -3993,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>29</v>
       </c>
@@ -4007,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>239</v>
       </c>
@@ -4018,7 +4024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>240</v>
       </c>
@@ -4029,7 +4035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>241</v>
       </c>
@@ -4040,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>242</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>223</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>297</v>
       </c>
@@ -4073,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>297</v>
       </c>
@@ -4084,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>243</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>237</v>
       </c>
@@ -4106,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -4120,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>239</v>
       </c>
@@ -4131,7 +4137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>240</v>
       </c>
@@ -4142,7 +4148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>297</v>
       </c>
@@ -4153,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>243</v>
       </c>
@@ -4164,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>237</v>
       </c>
@@ -4182,21 +4188,21 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="31.36328125" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4207,166 +4213,191 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>244</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>124</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>123</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>245</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>126</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>246</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>127</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>292</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>128</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>247</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>129</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>248</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>130</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>249</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>131</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>250</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>132</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>252</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>253</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>251</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E11:G12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4380,14 +4411,14 @@
       <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4398,7 +4429,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4412,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -4426,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -4440,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -4454,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -4468,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -4495,14 +4526,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="90.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4513,7 +4544,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>261</v>
       </c>
@@ -4524,7 +4555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>452</v>
       </c>
@@ -4535,7 +4566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>454</v>
       </c>
@@ -4546,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>255</v>
       </c>
@@ -4557,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>231</v>
       </c>
@@ -4568,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>458</v>
       </c>
@@ -4579,7 +4610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>460</v>
       </c>
@@ -4590,7 +4621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>462</v>
       </c>
@@ -4601,7 +4632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>394</v>
       </c>
@@ -4612,7 +4643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>289</v>
       </c>
@@ -4623,7 +4654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>226</v>
       </c>
@@ -4634,7 +4665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>221</v>
       </c>
@@ -4645,7 +4676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>283</v>
       </c>
@@ -4656,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>276</v>
       </c>
@@ -4667,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>274</v>
       </c>
@@ -4678,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>291</v>
       </c>
@@ -4689,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>262</v>
       </c>
@@ -4700,7 +4731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>471</v>
       </c>
@@ -4711,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>473</v>
       </c>
@@ -4722,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>475</v>
       </c>
@@ -4733,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>477</v>
       </c>
@@ -4744,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>479</v>
       </c>
@@ -4755,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>481</v>
       </c>
@@ -4766,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>288</v>
       </c>
@@ -4777,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>484</v>
       </c>
@@ -4788,7 +4819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>402</v>
       </c>
@@ -4799,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>487</v>
       </c>
@@ -4823,16 +4854,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4843,7 +4874,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -4860,7 +4891,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -4874,7 +4905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4888,7 +4919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>297</v>
       </c>
@@ -4899,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>261</v>
       </c>
@@ -4910,7 +4941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>262</v>
       </c>
@@ -4921,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>263</v>
       </c>
@@ -4932,7 +4963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>264</v>
       </c>
@@ -4946,7 +4977,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>266</v>
       </c>
@@ -4957,7 +4988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -4971,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -4985,7 +5016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -4999,7 +5030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>297</v>
       </c>
@@ -5010,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>261</v>
       </c>
@@ -5021,7 +5052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>262</v>
       </c>
@@ -5032,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>263</v>
       </c>
@@ -5043,7 +5074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>264</v>
       </c>
@@ -5057,7 +5088,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>160</v>
       </c>
@@ -5071,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -5085,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>148</v>
       </c>
@@ -5099,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -5113,7 +5144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -5127,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>297</v>
       </c>
@@ -5138,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>273</v>
       </c>
@@ -5149,7 +5180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>270</v>
       </c>
@@ -5160,7 +5191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>271</v>
       </c>
@@ -5171,7 +5202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5185,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -5199,7 +5230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -5213,7 +5244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>297</v>
       </c>
@@ -5224,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>261</v>
       </c>
@@ -5235,7 +5266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>262</v>
       </c>
@@ -5246,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>263</v>
       </c>
@@ -5257,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>264</v>
       </c>
@@ -5268,7 +5299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>266</v>
       </c>
@@ -5279,7 +5310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>274</v>
       </c>
@@ -5293,7 +5324,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>276</v>
       </c>
@@ -5304,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>277</v>
       </c>
@@ -5318,7 +5349,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>123</v>
       </c>
@@ -5329,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>279</v>
       </c>
@@ -5340,7 +5371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>280</v>
       </c>
@@ -5354,7 +5385,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>282</v>
       </c>
@@ -5365,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>283</v>
       </c>
@@ -5376,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>284</v>
       </c>
@@ -5387,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>123</v>
       </c>
@@ -5398,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>123</v>
       </c>
@@ -5422,15 +5453,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -5441,7 +5472,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -5455,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>271</v>
       </c>
@@ -5466,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>286</v>
       </c>
@@ -5477,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>123</v>
       </c>
@@ -5501,15 +5532,15 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -5520,7 +5551,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>287</v>
       </c>
@@ -5531,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>288</v>
       </c>
@@ -5542,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>289</v>
       </c>
@@ -5553,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -5567,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -5578,7 +5609,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -5589,7 +5620,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -5600,7 +5631,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -5611,7 +5642,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -5622,7 +5653,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -5633,7 +5664,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -5644,7 +5675,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>190</v>
       </c>
@@ -5655,7 +5686,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -5666,7 +5697,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>192</v>
       </c>
@@ -5690,23 +5721,23 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5722,52 +5753,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -5785,47 +5816,47 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>304</v>
       </c>
@@ -5843,82 +5874,82 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>308</v>
       </c>
@@ -5936,42 +5967,42 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>318</v>
       </c>
@@ -5989,47 +6020,47 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>322</v>
       </c>
@@ -6047,32 +6078,32 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>327</v>
       </c>
@@ -6090,32 +6121,32 @@
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>332</v>
       </c>
@@ -6133,13 +6164,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -6150,7 +6181,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>306</v>
       </c>
@@ -6161,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>300</v>
       </c>
@@ -6172,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>444</v>
       </c>
@@ -6183,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>302</v>
       </c>
@@ -6194,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -6205,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>445</v>
       </c>
@@ -6216,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>304</v>
       </c>
@@ -6227,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -6251,13 +6282,13 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -6268,7 +6299,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>299</v>
       </c>
@@ -6279,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>300</v>
       </c>
@@ -6290,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>301</v>
       </c>
@@ -6301,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>446</v>
       </c>
@@ -6312,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -6323,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>445</v>
       </c>
@@ -6334,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>447</v>
       </c>
@@ -6358,13 +6389,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>365</v>
       </c>
@@ -6375,7 +6406,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>309</v>
       </c>
@@ -6386,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6397,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>310</v>
       </c>
@@ -6408,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>311</v>
       </c>
@@ -6419,7 +6450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -6430,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -6441,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -6452,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -6463,7 +6494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -6474,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -6485,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -6496,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -6507,7 +6538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -6518,7 +6549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>364</v>
       </c>
@@ -6536,69 +6567,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6615,13 +6656,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>365</v>
       </c>
@@ -6632,7 +6673,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>309</v>
       </c>
@@ -6643,7 +6684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6654,7 +6695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>310</v>
       </c>
@@ -6665,7 +6706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>311</v>
       </c>
@@ -6676,7 +6717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -6687,7 +6728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -6698,7 +6739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -6709,7 +6750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -6720,7 +6761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -6731,7 +6772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -6742,7 +6783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -6753,7 +6794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -6764,7 +6805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -6775,7 +6816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>364</v>
       </c>
@@ -6799,13 +6840,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>376</v>
       </c>
@@ -6816,7 +6857,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>448</v>
       </c>
@@ -6827,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>449</v>
       </c>
@@ -6838,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>321</v>
       </c>
@@ -6849,7 +6890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>450</v>
       </c>
@@ -6860,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>317</v>
       </c>
@@ -6871,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>318</v>
       </c>
@@ -6895,12 +6936,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>376</v>
       </c>
@@ -6911,7 +6952,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>320</v>
       </c>
@@ -6922,7 +6963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>448</v>
       </c>
@@ -6933,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>449</v>
       </c>
@@ -6944,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>321</v>
       </c>
@@ -6955,7 +6996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>316</v>
       </c>
@@ -6966,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>317</v>
       </c>
@@ -6977,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>322</v>
       </c>
@@ -7001,13 +7042,13 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.26953125" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>376</v>
       </c>
@@ -7018,7 +7059,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>387</v>
       </c>
@@ -7029,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>389</v>
       </c>
@@ -7040,7 +7081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>391</v>
       </c>
@@ -7051,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>393</v>
       </c>
@@ -7062,7 +7103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>395</v>
       </c>
@@ -7073,7 +7114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7091,13 +7132,13 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>376</v>
       </c>
@@ -7108,7 +7149,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>401</v>
       </c>
@@ -7119,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>403</v>
       </c>
@@ -7130,7 +7171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>275</v>
       </c>
@@ -7141,7 +7182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>404</v>
       </c>
@@ -7152,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>406</v>
       </c>
@@ -7163,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>407</v>
       </c>
@@ -7174,7 +7215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>393</v>
       </c>
@@ -7185,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>408</v>
       </c>
@@ -7196,7 +7237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>410</v>
       </c>
@@ -7207,7 +7248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>412</v>
       </c>
@@ -7218,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7236,13 +7277,13 @@
       <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>376</v>
       </c>
@@ -7253,7 +7294,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>387</v>
       </c>
@@ -7264,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>389</v>
       </c>
@@ -7275,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>391</v>
       </c>
@@ -7286,7 +7327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>393</v>
       </c>
@@ -7297,7 +7338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>395</v>
       </c>
@@ -7308,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>398</v>
       </c>
@@ -7319,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="12"/>
@@ -7337,13 +7378,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="72.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>376</v>
       </c>
@@ -7354,7 +7395,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>401</v>
       </c>
@@ -7365,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>403</v>
       </c>
@@ -7376,7 +7417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>275</v>
       </c>
@@ -7387,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>404</v>
       </c>
@@ -7398,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>406</v>
       </c>
@@ -7409,7 +7450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>407</v>
       </c>
@@ -7420,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>393</v>
       </c>
@@ -7431,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>408</v>
       </c>
@@ -7442,7 +7483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>414</v>
       </c>
@@ -7453,7 +7494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>410</v>
       </c>
@@ -7464,7 +7505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>412</v>
       </c>
@@ -7475,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>398</v>
       </c>
@@ -7486,7 +7527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7504,13 +7545,13 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.90625" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>426</v>
       </c>
@@ -7521,7 +7562,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>415</v>
       </c>
@@ -7532,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>489</v>
       </c>
@@ -7543,7 +7584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>418</v>
       </c>
@@ -7554,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>420</v>
       </c>
@@ -7565,7 +7606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>422</v>
       </c>
@@ -7576,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>423</v>
       </c>
@@ -7587,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>406</v>
       </c>
@@ -7598,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>407</v>
       </c>
@@ -7609,7 +7650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>424</v>
       </c>
@@ -7633,13 +7674,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>443</v>
       </c>
@@ -7650,7 +7691,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>427</v>
       </c>
@@ -7658,7 +7699,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>428</v>
       </c>
@@ -7666,7 +7707,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>430</v>
       </c>
@@ -7674,7 +7715,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>432</v>
       </c>
@@ -7682,7 +7723,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>434</v>
       </c>
@@ -7693,7 +7734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>435</v>
       </c>
@@ -7704,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>437</v>
       </c>
@@ -7712,7 +7753,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>439</v>
       </c>
@@ -7720,7 +7761,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>441</v>
       </c>
@@ -7741,13 +7782,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.08984375" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>490</v>
       </c>
@@ -7758,7 +7799,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>383</v>
       </c>
@@ -7769,7 +7810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>384</v>
       </c>
@@ -7780,7 +7821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>386</v>
       </c>
@@ -7791,7 +7832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>491</v>
       </c>
@@ -7802,7 +7843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>494</v>
       </c>
@@ -7813,7 +7854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>495</v>
       </c>
@@ -7824,7 +7865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>497</v>
       </c>
@@ -7835,7 +7876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>499</v>
       </c>
@@ -7846,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>508</v>
       </c>
@@ -7864,69 +7905,79 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7943,13 +7994,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7265625" customWidth="1"/>
-    <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>500</v>
       </c>
@@ -7960,7 +8011,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>501</v>
       </c>
@@ -7971,7 +8022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>503</v>
       </c>
@@ -7995,13 +8046,13 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>500</v>
       </c>
@@ -8012,7 +8063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>502</v>
       </c>
@@ -8023,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>504</v>
       </c>
@@ -8047,13 +8098,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>500</v>
       </c>
@@ -8064,7 +8115,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>505</v>
       </c>
@@ -8075,7 +8126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>507</v>
       </c>
@@ -8099,13 +8150,13 @@
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>500</v>
       </c>
@@ -8116,7 +8167,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>510</v>
       </c>
@@ -8127,7 +8178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>512</v>
       </c>
@@ -8151,69 +8202,69 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -8231,84 +8282,84 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -8326,144 +8377,144 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -8481,22 +8532,22 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -8514,27 +8565,27 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC498CFB-3545-4259-831E-101820E3739D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96719AF1-229A-4453-AC21-4451DE502701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="522">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -1178,18 +1178,6 @@
     <t>Pompa</t>
   </si>
   <si>
-    <t>CİVATA M8X80 MM</t>
-  </si>
-  <si>
-    <t>CİVATA M8X90 MM</t>
-  </si>
-  <si>
-    <t>CİVATA M8X100 MM</t>
-  </si>
-  <si>
-    <t>CİVATA M8X110 MM</t>
-  </si>
-  <si>
     <t>150-51-06-011</t>
   </si>
   <si>
@@ -1629,6 +1617,33 @@
   </si>
   <si>
     <t>150-52-13-013</t>
+  </si>
+  <si>
+    <t>150-50-21-535</t>
+  </si>
+  <si>
+    <t>150-50-21-107</t>
+  </si>
+  <si>
+    <t>150-50-21-109</t>
+  </si>
+  <si>
+    <t>150-50-21-111</t>
+  </si>
+  <si>
+    <t>150-51-09_809</t>
+  </si>
+  <si>
+    <t>150-51-09-424</t>
+  </si>
+  <si>
+    <t>150-51-09-627</t>
+  </si>
+  <si>
+    <t>150-51-04-408</t>
+  </si>
+  <si>
+    <t>150-51-09-423</t>
   </si>
 </sst>
 </file>
@@ -2162,28 +2177,28 @@
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="32.1796875" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" customWidth="1"/>
+    <col min="11" max="11" width="25.1796875" customWidth="1"/>
+    <col min="12" max="12" width="26.453125" customWidth="1"/>
+    <col min="13" max="13" width="26.1796875" customWidth="1"/>
+    <col min="14" max="14" width="24.1796875" customWidth="1"/>
+    <col min="15" max="15" width="20.81640625" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -2242,7 +2257,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>30</v>
       </c>
@@ -2314,17 +2329,17 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2343,27 +2358,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -2377,20 +2392,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="31.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -2401,7 +2416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2418,7 +2433,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>201</v>
       </c>
@@ -2429,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>203</v>
       </c>
@@ -2440,7 +2455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>205</v>
       </c>
@@ -2451,7 +2466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2468,7 +2483,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>201</v>
       </c>
@@ -2479,7 +2494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>203</v>
       </c>
@@ -2490,7 +2505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>205</v>
       </c>
@@ -2501,7 +2516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2518,7 +2533,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>202</v>
       </c>
@@ -2529,7 +2544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>204</v>
       </c>
@@ -2540,7 +2555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>206</v>
       </c>
@@ -2551,7 +2566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -2568,7 +2583,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>202</v>
       </c>
@@ -2579,7 +2594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>204</v>
       </c>
@@ -2590,7 +2605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>206</v>
       </c>
@@ -2610,20 +2625,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -2634,7 +2649,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2648,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>221</v>
       </c>
@@ -2659,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>222</v>
       </c>
@@ -2670,7 +2685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>223</v>
       </c>
@@ -2684,7 +2699,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>226</v>
       </c>
@@ -2695,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>227</v>
       </c>
@@ -2709,7 +2724,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>229</v>
       </c>
@@ -2723,7 +2738,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>297</v>
       </c>
@@ -2734,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>231</v>
       </c>
@@ -2745,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>232</v>
       </c>
@@ -2756,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2770,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>221</v>
       </c>
@@ -2781,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>222</v>
       </c>
@@ -2792,7 +2807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>223</v>
       </c>
@@ -2803,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>226</v>
       </c>
@@ -2814,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>227</v>
       </c>
@@ -2825,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>229</v>
       </c>
@@ -2836,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>297</v>
       </c>
@@ -2847,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>231</v>
       </c>
@@ -2858,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>232</v>
       </c>
@@ -2869,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2883,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>221</v>
       </c>
@@ -2894,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>222</v>
       </c>
@@ -2905,7 +2920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>223</v>
       </c>
@@ -2916,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>226</v>
       </c>
@@ -2927,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>227</v>
       </c>
@@ -2938,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>229</v>
       </c>
@@ -2949,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>297</v>
       </c>
@@ -2960,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>231</v>
       </c>
@@ -2971,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>232</v>
       </c>
@@ -2982,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2996,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>221</v>
       </c>
@@ -3007,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>222</v>
       </c>
@@ -3018,7 +3033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>223</v>
       </c>
@@ -3029,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>226</v>
       </c>
@@ -3040,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>227</v>
       </c>
@@ -3051,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>229</v>
       </c>
@@ -3062,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>297</v>
       </c>
@@ -3073,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>231</v>
       </c>
@@ -3084,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>232</v>
       </c>
@@ -3095,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -3109,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>221</v>
       </c>
@@ -3120,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>222</v>
       </c>
@@ -3131,7 +3146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>223</v>
       </c>
@@ -3142,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>226</v>
       </c>
@@ -3153,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>233</v>
       </c>
@@ -3167,7 +3182,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>229</v>
       </c>
@@ -3178,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>297</v>
       </c>
@@ -3189,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>231</v>
       </c>
@@ -3200,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>232</v>
       </c>
@@ -3211,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -3225,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>221</v>
       </c>
@@ -3236,7 +3251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>222</v>
       </c>
@@ -3247,7 +3262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>225</v>
       </c>
@@ -3261,7 +3276,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>227</v>
       </c>
@@ -3272,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>229</v>
       </c>
@@ -3283,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>297</v>
       </c>
@@ -3294,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>236</v>
       </c>
@@ -3305,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>237</v>
       </c>
@@ -3316,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -3330,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>221</v>
       </c>
@@ -3341,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>222</v>
       </c>
@@ -3352,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>225</v>
       </c>
@@ -3363,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>227</v>
       </c>
@@ -3374,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>229</v>
       </c>
@@ -3385,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>297</v>
       </c>
@@ -3396,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>236</v>
       </c>
@@ -3407,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>237</v>
       </c>
@@ -3418,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -3432,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>221</v>
       </c>
@@ -3443,7 +3458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>222</v>
       </c>
@@ -3454,7 +3469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>225</v>
       </c>
@@ -3465,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>238</v>
       </c>
@@ -3476,7 +3491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>222</v>
       </c>
@@ -3487,7 +3502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>227</v>
       </c>
@@ -3498,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>229</v>
       </c>
@@ -3509,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>297</v>
       </c>
@@ -3520,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>236</v>
       </c>
@@ -3531,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>237</v>
       </c>
@@ -3542,12 +3557,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>25</v>
       </c>
@@ -3561,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>239</v>
       </c>
@@ -3572,7 +3587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>240</v>
       </c>
@@ -3583,7 +3598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>241</v>
       </c>
@@ -3594,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>242</v>
       </c>
@@ -3605,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>223</v>
       </c>
@@ -3616,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>123</v>
       </c>
@@ -3627,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>297</v>
       </c>
@@ -3638,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>243</v>
       </c>
@@ -3649,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>237</v>
       </c>
@@ -3660,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -3674,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>239</v>
       </c>
@@ -3685,7 +3700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>240</v>
       </c>
@@ -3696,7 +3711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>241</v>
       </c>
@@ -3707,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>242</v>
       </c>
@@ -3718,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>223</v>
       </c>
@@ -3729,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>123</v>
       </c>
@@ -3740,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>297</v>
       </c>
@@ -3751,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>243</v>
       </c>
@@ -3762,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>237</v>
       </c>
@@ -3773,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -3787,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>239</v>
       </c>
@@ -3798,7 +3813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>240</v>
       </c>
@@ -3809,7 +3824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>241</v>
       </c>
@@ -3820,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>242</v>
       </c>
@@ -3831,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>223</v>
       </c>
@@ -3842,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>123</v>
       </c>
@@ -3853,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>297</v>
       </c>
@@ -3864,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>243</v>
       </c>
@@ -3875,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>237</v>
       </c>
@@ -3886,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -3900,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>239</v>
       </c>
@@ -3911,7 +3926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>240</v>
       </c>
@@ -3922,7 +3937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>241</v>
       </c>
@@ -3933,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>242</v>
       </c>
@@ -3944,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>223</v>
       </c>
@@ -3955,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>123</v>
       </c>
@@ -3966,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>297</v>
       </c>
@@ -3977,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>243</v>
       </c>
@@ -3988,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>237</v>
       </c>
@@ -3999,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>29</v>
       </c>
@@ -4013,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>239</v>
       </c>
@@ -4024,7 +4039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>240</v>
       </c>
@@ -4035,7 +4050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>241</v>
       </c>
@@ -4046,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>242</v>
       </c>
@@ -4057,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>223</v>
       </c>
@@ -4068,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>297</v>
       </c>
@@ -4079,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>297</v>
       </c>
@@ -4090,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>243</v>
       </c>
@@ -4101,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>237</v>
       </c>
@@ -4112,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -4126,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>239</v>
       </c>
@@ -4137,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>240</v>
       </c>
@@ -4148,7 +4163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>297</v>
       </c>
@@ -4159,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>243</v>
       </c>
@@ -4170,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>237</v>
       </c>
@@ -4190,19 +4205,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4213,35 +4228,35 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4255,12 +4270,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5">
-        <v>123</v>
+      <c r="B5" t="s">
+        <v>245</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>
@@ -4269,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -4283,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4297,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -4311,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -4325,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -4339,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -4353,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -4367,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -4386,7 +4401,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>251</v>
       </c>
@@ -4411,14 +4426,14 @@
       <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4429,7 +4444,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4443,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -4457,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -4471,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -4485,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -4499,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -4522,18 +4537,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB920FC-CA3E-4670-8245-01BE36815DAA}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="90.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="90.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4544,161 +4559,161 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>261</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C2" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C3" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>255</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>231</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>289</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>226</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C12" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>221</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C13" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>283</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>276</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>274</v>
       </c>
@@ -4709,133 +4724,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>291</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
         <v>262</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B21" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B22" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B23" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>482</v>
-      </c>
       <c r="C24" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
         <v>288</v>
       </c>
       <c r="B25" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="B28" s="12" t="s">
         <v>484</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>488</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -4850,20 +4865,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -4874,7 +4889,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -4891,7 +4906,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -4905,12 +4920,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>148</v>
       </c>
-      <c r="B4">
-        <v>123</v>
+      <c r="B4" t="s">
+        <v>521</v>
       </c>
       <c r="C4" t="s">
         <v>116</v>
@@ -4919,7 +4934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>297</v>
       </c>
@@ -4930,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>261</v>
       </c>
@@ -4941,7 +4956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>262</v>
       </c>
@@ -4952,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>263</v>
       </c>
@@ -4963,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>264</v>
       </c>
@@ -4977,7 +4992,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>266</v>
       </c>
@@ -4988,7 +5003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -5002,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -5016,12 +5031,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>148</v>
       </c>
-      <c r="B16">
-        <v>123</v>
+      <c r="B16" t="s">
+        <v>521</v>
       </c>
       <c r="C16" t="s">
         <v>116</v>
@@ -5030,7 +5045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>297</v>
       </c>
@@ -5041,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>261</v>
       </c>
@@ -5052,7 +5067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>262</v>
       </c>
@@ -5063,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>263</v>
       </c>
@@ -5074,7 +5089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>264</v>
       </c>
@@ -5088,7 +5103,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>160</v>
       </c>
@@ -5102,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -5116,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>148</v>
       </c>
@@ -5130,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -5144,12 +5159,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>148</v>
       </c>
-      <c r="B29">
-        <v>123</v>
+      <c r="B29" t="s">
+        <v>521</v>
       </c>
       <c r="C29" t="s">
         <v>116</v>
@@ -5158,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>297</v>
       </c>
@@ -5169,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>273</v>
       </c>
@@ -5180,7 +5195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>270</v>
       </c>
@@ -5191,7 +5206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>271</v>
       </c>
@@ -5202,7 +5217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5216,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -5230,12 +5245,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>148</v>
       </c>
-      <c r="B39">
-        <v>123</v>
+      <c r="B39" t="s">
+        <v>521</v>
       </c>
       <c r="C39" t="s">
         <v>116</v>
@@ -5244,7 +5259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>297</v>
       </c>
@@ -5255,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>261</v>
       </c>
@@ -5266,7 +5281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>262</v>
       </c>
@@ -5277,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>263</v>
       </c>
@@ -5288,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>264</v>
       </c>
@@ -5299,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>266</v>
       </c>
@@ -5310,7 +5325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>274</v>
       </c>
@@ -5324,7 +5339,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>276</v>
       </c>
@@ -5335,7 +5350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>277</v>
       </c>
@@ -5349,9 +5364,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>123</v>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>520</v>
       </c>
       <c r="C49" t="s">
         <v>170</v>
@@ -5360,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>279</v>
       </c>
@@ -5371,7 +5386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>280</v>
       </c>
@@ -5385,7 +5400,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>282</v>
       </c>
@@ -5396,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>283</v>
       </c>
@@ -5407,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>284</v>
       </c>
@@ -5418,9 +5433,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>123</v>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>518</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>176</v>
@@ -5429,9 +5444,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>123</v>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>519</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>177</v>
@@ -5450,18 +5465,18 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -5472,7 +5487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -5486,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>271</v>
       </c>
@@ -5497,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>286</v>
       </c>
@@ -5508,9 +5523,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>123</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>517</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>158</v>
@@ -5532,15 +5547,15 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -5551,7 +5566,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>287</v>
       </c>
@@ -5562,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>288</v>
       </c>
@@ -5573,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>289</v>
       </c>
@@ -5584,7 +5599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -5598,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -5609,7 +5624,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -5620,7 +5635,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -5631,7 +5646,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -5642,7 +5657,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -5653,7 +5668,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -5664,7 +5679,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -5675,7 +5690,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>190</v>
       </c>
@@ -5686,7 +5701,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -5697,7 +5712,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>192</v>
       </c>
@@ -5721,23 +5736,23 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5753,52 +5768,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -5816,47 +5831,47 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>304</v>
       </c>
@@ -5874,82 +5889,82 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>308</v>
       </c>
@@ -5967,42 +5982,42 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>318</v>
       </c>
@@ -6020,47 +6035,47 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>322</v>
       </c>
@@ -6078,32 +6093,32 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>327</v>
       </c>
@@ -6121,32 +6136,32 @@
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>332</v>
       </c>
@@ -6164,13 +6179,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -6181,7 +6196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>306</v>
       </c>
@@ -6192,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>300</v>
       </c>
@@ -6203,9 +6218,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>335</v>
@@ -6214,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>302</v>
       </c>
@@ -6225,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -6236,9 +6251,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>338</v>
@@ -6247,7 +6262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>304</v>
       </c>
@@ -6258,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -6282,13 +6297,13 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -6299,7 +6314,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>299</v>
       </c>
@@ -6310,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>300</v>
       </c>
@@ -6321,7 +6336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>301</v>
       </c>
@@ -6332,9 +6347,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>345</v>
@@ -6343,7 +6358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -6354,9 +6369,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>347</v>
@@ -6365,9 +6380,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>348</v>
@@ -6389,13 +6404,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="1" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>365</v>
       </c>
@@ -6406,7 +6421,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>309</v>
       </c>
@@ -6417,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6428,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>310</v>
       </c>
@@ -6439,7 +6454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>311</v>
       </c>
@@ -6450,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -6461,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -6472,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -6483,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -6494,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -6505,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -6516,7 +6531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -6527,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -6538,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -6549,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>364</v>
       </c>
@@ -6573,72 +6588,72 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -6653,16 +6668,16 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>365</v>
       </c>
@@ -6673,155 +6688,155 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>309</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>310</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>311</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>367</v>
+        <v>514</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>367</v>
+        <v>514</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>367</v>
+        <v>514</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>368</v>
+        <v>515</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>368</v>
+        <v>515</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>369</v>
+        <v>516</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>364</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>369</v>
+        <v>516</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -6840,15 +6855,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -6857,67 +6872,67 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>321</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>318</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6936,14 +6951,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -6952,78 +6967,78 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>320</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>321</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>316</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>317</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>322</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7042,15 +7057,15 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -7059,62 +7074,62 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>396</v>
-      </c>
       <c r="C6" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7132,15 +7147,15 @@
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -7149,20 +7164,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>276</v>
@@ -7171,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>275</v>
       </c>
@@ -7182,84 +7197,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B10" s="16" t="s">
         <v>407</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>411</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7277,15 +7292,15 @@
       <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -7294,73 +7309,73 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>399</v>
-      </c>
       <c r="C7" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="12"/>
@@ -7378,15 +7393,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="72.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -7395,20 +7410,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>276</v>
@@ -7417,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>275</v>
       </c>
@@ -7428,106 +7443,106 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B11" s="16" t="s">
         <v>407</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>411</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7545,15 +7560,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -7562,53 +7577,53 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>276</v>
@@ -7617,45 +7632,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -7674,15 +7689,15 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -7691,41 +7706,41 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>285</v>
@@ -7734,39 +7749,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -7782,15 +7797,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.1796875" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>76</v>
@@ -7799,9 +7814,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>221</v>
@@ -7810,20 +7825,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C3" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>222</v>
@@ -7832,67 +7847,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -7911,72 +7926,72 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -7994,15 +8009,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -8011,23 +8026,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8046,15 +8061,15 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -8063,23 +8078,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8098,15 +8113,15 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -8115,23 +8130,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -8150,15 +8165,15 @@
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>349</v>
@@ -8167,20 +8182,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C2" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>222</v>
@@ -8202,69 +8217,69 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -8282,84 +8297,84 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -8377,144 +8392,144 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -8532,22 +8547,22 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -8565,27 +8580,27 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96719AF1-229A-4453-AC21-4451DE502701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70E10C1-B839-462F-8480-0B1AF706853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="521">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -531,9 +531,6 @@
   </si>
   <si>
     <t>M6 x 100 İmbus Civata</t>
-  </si>
-  <si>
-    <t>315 Bar Manometre</t>
   </si>
   <si>
     <t>1/4 Ø10 Manometre Nipeli</t>
@@ -2251,10 +2248,10 @@
         <v>63</v>
       </c>
       <c r="R1" t="s">
+        <v>294</v>
+      </c>
+      <c r="S1" t="s">
         <v>295</v>
-      </c>
-      <c r="S1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -2421,7 +2418,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
         <v>78</v>
@@ -2430,12 +2427,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
@@ -2446,7 +2443,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
         <v>83</v>
@@ -2457,7 +2454,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>84</v>
@@ -2471,7 +2468,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -2480,12 +2477,12 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -2496,7 +2493,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
         <v>83</v>
@@ -2507,7 +2504,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
         <v>84</v>
@@ -2521,7 +2518,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
@@ -2530,12 +2527,12 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
@@ -2546,7 +2543,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -2557,7 +2554,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -2571,7 +2568,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
         <v>80</v>
@@ -2580,12 +2577,12 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
         <v>85</v>
@@ -2596,7 +2593,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
         <v>86</v>
@@ -2607,7 +2604,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
@@ -2625,7 +2622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2654,7 +2651,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
         <v>93</v>
@@ -2665,7 +2662,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
         <v>109</v>
@@ -2676,7 +2673,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
         <v>88</v>
@@ -2687,7 +2684,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
@@ -2696,12 +2693,12 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -2712,7 +2709,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
         <v>92</v>
@@ -2721,12 +2718,12 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -2735,12 +2732,12 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
@@ -2751,7 +2748,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -2762,7 +2759,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
         <v>119</v>
@@ -2776,7 +2773,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
         <v>97</v>
@@ -2787,7 +2784,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
         <v>109</v>
@@ -2798,7 +2795,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
         <v>88</v>
@@ -2809,7 +2806,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C15" t="s">
         <v>89</v>
@@ -2820,7 +2817,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
         <v>90</v>
@@ -2831,7 +2828,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s">
         <v>92</v>
@@ -2842,7 +2839,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
@@ -2853,7 +2850,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C19" t="s">
         <v>117</v>
@@ -2864,7 +2861,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C20" t="s">
         <v>118</v>
@@ -2875,7 +2872,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
         <v>119</v>
@@ -2889,7 +2886,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
         <v>96</v>
@@ -2900,7 +2897,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
         <v>109</v>
@@ -2911,7 +2908,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
         <v>88</v>
@@ -2922,7 +2919,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s">
         <v>89</v>
@@ -2933,7 +2930,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" t="s">
         <v>90</v>
@@ -2944,7 +2941,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s">
         <v>92</v>
@@ -2955,7 +2952,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
         <v>91</v>
@@ -2966,7 +2963,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29" t="s">
         <v>117</v>
@@ -2977,7 +2974,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C30" t="s">
         <v>118</v>
@@ -2988,7 +2985,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
         <v>119</v>
@@ -3002,7 +2999,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s">
         <v>95</v>
@@ -3013,7 +3010,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
         <v>109</v>
@@ -3024,7 +3021,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s">
         <v>88</v>
@@ -3035,7 +3032,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C35" t="s">
         <v>89</v>
@@ -3046,7 +3043,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s">
         <v>90</v>
@@ -3057,7 +3054,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" t="s">
         <v>92</v>
@@ -3068,7 +3065,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s">
         <v>91</v>
@@ -3079,7 +3076,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C39" t="s">
         <v>117</v>
@@ -3090,7 +3087,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" t="s">
         <v>118</v>
@@ -3101,7 +3098,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C41" t="s">
         <v>119</v>
@@ -3115,7 +3112,7 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C42" t="s">
         <v>94</v>
@@ -3126,7 +3123,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C43" t="s">
         <v>109</v>
@@ -3137,7 +3134,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" t="s">
         <v>88</v>
@@ -3148,7 +3145,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C45" t="s">
         <v>89</v>
@@ -3159,7 +3156,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C46" t="s">
         <v>90</v>
@@ -3170,7 +3167,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" t="s">
         <v>92</v>
@@ -3179,12 +3176,12 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C48" t="s">
         <v>91</v>
@@ -3195,7 +3192,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C49" t="s">
         <v>117</v>
@@ -3206,7 +3203,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C50" t="s">
         <v>118</v>
@@ -3217,7 +3214,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C51" t="s">
         <v>119</v>
@@ -3231,7 +3228,7 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
         <v>107</v>
@@ -3242,7 +3239,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
         <v>109</v>
@@ -3253,7 +3250,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" t="s">
         <v>88</v>
@@ -3264,7 +3261,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C55" t="s">
         <v>108</v>
@@ -3273,12 +3270,12 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C56" t="s">
         <v>92</v>
@@ -3289,7 +3286,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C57" t="s">
         <v>112</v>
@@ -3300,7 +3297,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C58" t="s">
         <v>120</v>
@@ -3311,7 +3308,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C59" t="s">
         <v>121</v>
@@ -3322,7 +3319,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C60" t="s">
         <v>122</v>
@@ -3336,7 +3333,7 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s">
         <v>106</v>
@@ -3347,7 +3344,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C63" t="s">
         <v>109</v>
@@ -3358,7 +3355,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
         <v>88</v>
@@ -3369,7 +3366,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C65" t="s">
         <v>108</v>
@@ -3380,7 +3377,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C66" t="s">
         <v>92</v>
@@ -3391,7 +3388,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C67" t="s">
         <v>112</v>
@@ -3402,7 +3399,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C68" t="s">
         <v>120</v>
@@ -3413,7 +3410,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" t="s">
         <v>121</v>
@@ -3424,7 +3421,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C70" t="s">
         <v>122</v>
@@ -3438,7 +3435,7 @@
         <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C72" t="s">
         <v>105</v>
@@ -3449,7 +3446,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C73" t="s">
         <v>109</v>
@@ -3460,7 +3457,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
         <v>88</v>
@@ -3471,7 +3468,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C75" t="s">
         <v>108</v>
@@ -3482,7 +3479,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
         <v>111</v>
@@ -3493,7 +3490,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C77" t="s">
         <v>88</v>
@@ -3504,7 +3501,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C78" t="s">
         <v>92</v>
@@ -3515,7 +3512,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C79" t="s">
         <v>112</v>
@@ -3526,7 +3523,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C80" t="s">
         <v>120</v>
@@ -3537,7 +3534,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C81" t="s">
         <v>121</v>
@@ -3548,7 +3545,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C82" t="s">
         <v>122</v>
@@ -3567,7 +3564,7 @@
         <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C93" t="s">
         <v>104</v>
@@ -3578,7 +3575,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" t="s">
         <v>110</v>
@@ -3589,7 +3586,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C95" t="s">
         <v>98</v>
@@ -3600,7 +3597,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C96" t="s">
         <v>113</v>
@@ -3611,7 +3608,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C97" t="s">
         <v>114</v>
@@ -3622,7 +3619,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C98" t="s">
         <v>115</v>
@@ -3644,7 +3641,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C100" t="s">
         <v>120</v>
@@ -3655,7 +3652,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C101" t="s">
         <v>123</v>
@@ -3666,7 +3663,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C102" t="s">
         <v>122</v>
@@ -3680,7 +3677,7 @@
         <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C103" t="s">
         <v>103</v>
@@ -3691,7 +3688,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C104" t="s">
         <v>110</v>
@@ -3702,7 +3699,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C105" t="s">
         <v>98</v>
@@ -3713,7 +3710,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3724,7 +3721,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3735,7 +3732,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3757,7 +3754,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C110" t="s">
         <v>120</v>
@@ -3768,7 +3765,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C111" t="s">
         <v>123</v>
@@ -3779,7 +3776,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C112" t="s">
         <v>122</v>
@@ -3793,7 +3790,7 @@
         <v>27</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C113" t="s">
         <v>102</v>
@@ -3804,7 +3801,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C114" t="s">
         <v>110</v>
@@ -3815,7 +3812,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C115" t="s">
         <v>98</v>
@@ -3826,7 +3823,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C116" t="s">
         <v>113</v>
@@ -3837,7 +3834,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C117" t="s">
         <v>114</v>
@@ -3848,7 +3845,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C118" t="s">
         <v>115</v>
@@ -3870,7 +3867,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C120" t="s">
         <v>120</v>
@@ -3881,7 +3878,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C121" t="s">
         <v>123</v>
@@ -3892,7 +3889,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C122" t="s">
         <v>122</v>
@@ -3906,7 +3903,7 @@
         <v>28</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C123" t="s">
         <v>101</v>
@@ -3917,7 +3914,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C124" t="s">
         <v>110</v>
@@ -3928,7 +3925,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C125" t="s">
         <v>98</v>
@@ -3939,7 +3936,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C126" t="s">
         <v>113</v>
@@ -3950,7 +3947,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C127" t="s">
         <v>114</v>
@@ -3961,7 +3958,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C128" t="s">
         <v>115</v>
@@ -3983,7 +3980,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C130" t="s">
         <v>120</v>
@@ -3994,7 +3991,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C131" t="s">
         <v>123</v>
@@ -4005,7 +4002,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C132" t="s">
         <v>122</v>
@@ -4019,7 +4016,7 @@
         <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C133" t="s">
         <v>100</v>
@@ -4030,7 +4027,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C134" t="s">
         <v>110</v>
@@ -4041,7 +4038,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C135" t="s">
         <v>98</v>
@@ -4052,7 +4049,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C136" t="s">
         <v>113</v>
@@ -4063,7 +4060,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C137" t="s">
         <v>114</v>
@@ -4074,7 +4071,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C138" t="s">
         <v>115</v>
@@ -4085,7 +4082,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C139" t="s">
         <v>116</v>
@@ -4096,7 +4093,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C140" t="s">
         <v>120</v>
@@ -4107,7 +4104,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C141" t="s">
         <v>123</v>
@@ -4118,7 +4115,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C142" t="s">
         <v>122</v>
@@ -4132,7 +4129,7 @@
         <v>30</v>
       </c>
       <c r="B143" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C143" t="s">
         <v>99</v>
@@ -4143,7 +4140,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C144" t="s">
         <v>110</v>
@@ -4154,7 +4151,7 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C145" t="s">
         <v>98</v>
@@ -4165,7 +4162,7 @@
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C150" t="s">
         <v>120</v>
@@ -4176,7 +4173,7 @@
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C151" t="s">
         <v>123</v>
@@ -4187,7 +4184,7 @@
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C152" t="s">
         <v>122</v>
@@ -4205,7 +4202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -4233,10 +4230,10 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4244,13 +4241,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4261,7 +4258,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -4275,7 +4272,7 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>
@@ -4289,7 +4286,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
         <v>126</v>
@@ -4303,7 +4300,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
         <v>127</v>
@@ -4317,7 +4314,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
         <v>128</v>
@@ -4331,7 +4328,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
         <v>129</v>
@@ -4345,7 +4342,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
         <v>130</v>
@@ -4359,7 +4356,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
@@ -4373,7 +4370,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
@@ -4387,23 +4384,23 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" t="s">
         <v>252</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
@@ -4423,7 +4420,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4449,7 +4446,7 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
         <v>134</v>
@@ -4463,7 +4460,7 @@
         <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
         <v>135</v>
@@ -4477,7 +4474,7 @@
         <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
         <v>139</v>
@@ -4491,7 +4488,7 @@
         <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
         <v>140</v>
@@ -4505,7 +4502,7 @@
         <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
         <v>141</v>
@@ -4519,7 +4516,7 @@
         <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
         <v>142</v>
@@ -4561,10 +4558,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C2" s="12">
         <v>8</v>
@@ -4572,10 +4569,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>449</v>
       </c>
       <c r="C3" s="12">
         <v>8</v>
@@ -4583,10 +4580,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>450</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>451</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -4594,10 +4591,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -4605,10 +4602,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -4616,10 +4613,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>454</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>455</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -4627,10 +4624,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>456</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>457</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -4638,10 +4635,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>458</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>459</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -4649,10 +4646,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -4660,10 +4657,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
@@ -4671,10 +4668,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C12" s="12">
         <v>4</v>
@@ -4682,10 +4679,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C13" s="12">
         <v>4</v>
@@ -4693,10 +4690,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
@@ -4704,10 +4701,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
@@ -4715,10 +4712,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>274</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>275</v>
       </c>
       <c r="C16" s="12">
         <v>1</v>
@@ -4726,10 +4723,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
@@ -4737,10 +4734,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
@@ -4748,10 +4745,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>467</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>468</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
@@ -4759,10 +4756,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>469</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>470</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
@@ -4770,10 +4767,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>471</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>472</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
@@ -4781,10 +4778,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>473</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>474</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
@@ -4792,10 +4789,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>475</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>476</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
@@ -4803,10 +4800,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>477</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>478</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
@@ -4814,10 +4811,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
@@ -4825,10 +4822,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>480</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>481</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
@@ -4836,10 +4833,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -4847,10 +4844,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>483</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>484</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -4863,10 +4860,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4894,7 +4891,7 @@
         <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
         <v>146</v>
@@ -4903,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4911,7 +4908,7 @@
         <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
         <v>112</v>
@@ -4925,7 +4922,7 @@
         <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C4" t="s">
         <v>116</v>
@@ -4936,7 +4933,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
         <v>149</v>
@@ -4947,7 +4944,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
         <v>150</v>
@@ -4964,54 +4961,43 @@
         <v>151</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>263</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" t="s">
         <v>153</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5022,7 +5008,7 @@
         <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
         <v>112</v>
@@ -5036,7 +5022,7 @@
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C16" t="s">
         <v>116</v>
@@ -5047,7 +5033,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" t="s">
         <v>149</v>
@@ -5058,7 +5044,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
         <v>150</v>
@@ -5075,43 +5061,32 @@
         <v>151</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>263</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>264</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" t="s">
         <v>160</v>
-      </c>
-      <c r="B25" t="s">
-        <v>267</v>
-      </c>
-      <c r="C25" t="s">
-        <v>161</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -5122,10 +5097,10 @@
         <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -5136,10 +5111,10 @@
         <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -5150,7 +5125,7 @@
         <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
         <v>112</v>
@@ -5164,7 +5139,7 @@
         <v>148</v>
       </c>
       <c r="B29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C29" t="s">
         <v>116</v>
@@ -5175,7 +5150,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C30" t="s">
         <v>149</v>
@@ -5186,10 +5161,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -5197,10 +5172,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -5208,10 +5183,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -5222,7 +5197,7 @@
         <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C37" t="s">
         <v>73</v>
@@ -5236,7 +5211,7 @@
         <v>147</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s">
         <v>112</v>
@@ -5250,7 +5225,7 @@
         <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C39" t="s">
         <v>116</v>
@@ -5261,7 +5236,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C40" t="s">
         <v>149</v>
@@ -5272,7 +5247,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C41" t="s">
         <v>150</v>
@@ -5289,54 +5264,54 @@
         <v>151</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>263</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>264</v>
-      </c>
-      <c r="C44" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" t="s">
         <v>153</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C46" t="s">
         <v>167</v>
       </c>
       <c r="D46">
         <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -5349,10 +5324,13 @@
       <c r="D47">
         <v>1</v>
       </c>
+      <c r="E47" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>277</v>
+        <v>519</v>
       </c>
       <c r="C48" t="s">
         <v>169</v>
@@ -5360,19 +5338,16 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>520</v>
-      </c>
-      <c r="C49" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
@@ -5383,21 +5358,21 @@
         <v>171</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
@@ -5424,7 +5399,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>284</v>
+        <v>517</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>175</v>
@@ -5441,17 +5416,6 @@
         <v>176</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
-        <v>519</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56">
         <v>1</v>
       </c>
     </row>
@@ -5489,13 +5453,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5503,10 +5467,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5514,10 +5478,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5525,10 +5489,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5568,10 +5532,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5579,10 +5543,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5590,10 +5554,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5601,13 +5565,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" t="s">
         <v>181</v>
-      </c>
-      <c r="B5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" t="s">
-        <v>182</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5615,112 +5579,112 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5775,27 +5739,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -5805,12 +5769,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
@@ -5838,27 +5802,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -5873,7 +5837,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5896,12 +5860,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -5911,12 +5875,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -5966,7 +5930,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5989,37 +5953,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -6042,42 +6006,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6100,27 +6064,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6143,27 +6107,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6190,7 +6154,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -6198,10 +6162,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -6209,10 +6173,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6220,10 +6184,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6231,10 +6195,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6245,7 +6209,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6253,10 +6217,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6264,10 +6228,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -6278,7 +6242,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -6308,7 +6272,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -6316,10 +6280,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -6327,10 +6291,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6338,10 +6302,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6349,10 +6313,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6363,7 +6327,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6371,10 +6335,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6382,10 +6346,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -6412,10 +6376,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -6423,10 +6387,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -6437,7 +6401,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6445,10 +6409,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6456,10 +6420,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6470,7 +6434,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6481,7 +6445,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6492,7 +6456,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -6503,7 +6467,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -6514,7 +6478,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -6525,7 +6489,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -6536,7 +6500,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -6547,7 +6511,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -6558,7 +6522,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -6566,10 +6530,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -6605,7 +6569,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
@@ -6679,10 +6643,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -6690,10 +6654,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
@@ -6704,7 +6668,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -6712,10 +6676,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -6723,10 +6687,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -6737,7 +6701,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -6748,7 +6712,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -6759,7 +6723,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -6770,7 +6734,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -6781,7 +6745,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -6792,7 +6756,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -6803,7 +6767,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -6814,7 +6778,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
@@ -6825,7 +6789,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -6833,10 +6797,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -6863,10 +6827,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -6874,10 +6838,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -6885,10 +6849,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6896,10 +6860,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6907,10 +6871,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6918,10 +6882,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6929,10 +6893,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6958,10 +6922,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -6969,10 +6933,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -6980,10 +6944,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6991,10 +6955,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7002,10 +6966,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7013,10 +6977,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7024,10 +6988,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7035,10 +6999,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7065,10 +7029,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -7076,10 +7040,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7087,10 +7051,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7098,10 +7062,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7109,10 +7073,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7120,10 +7084,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>392</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -7155,10 +7119,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -7166,10 +7130,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>397</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>398</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -7177,10 +7141,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -7188,10 +7152,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -7199,10 +7163,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>400</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>401</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -7210,10 +7174,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -7221,10 +7185,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
@@ -7232,10 +7196,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>389</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>390</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
@@ -7243,10 +7207,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>404</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>405</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -7254,10 +7218,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>406</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>407</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -7265,10 +7229,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -7300,10 +7264,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -7311,10 +7275,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -7322,10 +7286,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
@@ -7333,10 +7297,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -7344,10 +7308,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -7355,10 +7319,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>392</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -7366,10 +7330,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -7401,10 +7365,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -7412,10 +7376,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>397</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>398</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -7423,10 +7387,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -7434,10 +7398,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -7445,10 +7409,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>400</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>401</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -7456,10 +7420,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -7467,10 +7431,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -7478,10 +7442,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>389</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>390</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -7489,10 +7453,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>404</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>405</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -7500,10 +7464,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -7511,10 +7475,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>406</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>407</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
@@ -7522,10 +7486,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -7533,10 +7497,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -7568,10 +7532,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -7579,10 +7543,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>411</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>412</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -7590,10 +7554,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
@@ -7601,10 +7565,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>414</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>415</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -7612,10 +7576,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>416</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>417</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -7623,10 +7587,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -7634,10 +7598,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -7645,10 +7609,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -7656,10 +7620,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
@@ -7667,10 +7631,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -7697,10 +7661,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -7708,42 +7672,42 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -7751,10 +7715,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7762,26 +7726,26 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -7805,7 +7769,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>76</v>
@@ -7816,10 +7780,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="13">
         <v>4</v>
@@ -7827,10 +7791,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>380</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>381</v>
       </c>
       <c r="C3" s="13">
         <v>4</v>
@@ -7838,10 +7802,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="13">
         <v>4</v>
@@ -7849,10 +7813,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>487</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>488</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -7860,10 +7824,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
@@ -7871,10 +7835,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>491</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>492</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
@@ -7882,10 +7846,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>493</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>494</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -7893,10 +7857,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -7904,10 +7868,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>504</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>505</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -8017,10 +7981,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -8028,10 +7992,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8039,10 +8003,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8069,10 +8033,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -8080,10 +8044,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8091,10 +8055,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8121,10 +8085,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -8132,10 +8096,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -8143,10 +8107,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -8173,10 +8137,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
@@ -8184,10 +8148,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>506</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>507</v>
       </c>
       <c r="C2" s="13">
         <v>3</v>
@@ -8195,10 +8159,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="13">
         <v>3</v>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70E10C1-B839-462F-8480-0B1AF706853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA4F59F-8902-4807-BBA4-15615FF0809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -24,38 +24,39 @@
     <sheet name="Kilit Pompa" sheetId="11" r:id="rId9"/>
     <sheet name="Valf Tipi-1" sheetId="12" r:id="rId10"/>
     <sheet name="Valf Tipi-2" sheetId="14" r:id="rId11"/>
-    <sheet name="Parça-Kampana" sheetId="15" r:id="rId12"/>
-    <sheet name="Parça-Pompa" sheetId="16" r:id="rId13"/>
-    <sheet name="Parça-Motor" sheetId="17" r:id="rId14"/>
-    <sheet name="Parça-Kaplin" sheetId="18" r:id="rId15"/>
-    <sheet name="Parça-Soğutucu" sheetId="45" r:id="rId16"/>
-    <sheet name="Parça-Valf Blokları" sheetId="19" r:id="rId17"/>
-    <sheet name="Parça-Basınç Şalteri" sheetId="21" r:id="rId18"/>
-    <sheet name="Parça-Standart" sheetId="22" r:id="rId19"/>
-    <sheet name="Hidros-380" sheetId="25" r:id="rId20"/>
-    <sheet name="Hidros-220" sheetId="26" r:id="rId21"/>
-    <sheet name="Hidros-Pompa" sheetId="27" r:id="rId22"/>
-    <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId23"/>
-    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId24"/>
-    <sheet name="Hidros-Platform" sheetId="30" r:id="rId25"/>
-    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId26"/>
-    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId27"/>
-    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId28"/>
-    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId29"/>
-    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId30"/>
-    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId31"/>
-    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId32"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId33"/>
-    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId34"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId35"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId36"/>
-    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId37"/>
-    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId38"/>
-    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId39"/>
-    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId40"/>
-    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId41"/>
-    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId42"/>
-    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId43"/>
+    <sheet name="Parça-Kampana-1K" sheetId="15" r:id="rId12"/>
+    <sheet name="Parça-Kampana-2K" sheetId="52" r:id="rId13"/>
+    <sheet name="Parça-Pompa" sheetId="16" r:id="rId14"/>
+    <sheet name="Parça-Motor" sheetId="17" r:id="rId15"/>
+    <sheet name="Parça-Kaplin" sheetId="18" r:id="rId16"/>
+    <sheet name="Parça-Soğutucu" sheetId="45" r:id="rId17"/>
+    <sheet name="Parça-Valf Blokları" sheetId="19" r:id="rId18"/>
+    <sheet name="Parça-Basınç Şalteri" sheetId="21" r:id="rId19"/>
+    <sheet name="Parça-Standart" sheetId="22" r:id="rId20"/>
+    <sheet name="Hidros-380" sheetId="25" r:id="rId21"/>
+    <sheet name="Hidros-220" sheetId="26" r:id="rId22"/>
+    <sheet name="Hidros-Pompa" sheetId="27" r:id="rId23"/>
+    <sheet name="Hidros-Tank-Dikey" sheetId="28" r:id="rId24"/>
+    <sheet name="Hidros-Tank-Yatay" sheetId="29" r:id="rId25"/>
+    <sheet name="Hidros-Platform" sheetId="30" r:id="rId26"/>
+    <sheet name="Hidros-Valf-Deger" sheetId="31" r:id="rId27"/>
+    <sheet name="Parça-Hidros-Motor380" sheetId="32" r:id="rId28"/>
+    <sheet name="Parça-Hidros-Motor220" sheetId="33" r:id="rId29"/>
+    <sheet name="Parça-Hidros-Pompa" sheetId="34" r:id="rId30"/>
+    <sheet name="Parça-Hidros-Pompa-Civata" sheetId="35" r:id="rId31"/>
+    <sheet name="Parça-Hidros-Tank-Dikey" sheetId="36" r:id="rId32"/>
+    <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId33"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId34"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId35"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId36"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId37"/>
+    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId38"/>
+    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId39"/>
+    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId40"/>
+    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId41"/>
+    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId42"/>
+    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId43"/>
+    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId44"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="531">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -314,9 +315,6 @@
     <t>Açıklama</t>
   </si>
   <si>
-    <t>250'lik Kampana</t>
-  </si>
-  <si>
     <t>300 lük Kampana</t>
   </si>
   <si>
@@ -1641,6 +1639,39 @@
   </si>
   <si>
     <t>150-51-09-423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-51-06-506 </t>
+  </si>
+  <si>
+    <t>150-51-06-507</t>
+  </si>
+  <si>
+    <t>150-51-06-508</t>
+  </si>
+  <si>
+    <t>2K-250 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>2K-300 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>2K-350 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>2K-400 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>1K-250 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>1K-300 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>1K-350 GR30 Kampana</t>
+  </si>
+  <si>
+    <t>1K-400 GR30 Kampana</t>
   </si>
 </sst>
 </file>
@@ -2248,10 +2279,10 @@
         <v>63</v>
       </c>
       <c r="R1" t="s">
+        <v>293</v>
+      </c>
+      <c r="S1" t="s">
         <v>294</v>
-      </c>
-      <c r="S1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -2389,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2410,7 +2441,7 @@
         <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2418,24 +2449,24 @@
         <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>192</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -2443,10 +2474,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -2454,10 +2485,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2465,27 +2496,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>194</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -2493,10 +2524,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -2504,10 +2535,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -2518,24 +2549,24 @@
         <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" t="s">
+        <v>529</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>196</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -2543,10 +2574,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -2554,10 +2585,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2565,27 +2596,27 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" t="s">
+        <v>530</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>198</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2593,10 +2624,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2604,10 +2635,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -2619,6 +2650,238 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFAAC03-6462-4911-8C15-76085A388A1C}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" customWidth="1"/>
+    <col min="5" max="5" width="34.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E152"/>
   <sheetViews>
@@ -2643,7 +2906,7 @@
         <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2651,10 +2914,10 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2662,10 +2925,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2673,10 +2936,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -2684,24 +2947,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>222</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2709,38 +2972,38 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>226</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>228</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2748,10 +3011,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2759,10 +3022,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2773,10 +3036,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2784,10 +3047,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2795,10 +3058,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -2806,10 +3069,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2817,10 +3080,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2828,10 +3091,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2839,10 +3102,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2850,10 +3113,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2861,10 +3124,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2872,10 +3135,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2886,10 +3149,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2897,10 +3160,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2908,10 +3171,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -2919,10 +3182,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2930,10 +3193,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2941,10 +3204,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2952,10 +3215,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2963,10 +3226,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2974,10 +3237,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2985,10 +3248,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2999,10 +3262,10 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3010,10 +3273,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3021,10 +3284,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -3032,10 +3295,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3043,10 +3306,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3054,10 +3317,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3065,10 +3328,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3076,10 +3339,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3087,10 +3350,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3098,10 +3361,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3112,10 +3375,10 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3123,10 +3386,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3134,10 +3397,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -3145,10 +3408,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3156,10 +3419,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3167,24 +3430,24 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
         <v>232</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3192,10 +3455,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3203,10 +3466,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3214,10 +3477,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3228,10 +3491,10 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3239,10 +3502,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -3250,10 +3513,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -3261,24 +3524,24 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3286,10 +3549,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3297,10 +3560,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3308,10 +3571,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3319,10 +3582,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3333,10 +3596,10 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3344,10 +3607,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -3355,10 +3618,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -3366,10 +3629,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -3377,10 +3640,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3388,10 +3651,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3399,10 +3662,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3410,10 +3673,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3421,10 +3684,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3435,10 +3698,10 @@
         <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3446,10 +3709,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -3457,10 +3720,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -3468,10 +3731,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3479,10 +3742,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D76">
         <v>8</v>
@@ -3490,10 +3753,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D77">
         <v>8</v>
@@ -3501,10 +3764,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3512,10 +3775,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3523,10 +3786,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3534,10 +3797,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -3545,10 +3808,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3564,10 +3827,10 @@
         <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -3575,10 +3838,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -3586,10 +3849,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -3597,10 +3860,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -3608,10 +3871,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -3619,10 +3882,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -3633,7 +3896,7 @@
         <v>123</v>
       </c>
       <c r="C99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -3641,10 +3904,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -3652,10 +3915,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -3663,10 +3926,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -3677,10 +3940,10 @@
         <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -3688,10 +3951,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D104">
         <v>4</v>
@@ -3699,10 +3962,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D105">
         <v>4</v>
@@ -3710,10 +3973,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -3721,10 +3984,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -3732,10 +3995,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -3746,7 +4009,7 @@
         <v>123</v>
       </c>
       <c r="C109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -3754,10 +4017,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -3765,10 +4028,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -3776,10 +4039,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -3790,10 +4053,10 @@
         <v>27</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -3801,10 +4064,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C114" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D114">
         <v>4</v>
@@ -3812,10 +4075,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -3823,10 +4086,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -3834,10 +4097,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3845,10 +4108,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -3859,7 +4122,7 @@
         <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -3867,10 +4130,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -3878,10 +4141,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -3889,10 +4152,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3903,10 +4166,10 @@
         <v>28</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C123" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -3914,10 +4177,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C124" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D124">
         <v>4</v>
@@ -3925,10 +4188,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -3936,10 +4199,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C126" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -3947,10 +4210,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C127" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -3958,10 +4221,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C128" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -3972,7 +4235,7 @@
         <v>123</v>
       </c>
       <c r="C129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -3980,10 +4243,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -3991,10 +4254,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -4002,10 +4265,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -4016,10 +4279,10 @@
         <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C133" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -4027,10 +4290,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C134" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D134">
         <v>4</v>
@@ -4038,10 +4301,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C135" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D135">
         <v>4</v>
@@ -4049,10 +4312,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -4060,10 +4323,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -4071,10 +4334,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C138" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -4082,10 +4345,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C139" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -4093,10 +4356,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C140" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -4104,10 +4367,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C141" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -4115,10 +4378,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C142" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -4129,10 +4392,10 @@
         <v>30</v>
       </c>
       <c r="B143" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C143" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -4140,10 +4403,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C144" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D144">
         <v>4</v>
@@ -4151,10 +4414,10 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C145" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D145">
         <v>4</v>
@@ -4162,10 +4425,10 @@
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C150" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -4173,10 +4436,10 @@
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C151" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -4184,10 +4447,10 @@
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C152" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -4198,7 +4461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -4222,7 +4485,7 @@
         <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -4230,10 +4493,10 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4241,13 +4504,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4258,10 +4521,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4272,10 +4535,10 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4286,10 +4549,10 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4300,10 +4563,10 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4314,10 +4577,10 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4328,10 +4591,10 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4342,10 +4605,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4356,10 +4619,10 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4370,10 +4633,10 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4384,26 +4647,26 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" t="s">
         <v>251</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -4415,7 +4678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -4438,18 +4701,18 @@
         <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4457,13 +4720,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4471,13 +4734,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
         <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4485,13 +4748,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4499,13 +4762,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4513,13 +4776,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4530,7 +4793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB920FC-CA3E-4670-8245-01BE36815DAA}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -4553,15 +4816,15 @@
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C2" s="12">
         <v>8</v>
@@ -4569,10 +4832,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>447</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>448</v>
       </c>
       <c r="C3" s="12">
         <v>8</v>
@@ -4580,10 +4843,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>449</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>450</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -4591,10 +4854,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -4602,10 +4865,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -4613,10 +4876,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>453</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>454</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -4624,10 +4887,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>455</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>456</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -4635,10 +4898,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>457</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>458</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -4646,10 +4909,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -4657,10 +4920,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
@@ -4668,10 +4931,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C12" s="12">
         <v>4</v>
@@ -4679,10 +4942,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C13" s="12">
         <v>4</v>
@@ -4690,10 +4953,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
@@ -4701,10 +4964,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
@@ -4712,10 +4975,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>273</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>274</v>
       </c>
       <c r="C16" s="12">
         <v>1</v>
@@ -4723,10 +4986,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
@@ -4734,10 +4997,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
@@ -4745,10 +5008,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>466</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>467</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
@@ -4756,10 +5019,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>468</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>469</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
@@ -4767,10 +5030,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>470</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>471</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
@@ -4778,10 +5041,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>472</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>473</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
@@ -4789,10 +5052,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>474</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>475</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
@@ -4800,10 +5063,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>476</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>477</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
@@ -4811,10 +5074,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
@@ -4822,10 +5085,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>480</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
@@ -4833,10 +5096,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -4844,10 +5107,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>483</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -4858,11 +5121,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:E55"/>
     </sheetView>
   </sheetViews>
@@ -4883,35 +5146,35 @@
         <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -4919,13 +5182,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4933,10 +5196,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4944,10 +5207,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4955,10 +5218,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -4966,24 +5229,24 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>263</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -4991,13 +5254,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5005,13 +5268,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -5019,13 +5282,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -5033,10 +5296,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5044,10 +5307,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -5055,10 +5318,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -5066,27 +5329,27 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>263</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" t="s">
         <v>159</v>
-      </c>
-      <c r="B25" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" t="s">
-        <v>160</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -5094,13 +5357,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -5108,13 +5371,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -5122,13 +5385,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -5136,13 +5399,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -5150,10 +5413,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -5161,10 +5424,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -5172,10 +5435,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -5183,10 +5446,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -5197,7 +5460,7 @@
         <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C37" t="s">
         <v>73</v>
@@ -5208,13 +5471,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -5222,13 +5485,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B39" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -5236,10 +5499,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -5247,10 +5510,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -5258,10 +5521,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -5269,10 +5532,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -5280,10 +5543,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -5291,24 +5554,24 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
         <v>273</v>
-      </c>
-      <c r="C45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -5316,24 +5579,24 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
         <v>276</v>
-      </c>
-      <c r="C47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5341,10 +5604,10 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -5352,24 +5615,24 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -5377,10 +5640,10 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -5388,10 +5651,10 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -5399,10 +5662,10 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -5410,10 +5673,10 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -5424,7 +5687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -5448,18 +5711,18 @@
         <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5467,10 +5730,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5478,10 +5741,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5489,202 +5752,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5727,6 +5801,195 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8480700-D23F-4CBA-8378-3368AA4183B3}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -5739,27 +6002,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -5769,12 +6032,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
@@ -5787,7 +6050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9541355-E856-4355-88CD-486F283E4EC4}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -5802,27 +6065,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -5837,7 +6100,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +6108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBC042E-80A8-42C4-A9B3-38966278D59B}">
   <dimension ref="A1:A15"/>
   <sheetViews>
@@ -5860,12 +6123,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -5875,12 +6138,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -5930,7 +6193,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5938,7 +6201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874B9D3B-369D-4F5E-B7FD-04D497CAC63E}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -5953,37 +6216,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5991,7 +6254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706AF6ED-9DEC-4392-90CA-8C4931691C80}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -6006,42 +6269,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -6049,7 +6312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B1B4E9-9B6F-49C9-8B35-ADABBA4AAA7F}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -6064,27 +6327,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E732F01E-369F-4D10-8666-C6A853A4E836}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -6107,27 +6370,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6135,7 +6398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4155170F-5ABC-4303-A3BC-E111E651C038}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -6154,18 +6417,18 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -6173,10 +6436,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6184,10 +6447,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6195,10 +6458,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6209,7 +6472,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6217,10 +6480,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6228,10 +6491,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -6242,7 +6505,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -6253,7 +6516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA31902F-0832-4108-8634-040D685C8A2A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -6272,18 +6535,18 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -6291,10 +6554,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6302,10 +6565,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6313,10 +6576,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6327,7 +6590,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6335,10 +6598,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6346,196 +6609,12 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE64E720-6E7A-4880-B24D-4A53B6B63C56}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="14.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C15" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6569,7 +6648,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
@@ -6628,6 +6707,190 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE64E720-6E7A-4880-B24D-4A53B6B63C56}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB23081-6940-409B-B521-D25ED59C31AB}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -6643,21 +6906,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
@@ -6668,7 +6931,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -6676,10 +6939,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -6687,10 +6950,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -6701,7 +6964,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -6712,7 +6975,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -6723,7 +6986,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -6734,7 +6997,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -6745,7 +7008,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -6756,7 +7019,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -6767,7 +7030,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -6778,7 +7041,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
@@ -6789,7 +7052,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -6797,10 +7060,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -6811,7 +7074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657B9AA-C0EA-4266-8F38-BDA0BEAE883F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -6827,21 +7090,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -6849,10 +7112,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6860,10 +7123,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6871,10 +7134,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6882,10 +7145,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6893,10 +7156,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6907,7 +7170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CAAB65-5513-42C9-935D-0E8576F3E914}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -6922,21 +7185,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -6944,10 +7207,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6955,10 +7218,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6966,10 +7229,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6977,10 +7240,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6988,10 +7251,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6999,10 +7262,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7013,7 +7276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A53901-52D0-4E8B-BDCC-705A28FC2A52}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7029,21 +7292,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7051,10 +7314,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7062,10 +7325,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7073,10 +7336,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7084,10 +7347,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>390</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>391</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -7103,7 +7366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DD818-438A-4831-92D3-0F7395A18832}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -7119,21 +7382,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>396</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>397</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -7141,10 +7404,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -7152,10 +7415,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -7163,10 +7426,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>399</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>400</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -7174,10 +7437,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -7185,10 +7448,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
@@ -7196,10 +7459,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>388</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>389</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
@@ -7207,10 +7470,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>403</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>404</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -7218,10 +7481,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>405</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>406</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -7229,10 +7492,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -7248,7 +7511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0619099-9FB9-4D8B-98C7-A6A2795A9397}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7264,21 +7527,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -7286,10 +7549,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
@@ -7297,10 +7560,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -7308,10 +7571,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -7319,10 +7582,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>390</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>391</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -7330,10 +7593,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -7349,7 +7612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96BF48A-4315-4E94-BCC2-561CDC3EFCA7}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -7365,21 +7628,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>396</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>397</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -7387,10 +7650,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -7398,10 +7661,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -7409,10 +7672,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>399</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>400</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -7420,10 +7683,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -7431,10 +7694,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -7442,10 +7705,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>388</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>389</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -7453,10 +7716,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>403</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>404</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -7464,10 +7727,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -7475,10 +7738,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>405</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>406</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
@@ -7486,10 +7749,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -7497,10 +7760,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -7516,7 +7779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6552E6E-9DF3-44DF-85A1-A0D822031935}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -7532,21 +7795,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>410</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>411</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -7554,10 +7817,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
@@ -7565,10 +7828,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>413</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>414</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -7576,10 +7839,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>415</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>416</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -7587,10 +7850,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -7598,10 +7861,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -7609,10 +7872,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -7620,10 +7883,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
@@ -7631,10 +7894,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -7645,7 +7908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB9543A-4A04-47DB-8957-17D1E7D8E982}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -7661,53 +7924,53 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -7715,10 +7978,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7726,155 +7989,26 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4DA7D-4F40-4C35-8616-1675859170C6}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="39.1796875" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="C6" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7966,6 +8100,135 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4DA7D-4F40-4C35-8616-1675859170C6}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.1796875" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6F623-52B2-4FE3-9404-E23DF1E7A3BC}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -7981,21 +8244,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8003,10 +8266,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8017,7 +8280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8A419-356C-49B5-8422-F842A6138710}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8033,21 +8296,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8055,10 +8318,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8069,7 +8332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2940612-38AA-473D-9E29-6948C9894827}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8085,21 +8348,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -8107,10 +8370,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -8121,7 +8384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8FDC1F-0928-4EAD-8229-D1C823D828C7}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8137,21 +8400,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>505</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>506</v>
       </c>
       <c r="C2" s="13">
         <v>3</v>
@@ -8159,10 +8422,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="13">
         <v>3</v>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA4F59F-8902-4807-BBA4-15615FF0809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97768862-8F04-482A-AA8C-BA2A7764782F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2421,7 +2421,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2599,7 +2599,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="C17" t="s">
         <v>530</v>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97768862-8F04-482A-AA8C-BA2A7764782F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1666B621-C236-4536-B5BB-58D109194F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="530">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -982,9 +982,6 @@
   </si>
   <si>
     <t>1.1 kW</t>
-  </si>
-  <si>
-    <t>2.2 kwW</t>
   </si>
   <si>
     <t xml:space="preserve">3 kW </t>
@@ -2420,7 +2417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2449,10 +2446,10 @@
         <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2499,10 +2496,10 @@
         <v>78</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2549,10 +2546,10 @@
         <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2602,7 +2599,7 @@
         <v>295</v>
       </c>
       <c r="C17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2684,7 +2681,7 @@
         <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2734,7 +2731,7 @@
         <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2784,7 +2781,7 @@
         <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2834,7 +2831,7 @@
         <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -4493,10 +4490,10 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4504,13 +4501,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4824,7 +4821,7 @@
         <v>259</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C2" s="12">
         <v>8</v>
@@ -4832,10 +4829,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>446</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>447</v>
       </c>
       <c r="C3" s="12">
         <v>8</v>
@@ -4843,10 +4840,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>449</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -4857,7 +4854,7 @@
         <v>253</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -4868,7 +4865,7 @@
         <v>229</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -4876,10 +4873,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>452</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>453</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -4887,10 +4884,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>454</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>455</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -4898,10 +4895,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>456</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>457</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -4909,10 +4906,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -4923,7 +4920,7 @@
         <v>287</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
@@ -4934,7 +4931,7 @@
         <v>224</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C12" s="12">
         <v>4</v>
@@ -4945,7 +4942,7 @@
         <v>219</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C13" s="12">
         <v>4</v>
@@ -4956,7 +4953,7 @@
         <v>281</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
@@ -4967,7 +4964,7 @@
         <v>274</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
@@ -4989,7 +4986,7 @@
         <v>289</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
@@ -5000,7 +4997,7 @@
         <v>260</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
@@ -5008,10 +5005,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>465</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>466</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
@@ -5019,10 +5016,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>467</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>468</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
@@ -5030,10 +5027,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>469</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>470</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
@@ -5041,10 +5038,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>471</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>472</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
@@ -5052,10 +5049,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>473</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>474</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
@@ -5063,10 +5060,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>475</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>476</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
@@ -5077,7 +5074,7 @@
         <v>286</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
@@ -5085,10 +5082,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>478</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>479</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
@@ -5096,10 +5093,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -5107,10 +5104,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>481</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>482</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -5185,7 +5182,7 @@
         <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C4" t="s">
         <v>115</v>
@@ -5285,7 +5282,7 @@
         <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C16" t="s">
         <v>115</v>
@@ -5402,7 +5399,7 @@
         <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C29" t="s">
         <v>115</v>
@@ -5488,7 +5485,7 @@
         <v>147</v>
       </c>
       <c r="B39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C39" t="s">
         <v>115</v>
@@ -5593,7 +5590,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C48" t="s">
         <v>168</v>
@@ -5662,7 +5659,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>174</v>
@@ -5673,7 +5670,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>175</v>
@@ -5752,7 +5749,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>156</v>
@@ -5993,7 +5990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8480700-D23F-4CBA-8378-3368AA4183B3}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6032,12 +6031,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>301</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
@@ -6065,12 +6064,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -6100,7 +6099,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6123,12 +6122,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -6138,12 +6137,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -6193,7 +6192,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -6216,37 +6215,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6269,42 +6268,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -6327,27 +6326,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -6370,27 +6369,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -6403,7 +6402,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6417,7 +6416,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -6425,10 +6424,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -6439,7 +6438,7 @@
         <v>298</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6447,10 +6446,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6461,7 +6460,7 @@
         <v>300</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6472,7 +6471,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6480,10 +6479,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6491,10 +6490,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -6505,7 +6504,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -6535,7 +6534,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -6546,7 +6545,7 @@
         <v>297</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -6557,7 +6556,7 @@
         <v>298</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6568,7 +6567,7 @@
         <v>299</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6576,10 +6575,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6590,7 +6589,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6598,10 +6597,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6609,10 +6608,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -6648,7 +6647,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
@@ -6722,10 +6721,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -6733,10 +6732,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -6747,7 +6746,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6755,10 +6754,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6766,10 +6765,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6780,7 +6779,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6791,7 +6790,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6802,7 +6801,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -6813,7 +6812,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -6824,7 +6823,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -6835,7 +6834,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -6846,7 +6845,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -6857,7 +6856,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -6868,7 +6867,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -6876,10 +6875,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -6906,10 +6905,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -6917,10 +6916,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
@@ -6931,7 +6930,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -6939,10 +6938,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -6950,10 +6949,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -6964,7 +6963,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -6975,7 +6974,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -6986,7 +6985,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -6997,7 +6996,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -7008,7 +7007,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -7019,7 +7018,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -7030,7 +7029,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -7041,7 +7040,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
@@ -7052,7 +7051,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -7060,10 +7059,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -7090,10 +7089,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -7101,10 +7100,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7112,10 +7111,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7123,10 +7122,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7134,10 +7133,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7145,10 +7144,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7156,10 +7155,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7185,10 +7184,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -7196,10 +7195,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7207,10 +7206,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7218,10 +7217,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7229,10 +7228,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7240,10 +7239,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -7251,10 +7250,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -7262,10 +7261,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7292,10 +7291,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -7303,10 +7302,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -7314,10 +7313,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7325,10 +7324,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -7336,10 +7335,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7347,10 +7346,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>389</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>390</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -7382,10 +7381,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -7393,10 +7392,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>395</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>396</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -7404,7 +7403,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>274</v>
@@ -7426,10 +7425,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>398</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>399</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -7437,10 +7436,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -7448,10 +7447,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
@@ -7459,10 +7458,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>388</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
@@ -7470,10 +7469,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>402</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>403</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -7481,10 +7480,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>405</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -7492,10 +7491,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>407</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -7527,10 +7526,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -7538,10 +7537,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -7549,10 +7548,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
@@ -7560,10 +7559,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -7571,10 +7570,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -7582,10 +7581,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>389</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>390</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -7593,10 +7592,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -7628,10 +7627,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -7639,10 +7638,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>395</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>396</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -7650,7 +7649,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>274</v>
@@ -7672,10 +7671,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>398</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>399</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -7683,10 +7682,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -7694,10 +7693,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -7705,10 +7704,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>388</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -7716,10 +7715,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>402</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>403</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -7727,10 +7726,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -7738,10 +7737,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>404</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>405</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
@@ -7749,10 +7748,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>407</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -7760,10 +7759,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -7795,10 +7794,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -7806,10 +7805,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>409</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>410</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -7817,10 +7816,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
@@ -7828,10 +7827,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -7839,10 +7838,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>414</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>415</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
@@ -7850,7 +7849,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>274</v>
@@ -7861,10 +7860,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
@@ -7872,10 +7871,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -7883,10 +7882,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
@@ -7894,10 +7893,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
@@ -7924,10 +7923,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -7935,7 +7934,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>286</v>
@@ -7943,31 +7942,31 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>283</v>
@@ -7978,10 +7977,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7989,26 +7988,26 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -8115,7 +8114,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>76</v>
@@ -8126,7 +8125,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>219</v>
@@ -8137,10 +8136,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="C3" s="13">
         <v>4</v>
@@ -8148,7 +8147,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>220</v>
@@ -8159,10 +8158,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>485</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>486</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -8170,10 +8169,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
@@ -8181,10 +8180,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>489</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>490</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
@@ -8192,10 +8191,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>491</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>492</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -8203,10 +8202,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -8214,10 +8213,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>502</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>503</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -8244,10 +8243,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -8255,10 +8254,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8266,10 +8265,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8296,10 +8295,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -8307,10 +8306,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -8318,10 +8317,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -8348,10 +8347,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -8359,10 +8358,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -8370,10 +8369,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -8400,10 +8399,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -8411,10 +8410,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>504</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>505</v>
       </c>
       <c r="C2" s="13">
         <v>3</v>
@@ -8422,7 +8421,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>220</v>

--- a/src/main/resources/data/Hidrolik.xlsx
+++ b/src/main/resources/data/Hidrolik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidir\IdeaProjects\Hydraulic-Tool\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1666B621-C236-4536-B5BB-58D109194F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09B0859-8794-4F86-9370-F695F77664D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="37" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boşluk Değerleri" sheetId="4" r:id="rId1"/>
@@ -48,15 +48,17 @@
     <sheet name="Parça-Hidros-Tank-Yatay" sheetId="37" r:id="rId33"/>
     <sheet name="Parça-Hidros-Valf-Dikey-Tek" sheetId="38" r:id="rId34"/>
     <sheet name="Parça-Hidros-Valf-Dikey-Çift" sheetId="39" r:id="rId35"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId36"/>
-    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId37"/>
-    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId38"/>
-    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId39"/>
-    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId40"/>
-    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId41"/>
-    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId42"/>
-    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId43"/>
-    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId44"/>
+    <sheet name="Parça-Hidros-Valf-Dikey-ÇiftESP" sheetId="53" r:id="rId36"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Tek" sheetId="40" r:id="rId37"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-Çift" sheetId="42" r:id="rId38"/>
+    <sheet name="Parça-Hidros-Valf-Yatay-ÇiftESP" sheetId="54" r:id="rId39"/>
+    <sheet name="Parça-Hidros-Platform-Devirmeli" sheetId="43" r:id="rId40"/>
+    <sheet name="Parça-Hidros-Genel" sheetId="44" r:id="rId41"/>
+    <sheet name="Parça-Hidros-Tam" sheetId="46" r:id="rId42"/>
+    <sheet name="Parça-Hidros-Tam-Yatay" sheetId="47" r:id="rId43"/>
+    <sheet name="Parça-Hidros-Tam-Dikey" sheetId="48" r:id="rId44"/>
+    <sheet name="Parça-Hidros-ESP-Yok" sheetId="51" r:id="rId45"/>
+    <sheet name="Parça-Hidros-Özel-Tek-Valf" sheetId="50" r:id="rId46"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -79,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="530">
   <si>
     <t>Ünite Tipleri</t>
   </si>
@@ -5990,7 +5992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8480700-D23F-4CBA-8378-3368AA4183B3}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -7077,9 +7079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657B9AA-C0EA-4266-8F38-BDA0BEAE883F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7280,7 +7280,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7370,7 +7370,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7511,11 +7511,151 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E8754-529A-4C72-866F-6429F54ED2DC}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0619099-9FB9-4D8B-98C7-A6A2795A9397}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7611,12 +7751,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96BF48A-4315-4E94-BCC2-561CDC3EFCA7}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7778,23 +7918,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6552E6E-9DF3-44DF-85A1-A0D822031935}">
-  <dimension ref="A1:C10"/>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1362CA58-25BB-4EDF-888A-66AED48FDEB9}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="69.08984375" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>346</v>
@@ -7804,210 +7944,135 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="A2" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="A3" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C11" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB9543A-4A04-47DB-8957-17D1E7D8E982}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>435</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8099,6 +8164,243 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6552E6E-9DF3-44DF-85A1-A0D822031935}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB9543A-4A04-47DB-8957-17D1E7D8E982}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB4DA7D-4F40-4C35-8616-1675859170C6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -8227,7 +8529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6F623-52B2-4FE3-9404-E23DF1E7A3BC}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8279,7 +8581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8A419-356C-49B5-8422-F842A6138710}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8331,7 +8633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2940612-38AA-473D-9E29-6948C9894827}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8383,7 +8685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8FDC1F-0928-4EAD-8229-D1C823D828C7}">
   <dimension ref="A1:C3"/>
   <sheetViews>
